--- a/overS.xlsx
+++ b/overS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA41"/>
+  <dimension ref="A1:BB41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,260 +436,265 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>deltaDateHour</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>[0.0-0.5)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>[0.5-1.5)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>[1.5-2.5)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>[2.5-3.5)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>[3.5-4.5)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>[4.5-5.5)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>[5.5-6.5)</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>[6.5-7.5)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>[7.5-8.5)</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>[8.5-9.5)</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>[9.5-10.5)</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>[10.5-11.5)</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>[11.5-12.5)</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>[12.5-13.5)</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>[13.5-14.5)</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>[14.5-15.5)</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>[15.5-16.5)</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>[16.5-17.5)</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>[17.5-18.5)</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>[18.5-19.5)</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>[19.5-20.5)</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>[20.5-21.5)</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>[21.5-22.5)</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>[22.5-23.5)</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>[23.5-24.5)</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>[24.5-25.5)</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>[25.5-26.5)</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>[26.5-27.5)</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>[27.5-28.5)</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>[28.5-29.5)</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>[29.5-30.5)</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>[30.5-31.5)</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>[31.5-32.5)</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>[32.5-33.5)</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>[33.5-34.5)</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>[34.5-35.5)</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>[35.5-36.5)</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>[36.5-37.5)</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>[37.5-38.5)</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>[38.5-39.5)</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>[39.5-40.5)</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>[40.5-41.5)</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>[41.5-42.5)</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>[42.5-43.5)</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>[43.5-44.5)</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>[44.5-45.5)</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>[45.5-46.5)</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>[46.5-47.5)</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>[47.5-48.5)</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>[48.5-49.5)</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>[49.5-50.5)</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
@@ -700,58 +705,58 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>3844</v>
+      </c>
+      <c r="C2" t="n">
         <v>12.20916666666667</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>158.9811111111111</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>204.3469444444444</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>108.0055555555556</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>40.13944444444444</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>20.71166666666667</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>5.911666666666667</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>0.7608333333333334</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>0.2225</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>0.1669444444444445</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>0.14</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.09222222222222222</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>0.04166666666666666</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>0.03722222222222222</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>0.03055555555555555</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>0.01666666666666667</v>
       </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -853,7 +858,10 @@
         <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>551.8141666666667</v>
+        <v>0</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>551.8169444444444</v>
       </c>
     </row>
     <row r="3">
@@ -861,59 +869,59 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>7946</v>
+      </c>
+      <c r="C3" t="n">
         <v>24.63916666666667</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>372.8102777777778</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>168.2205555555556</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>42.22583333333333</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>9.064166666666667</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>4.264166666666667</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>2.881111111111111</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>1.486111111111111</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>0.7463888888888889</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>0.4722222222222222</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>0.2597222222222222</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.1527777777777778</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>0.03888888888888889</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>0.1019444444444444</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>0.06111111111111111</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>0.1163888888888889</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>0.01111111111111111</v>
       </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
@@ -951,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>0.0002777777777777778</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -984,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1014,7 +1022,10 @@
         <v>0</v>
       </c>
       <c r="BA3" t="n">
-        <v>627.5519444444444</v>
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>627.553888888889</v>
       </c>
     </row>
     <row r="4">
@@ -1022,70 +1033,70 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>7755</v>
+      </c>
+      <c r="C4" t="n">
         <v>89.74361111111111</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>305.2675</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>88.10777777777778</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>27.59916666666667</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>11.31805555555556</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>2.578888888888889</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.5522222222222222</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.155</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>0.02972222222222222</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>0.01722222222222222</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>0.04416666666666667</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.1133333333333333</v>
       </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.003055555555555556</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.003888888888888889</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>0.003055555555555556</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -1175,7 +1186,10 @@
         <v>0</v>
       </c>
       <c r="BA4" t="n">
-        <v>525.5266666666666</v>
+        <v>0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>525.5491666666667</v>
       </c>
     </row>
     <row r="5">
@@ -1183,40 +1197,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>5718</v>
+      </c>
+      <c r="C5" t="n">
         <v>6.766944444444444</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>71.44555555555556</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>46.52861111111111</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>10.82194444444444</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>2.475</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>0.4530555555555555</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>0.02916666666666667</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
       <c r="J5" t="n">
+        <v>0.003888888888888889</v>
+      </c>
+      <c r="K5" t="n">
         <v>0.01333333333333333</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>0.009722222222222222</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -1336,7 +1350,10 @@
         <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>138.5336111111111</v>
+        <v>0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>138.5527777777778</v>
       </c>
     </row>
     <row r="6">
@@ -1344,62 +1361,62 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>8039</v>
+      </c>
+      <c r="C6" t="n">
         <v>31.20055555555556</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>164.4311111111111</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>114.0263888888889</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>28.51888888888889</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>9.945277777777777</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>4.870277777777778</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>1.721388888888889</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>1.193888888888889</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>0.7391666666666666</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>0.1680555555555556</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>0.1736111111111111</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>0.1741666666666667</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>0.4605555555555556</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>0.4175</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>0.2733333333333333</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>0.2911111111111111</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>0.2777777777777778</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>0.04166666666666666</v>
       </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
@@ -1422,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>0.0002777777777777778</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -1497,7 +1514,10 @@
         <v>0</v>
       </c>
       <c r="BA6" t="n">
-        <v>358.9247222222222</v>
+        <v>0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>358.925</v>
       </c>
     </row>
     <row r="7">
@@ -1505,160 +1525,163 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>29.31057782790804</v>
+        <v>6734.828736390112</v>
       </c>
       <c r="C7" t="n">
-        <v>191.4906912645979</v>
+        <v>20.90198090407402</v>
       </c>
       <c r="D7" t="n">
-        <v>178.4389125081394</v>
+        <v>309.5224401364932</v>
       </c>
       <c r="E7" t="n">
-        <v>90.17577186769572</v>
+        <v>178.8625344433998</v>
       </c>
       <c r="F7" t="n">
-        <v>33.86913158307303</v>
+        <v>61.70356705001747</v>
       </c>
       <c r="G7" t="n">
-        <v>16.7320169465042</v>
+        <v>18.11410670235461</v>
       </c>
       <c r="H7" t="n">
-        <v>4.732165614041895</v>
+        <v>9.093977799929643</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6616952472031119</v>
+        <v>3.631867584784835</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1374746580601012</v>
+        <v>1.246661083168116</v>
       </c>
       <c r="K7" t="n">
-        <v>0.263846387771439</v>
+        <v>0.4508378670859676</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1879166841676087</v>
+        <v>0.5175872037965308</v>
       </c>
       <c r="M7" t="n">
-        <v>0.139181188152509</v>
+        <v>0.3567863946492177</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01290501437222131</v>
+        <v>0.2293489123613221</v>
       </c>
       <c r="O7" t="n">
-        <v>0.04120201121033826</v>
+        <v>-0.00798753352121416</v>
       </c>
       <c r="P7" t="n">
-        <v>0.08052532913159553</v>
+        <v>0.2433871888555221</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1410220768780555</v>
+        <v>-0.01158147082191618</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.1507358361247313</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>-0.07062660277147989</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.3313217599043269</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.156001967414877</v>
       </c>
       <c r="V7" t="n">
-        <v>0.03974615171116869</v>
+        <v>-0.1026807248119362</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>0.08197529892291275</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>0.03526217639128522</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>-0.1297481617723113</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>0.01979914574413463</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.0872807706572889</v>
+        <v>0.04660321214463868</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>-0.0318604411689566</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>-0.03480626490361782</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.05179359013567431</v>
+        <v>-0.2196875525241833</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>0.03770542724638995</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.09087470290152747</v>
+        <v>0.05013266247323286</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.07373262833472803</v>
+        <v>0.06417377479113799</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.08385290966843828</v>
+        <v>0.1428695495629968</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.07212243113060289</v>
+        <v>0.1905329190667302</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>-0.04546098898501561</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.02917931864667886</v>
+        <v>-0.05787787655722141</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.1799327990022749</v>
+        <v>-0.09520265783467761</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>-0.02322427281819229</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>0.007815233469244636</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>-0.0351203711847701</v>
       </c>
       <c r="AP7" t="n">
-        <v>0</v>
+        <v>0.04806947587414453</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>0.003503778246820253</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>-0.07046405227008906</v>
       </c>
       <c r="AS7" t="n">
-        <v>0</v>
+        <v>-0.08903269779772773</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>0.1004481658407257</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>0.06740061468676656</v>
       </c>
       <c r="AV7" t="n">
-        <v>0</v>
+        <v>0.1106605246558639</v>
       </c>
       <c r="AW7" t="n">
-        <v>0</v>
+        <v>0.0671354257981505</v>
       </c>
       <c r="AX7" t="n">
-        <v>0</v>
+        <v>0.0139679440989931</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.09870711715356945</v>
+        <v>0.1048668127507166</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.2635102317795194</v>
+        <v>-0.04254612275335615</v>
       </c>
       <c r="BA7" t="n">
-        <v>547.4857688600287</v>
+        <v>-0.08340385563146586</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>605.5547533280509</v>
       </c>
     </row>
     <row r="8">
@@ -1666,160 +1689,163 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>10.74960543262664</v>
+        <v>7981.915036097669</v>
       </c>
       <c r="C8" t="n">
-        <v>136.7891720135618</v>
+        <v>30.9503753849445</v>
       </c>
       <c r="D8" t="n">
-        <v>164.2097737523515</v>
+        <v>164.3860295503628</v>
       </c>
       <c r="E8" t="n">
-        <v>83.52723297290872</v>
+        <v>115.2658760720544</v>
       </c>
       <c r="F8" t="n">
-        <v>30.6584976246082</v>
+        <v>29.59880725132614</v>
       </c>
       <c r="G8" t="n">
-        <v>15.57317399032733</v>
+        <v>10.38472915127045</v>
       </c>
       <c r="H8" t="n">
-        <v>4.444082358802687</v>
+        <v>5.14564738608695</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5806233394778708</v>
+        <v>1.811625349262259</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1353908193969883</v>
+        <v>1.230541614969909</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.8999826291348387</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.2600190638269793</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.3132500159349184</v>
       </c>
       <c r="N8" t="n">
-        <v>0.135356314801823</v>
+        <v>0.2154416435863514</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>0.4121299821577558</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>0.3561801495816134</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.2206801621784197</v>
       </c>
       <c r="R8" t="n">
-        <v>0.3251206163180542</v>
+        <v>0.1078087694367927</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01692144794005344</v>
+        <v>0.4259960967108375</v>
       </c>
       <c r="T8" t="n">
-        <v>0.05073693597556683</v>
+        <v>0.09473699496062768</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>-0.1653513001899611</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>-0.1038389610168869</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>-0.114542564672206</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>-0.02528867127549217</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.1586834737290962</v>
+        <v>0.07580106145040136</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.02886468683415373</v>
+        <v>-0.06609300061617375</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.09698332027250897</v>
+        <v>-0.1212244853356439</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>-0.1017619988051849</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>0.04669446342948617</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.03622950680771891</v>
+        <v>0.03571135070462147</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.01303975845006162</v>
+        <v>0.03419765339821843</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>0.327920671543532</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>-0.05568162449444325</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.1914748462811963</v>
+        <v>-0.1770670756029762</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>0.03122901326563145</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>0.1428228168003054</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.1108300167873504</v>
+        <v>-0.08383854354720582</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.04500921633617052</v>
+        <v>0.08656190169692618</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.1021351276096112</v>
+        <v>-0.02371395699040967</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>-0.09327356605918832</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>-0.03791825013910154</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>0.07239108441942103</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.03642349586929441</v>
+        <v>0.03481985982914772</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.06605594433499622</v>
+        <v>0.03011968250699923</v>
       </c>
       <c r="AS8" t="n">
-        <v>0</v>
+        <v>-0.1233243843027547</v>
       </c>
       <c r="AT8" t="n">
-        <v>0</v>
+        <v>-0.07681343301571203</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.2043798783400457</v>
+        <v>0.0242227225096557</v>
       </c>
       <c r="AV8" t="n">
-        <v>0</v>
+        <v>0.1661673423231394</v>
       </c>
       <c r="AW8" t="n">
-        <v>0</v>
+        <v>-0.0003121502016445522</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.02200117292370569</v>
+        <v>-0.01422717304119629</v>
       </c>
       <c r="AY8" t="n">
-        <v>0</v>
+        <v>0.02466939623002709</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0</v>
+        <v>-0.1074164838003517</v>
       </c>
       <c r="BA8" t="n">
-        <v>448.3077980636732</v>
+        <v>-0.1348332150911792</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>361.5866654496964</v>
       </c>
     </row>
     <row r="9">
@@ -1827,160 +1853,163 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9.030355170336628</v>
+        <v>7272.644765371679</v>
       </c>
       <c r="C9" t="n">
-        <v>107.4108398218901</v>
+        <v>80.21734632072892</v>
       </c>
       <c r="D9" t="n">
-        <v>111.541222314385</v>
+        <v>286.9943414568126</v>
       </c>
       <c r="E9" t="n">
-        <v>50.87535247653773</v>
+        <v>102.3718773468445</v>
       </c>
       <c r="F9" t="n">
-        <v>17.8813664847116</v>
+        <v>37.39627569216877</v>
       </c>
       <c r="G9" t="n">
-        <v>8.841260978104396</v>
+        <v>14.75171248592987</v>
       </c>
       <c r="H9" t="n">
-        <v>2.481871344343591</v>
+        <v>4.805892192168618</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3349143720827407</v>
+        <v>1.13789417665863</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.2317614789436706</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05195335845599125</v>
+        <v>0.2008972171881784</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2534583643055288</v>
+        <v>0.06317691296546893</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1333317615886503</v>
+        <v>-0.1304755000295076</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>0.005727066169113296</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>-0.1210477226474785</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>-0.03757911778026526</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>-0.07947053725851863</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>0.04712082610076933</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>-0.006954901526598091</v>
       </c>
       <c r="T9" t="n">
-        <v>0.05119615425136068</v>
+        <v>-0.04744957478322626</v>
       </c>
       <c r="U9" t="n">
-        <v>0.06099515900748517</v>
+        <v>-0.07102443651936133</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>0.09670592443632409</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>-0.2476350210450293</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>-0.001711812151278092</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.03186444203584209</v>
+        <v>-0.05761416941429286</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.02724107838399432</v>
+        <v>0.02104727671207487</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>-0.06323057960968803</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>-0.01245022302227745</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>-0.05374151654043204</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.02594602060843021</v>
+        <v>-0.05762187890126522</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>0.02311388502418877</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>0.1574519947067796</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>0.0345608997830649</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>-0.07621070551750728</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.05455851082496627</v>
+        <v>-0.1934168696291613</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.1084306944819376</v>
+        <v>-0.03175969211045526</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>-0.1643748358988056</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>-0.06186614744451596</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.0157218753020655</v>
+        <v>0.02698457928934243</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.1768740156667413</v>
+        <v>-0.04889165517879768</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.140740935530021</v>
+        <v>-0.1239682596539933</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>-0.06334378398106755</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.08733631275911111</v>
+        <v>-0.02425233589006634</v>
       </c>
       <c r="AR9" t="n">
-        <v>0</v>
+        <v>0.09163708006246411</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.04477437132273934</v>
+        <v>0.04797956698987298</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.09475164691934901</v>
+        <v>0.02612923615992638</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.1846635686134116</v>
+        <v>-0.02085746894823782</v>
       </c>
       <c r="AV9" t="n">
-        <v>0</v>
+        <v>-0.2160513236599729</v>
       </c>
       <c r="AW9" t="n">
-        <v>0</v>
+        <v>-0.1263178328536884</v>
       </c>
       <c r="AX9" t="n">
-        <v>0</v>
+        <v>0.03753733904206363</v>
       </c>
       <c r="AY9" t="n">
-        <v>0</v>
+        <v>0.04843037278405202</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.05886438993194007</v>
+        <v>-0.05564180863844163</v>
       </c>
       <c r="BA9" t="n">
-        <v>309.9998856223813</v>
+        <v>-0.07650314647559227</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>526.5641384705598</v>
       </c>
     </row>
     <row r="10">
@@ -1988,160 +2017,163 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>79.85260530140727</v>
+        <v>7395.535745840293</v>
       </c>
       <c r="C10" t="n">
-        <v>286.8297499121838</v>
+        <v>28.25319167657753</v>
       </c>
       <c r="D10" t="n">
-        <v>102.5241444353634</v>
+        <v>163.7599932900311</v>
       </c>
       <c r="E10" t="n">
-        <v>37.80670206662961</v>
+        <v>127.8277698074968</v>
       </c>
       <c r="F10" t="n">
-        <v>14.83313569874509</v>
+        <v>40.76594401014816</v>
       </c>
       <c r="G10" t="n">
-        <v>4.797850038713474</v>
+        <v>14.47976866617598</v>
       </c>
       <c r="H10" t="n">
-        <v>1.27095429548209</v>
+        <v>7.37343263603606</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2524455835001722</v>
+        <v>2.320589264543846</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1217465375198981</v>
+        <v>1.175975715586454</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>0.5008903210349283</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1618763302994281</v>
+        <v>0.04949677579682207</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1953382094701208</v>
+        <v>0.1730255059027209</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>-0.05666632355370116</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>0.3641249430954195</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>0.2803637317481466</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>0.23681526785711</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0827397812070398</v>
+        <v>0.3197254919121968</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1543203750728572</v>
+        <v>0.1715068224419743</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.08538675744114485</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05497846257540608</v>
+        <v>-0.06944285515014768</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>0.005376319670881324</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>0.05366838540292708</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>-0.1037068586563392</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>0.2025998457647171</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>-0.05515168024897872</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>0.03164697967538152</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>-0.104869643816198</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>0.008742941584016235</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>-0.01483440771524042</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>-0.09032209001023525</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>0.1423745624004409</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>0.02468296238709203</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.01427162135972378</v>
+        <v>0.08208130043721004</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>-0.01040892948918721</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.08844079887439785</v>
+        <v>0.02654698594718676</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>0.2354126310181976</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>0.2006854439229711</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.04387141309759168</v>
+        <v>0.04317961021703793</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>-0.02595617200693157</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.160385934795037</v>
+        <v>0.09594499035759935</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>0.07296502591053713</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>0.08571999196454677</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>-0.01400215559724603</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.08749106093678467</v>
+        <v>0.0608965049455134</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>0.01793228217918095</v>
       </c>
       <c r="AU10" t="n">
-        <v>0</v>
+        <v>0.2406747639911143</v>
       </c>
       <c r="AV10" t="n">
-        <v>0</v>
+        <v>0.1072082606469009</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.04365070166087254</v>
+        <v>0.03821978977192471</v>
       </c>
       <c r="AX10" t="n">
-        <v>0</v>
+        <v>-0.08097302893990892</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.07155116543715133</v>
+        <v>-0.03826826687865576</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.0419731734599027</v>
+        <v>0.1152398572337408</v>
       </c>
       <c r="BA10" t="n">
-        <v>529.4902228977912</v>
+        <v>-0.01134135031399216</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>389.3538563568788</v>
       </c>
     </row>
     <row r="11">
@@ -2149,160 +2181,163 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>13.25962153815875</v>
+        <v>6637.137096159861</v>
       </c>
       <c r="C11" t="n">
-        <v>176.9868000328938</v>
+        <v>67.71953042595501</v>
       </c>
       <c r="D11" t="n">
-        <v>201.2780098928072</v>
+        <v>263.6862086354356</v>
       </c>
       <c r="E11" t="n">
-        <v>102.228258329005</v>
+        <v>121.4377341445732</v>
       </c>
       <c r="F11" t="n">
-        <v>37.57599474865539</v>
+        <v>50.57504818058717</v>
       </c>
       <c r="G11" t="n">
-        <v>19.39501623083636</v>
+        <v>19.40256700629836</v>
       </c>
       <c r="H11" t="n">
-        <v>5.589669026315091</v>
+        <v>7.659922686591724</v>
       </c>
       <c r="I11" t="n">
-        <v>1.024030153688823</v>
+        <v>2.112542037056638</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3256932957903335</v>
+        <v>0.3474242057675756</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2280987004608916</v>
+        <v>0.04506923920701979</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3029547804170823</v>
+        <v>-0.04029728122852527</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1591134052391484</v>
+        <v>0.08775078029071343</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1689093247632363</v>
+        <v>0.3379717305082058</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>0.01526462422646799</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1069586635851823</v>
+        <v>0.06306911136979751</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.04420468409662021</v>
+        <v>-0.01325594226147337</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>0.2678485945570377</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1558935740342329</v>
+        <v>0.005116043776473929</v>
       </c>
       <c r="T11" t="n">
-        <v>0.06625142743370012</v>
+        <v>0.08454951443524926</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-0.1743239158101461</v>
       </c>
       <c r="V11" t="n">
-        <v>0.1335699810624342</v>
+        <v>0.1370975977153198</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1726803402888586</v>
+        <v>0.003898852461508595</v>
       </c>
       <c r="X11" t="n">
-        <v>0.1174545846999203</v>
+        <v>-0.08864478304145172</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>0.007613998165719155</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.01010310943580066</v>
+        <v>0.1869354631925621</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.07880424720232582</v>
+        <v>0.08887601495711703</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.06926746140458644</v>
+        <v>0.01015365030838599</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>-0.05911059353311365</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.04963767134264693</v>
+        <v>-0.04696414343606897</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>-0.06553118898168803</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>0.01072863522493665</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>-0.1501677710979079</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.01219796123139736</v>
+        <v>0.1613882667376307</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.227661203619175</v>
+        <v>-0.08029556917542868</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>-0.1020286584045838</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>0.06457536302492371</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.1221110176480633</v>
+        <v>-0.1123793123502611</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.1535270614780342</v>
+        <v>-0.03767573690095335</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.02751821481307336</v>
+        <v>-0.08729447607181925</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.1398989505141916</v>
+        <v>0.01175650921147829</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.1595658565395724</v>
+        <v>0.01261156729569153</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.01583642965405983</v>
+        <v>0.07037954108384158</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.158907483002257</v>
+        <v>-0.09384164247248225</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.03249203293028413</v>
+        <v>-0.03862480799210342</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.1349845931407888</v>
+        <v>0.04344156243732779</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.1612931358911983</v>
+        <v>0.02617691291567996</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.02479440869674388</v>
+        <v>-0.06556471771577842</v>
       </c>
       <c r="AW11" t="n">
-        <v>0</v>
+        <v>-0.1510824337479001</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.1009110717157222</v>
+        <v>0.03289345462704554</v>
       </c>
       <c r="AY11" t="n">
-        <v>0</v>
+        <v>0.1214063387879992</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0</v>
+        <v>0.1361596156148669</v>
       </c>
       <c r="BA11" t="n">
-        <v>560.9986946244919</v>
+        <v>-0.0902999531867433</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>533.4763273769898</v>
       </c>
     </row>
     <row r="12">
@@ -2310,160 +2345,163 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>16.3939577697773</v>
+        <v>7570.880157796353</v>
       </c>
       <c r="C12" t="n">
-        <v>159.9791611113477</v>
+        <v>86.21473647511498</v>
       </c>
       <c r="D12" t="n">
-        <v>185.0838073816119</v>
+        <v>298.4554750177392</v>
       </c>
       <c r="E12" t="n">
-        <v>91.0268875657852</v>
+        <v>93.69337617058252</v>
       </c>
       <c r="F12" t="n">
-        <v>33.77903240005947</v>
+        <v>31.38367794616784</v>
       </c>
       <c r="G12" t="n">
-        <v>17.34663341714893</v>
+        <v>12.87327661010822</v>
       </c>
       <c r="H12" t="n">
-        <v>5.132130903912246</v>
+        <v>3.357162384930293</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8628073188551171</v>
+        <v>0.7922387064866391</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2133686306430326</v>
+        <v>0.2015927160194338</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2121585076523888</v>
+        <v>0.1091379775865405</v>
       </c>
       <c r="L12" t="n">
-        <v>0.09095693959867451</v>
+        <v>0.01415862558407734</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01756864028689369</v>
+        <v>0.006360729367739973</v>
       </c>
       <c r="N12" t="n">
-        <v>0.07339906487384609</v>
+        <v>0.03500660928424487</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2589160343727436</v>
+        <v>-0.07350867903830377</v>
       </c>
       <c r="P12" t="n">
-        <v>0.1546358486256241</v>
+        <v>-0.1860323994768477</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.04586953149648067</v>
+        <v>-0.007582870940655873</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>-0.05927873468614974</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1310322528226509</v>
+        <v>-0.1108702851651982</v>
       </c>
       <c r="T12" t="n">
-        <v>0.03177203261181433</v>
+        <v>-0.1015448064054369</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0257734947914658</v>
+        <v>-0.02587624375517967</v>
       </c>
       <c r="V12" t="n">
-        <v>0.1339593410542403</v>
+        <v>-0.05136124862618229</v>
       </c>
       <c r="W12" t="n">
-        <v>0.02021313063597598</v>
+        <v>0.1301205693183488</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>-0.02569935629665611</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.04481533576747801</v>
+        <v>-0.04140915521503194</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.1570924763297272</v>
+        <v>-0.06471293550097261</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.1413725187317839</v>
+        <v>0.01852995349805494</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>-0.02372903296209784</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>0.00201955537234269</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>0.01282521627930891</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>0.04745629492979364</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>-0.09116134403628051</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>-0.04763794689955353</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>0.05951539484254934</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.08264000325688224</v>
+        <v>-0.009372789477763054</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>-0.04809529136144167</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.08143661628894179</v>
+        <v>0.1954716130687851</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.08100558723151807</v>
+        <v>-0.0001972881805407642</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.06944111303672956</v>
+        <v>-0.08692902444118349</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>-0.001396896021782138</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.1223081891848667</v>
+        <v>-0.01727318380242071</v>
       </c>
       <c r="AP12" t="n">
-        <v>0</v>
+        <v>-0.0400726160415511</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.07925377610304407</v>
+        <v>-0.03057201336022018</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.07074447059575317</v>
+        <v>0.08105693153605578</v>
       </c>
       <c r="AS12" t="n">
-        <v>0</v>
+        <v>-0.030298957073404</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.2476154624986841</v>
+        <v>-0.02789894766110683</v>
       </c>
       <c r="AU12" t="n">
-        <v>0</v>
+        <v>0.05204837781595403</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.03590768190071728</v>
+        <v>-0.1168612482946013</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.09504471225347311</v>
+        <v>-0.006786708411366852</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.01012268730399956</v>
+        <v>-0.1249685970149725</v>
       </c>
       <c r="AY12" t="n">
-        <v>0</v>
+        <v>0.01726921123962567</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0</v>
+        <v>-0.004038890886187955</v>
       </c>
       <c r="BA12" t="n">
-        <v>512.3328419484474</v>
+        <v>0.08272451270496518</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>526.3800701085445</v>
       </c>
     </row>
     <row r="13">
@@ -2471,160 +2509,163 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8.624276076740811</v>
+        <v>6945.832459719792</v>
       </c>
       <c r="C13" t="n">
-        <v>102.1509094788163</v>
+        <v>21.63067523617726</v>
       </c>
       <c r="D13" t="n">
-        <v>101.8711352831351</v>
+        <v>320.7037616988274</v>
       </c>
       <c r="E13" t="n">
-        <v>44.93482621239754</v>
+        <v>176.9718439355386</v>
       </c>
       <c r="F13" t="n">
-        <v>15.61194586563074</v>
+        <v>58.39759859135939</v>
       </c>
       <c r="G13" t="n">
-        <v>7.456207734703011</v>
+        <v>16.53980725275865</v>
       </c>
       <c r="H13" t="n">
-        <v>2.221834756583442</v>
+        <v>8.075724914150236</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2880127641032534</v>
+        <v>3.706892381693974</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02574081760525371</v>
+        <v>1.369559226248788</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1383605237001803</v>
+        <v>0.5812163392929159</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>0.4344423060700939</v>
       </c>
       <c r="M13" t="n">
-        <v>0.03619483097163614</v>
+        <v>0.4591240182730087</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>0.2984475315852653</v>
       </c>
       <c r="O13" t="n">
-        <v>0.07311297014423337</v>
+        <v>0.03519607377095086</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0843629389448475</v>
+        <v>-0.001959076677199467</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>0.1405943286560422</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1031334550649656</v>
+        <v>0.135389872791748</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1957617118299188</v>
+        <v>0.0008115555344633592</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.1157405056869092</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1163981966312881</v>
+        <v>-0.05421362054992939</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>-0.047993718434252</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>-0.1080121159421862</v>
       </c>
       <c r="X13" t="n">
-        <v>0.09907779620377039</v>
+        <v>0.05750585584378586</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>0.115279306621971</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>0.0875805638219409</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>-0.1186563332625203</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>0.1722475900186862</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>-0.1259014105780352</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>0.1543812893779197</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>0.02833096817279708</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>-0.01050472824752663</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.1512285430953074</v>
+        <v>0.1214958735547873</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>0.09336891840552292</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>-0.09477071069980353</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>0.07542275369808701</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>0.08237112033620243</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.02959713141612422</v>
+        <v>-0.03064786929774782</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.1930307145039385</v>
+        <v>-0.03824799191829429</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.03680892500842688</v>
+        <v>-0.01223918141246054</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>-0.03830155802165634</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.04299254959379573</v>
+        <v>-0.03896586616055916</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>-0.05454742711181213</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.05434152059294764</v>
+        <v>-0.06365371288713971</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.08216681910853868</v>
+        <v>0.005509743446366159</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>0.0556274417022054</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.1230779057853263</v>
+        <v>-0.03752923820420455</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>-0.09734659871804376</v>
       </c>
       <c r="AW13" t="n">
-        <v>0</v>
+        <v>0.03959093844257815</v>
       </c>
       <c r="AX13" t="n">
-        <v>0</v>
+        <v>-0.02139721497045313</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>-0.05106577476334444</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0</v>
+        <v>-0.006587284328518535</v>
       </c>
       <c r="BA13" t="n">
-        <v>284.7445355223107</v>
+        <v>0.1873282716662906</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>609.8203249713393</v>
       </c>
     </row>
     <row r="14">
@@ -2632,160 +2673,163 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>29.88006317605895</v>
+        <v>7463.351290191935</v>
       </c>
       <c r="C14" t="n">
-        <v>208.5080977039423</v>
+        <v>20.78813148344959</v>
       </c>
       <c r="D14" t="n">
-        <v>125.5915224289988</v>
+        <v>307.4250411675355</v>
       </c>
       <c r="E14" t="n">
-        <v>31.0957206914597</v>
+        <v>141.9583483124742</v>
       </c>
       <c r="F14" t="n">
-        <v>9.769634394535819</v>
+        <v>35.4630881823411</v>
       </c>
       <c r="G14" t="n">
-        <v>4.637384132076773</v>
+        <v>7.515314964240587</v>
       </c>
       <c r="H14" t="n">
-        <v>1.959599619134888</v>
+        <v>3.511160222910947</v>
       </c>
       <c r="I14" t="n">
-        <v>1.2719246370856</v>
+        <v>2.317741325846538</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5767531084921761</v>
+        <v>1.091902925152757</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1423085220956615</v>
+        <v>0.5894177058966891</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2881951888626045</v>
+        <v>0.4180550458907947</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2172211205668856</v>
+        <v>0.0749327830180003</v>
       </c>
       <c r="N14" t="n">
-        <v>0.1965525234220734</v>
+        <v>0.05988601029989219</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3470164174806055</v>
+        <v>0.1171121676571563</v>
       </c>
       <c r="P14" t="n">
-        <v>0.4148678274228612</v>
+        <v>0.1475714014959035</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.2775015955515021</v>
+        <v>-0.06682681668587781</v>
       </c>
       <c r="R14" t="n">
-        <v>0.170341602351905</v>
+        <v>0.07101633413508601</v>
       </c>
       <c r="S14" t="n">
-        <v>0.2063916898816167</v>
+        <v>0.1091208043233038</v>
       </c>
       <c r="T14" t="n">
-        <v>0.07313521331568439</v>
+        <v>-0.03082625538399314</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1321255762787641</v>
+        <v>-0.004354392256812415</v>
       </c>
       <c r="V14" t="n">
-        <v>0.08114582015132488</v>
+        <v>-0.05374835122549568</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-0.008737414036689012</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>0.03667919097193557</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.08801437464711531</v>
+        <v>-0.02800958802439235</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>0.1704947253348763</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.1524986083392521</v>
+        <v>-0.1017313401440252</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.2016607454833447</v>
+        <v>0.2049271459599238</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>0.01875176466946024</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>-0.08991151897056637</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.04613800755814568</v>
+        <v>-0.1122137747894721</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.02298625596972852</v>
+        <v>0.06328638537162609</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.1738213117471652</v>
+        <v>-0.04206705693505614</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.1884334814023809</v>
+        <v>-0.01412083965223113</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>0.1011359237439027</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.2550524405181165</v>
+        <v>0.095548292560174</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>-0.03291250824118982</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>0.00736766842468303</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.061828946057034</v>
+        <v>0.0317140642792321</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>-0.04174798289847786</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.2096624041476493</v>
+        <v>-0.1164592336290458</v>
       </c>
       <c r="AP14" t="n">
-        <v>0</v>
+        <v>0.173088603622386</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0</v>
+        <v>-0.09186271339941182</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>-0.05570540527017101</v>
       </c>
       <c r="AS14" t="n">
-        <v>0</v>
+        <v>-0.1652452864487065</v>
       </c>
       <c r="AT14" t="n">
-        <v>0</v>
+        <v>-0.1169608717773745</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.05371964481354696</v>
+        <v>0.2227359182841395</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.01028698161612043</v>
+        <v>-0.0173305293083774</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.03780710238785084</v>
+        <v>0.08304975750181984</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.1124329280012406</v>
+        <v>-0.02721993672437066</v>
       </c>
       <c r="AY14" t="n">
-        <v>0</v>
+        <v>0.2168191579389925</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0</v>
+        <v>-0.1155462489637126</v>
       </c>
       <c r="BA14" t="n">
-        <v>417.4518462218552</v>
+        <v>0.02757295190935244</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>521.7774743224752</v>
       </c>
     </row>
     <row r="15">
@@ -2793,160 +2837,163 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>45.83057856746241</v>
+        <v>7725.127660329711</v>
       </c>
       <c r="C15" t="n">
-        <v>350.9830356508189</v>
+        <v>22.90076925216754</v>
       </c>
       <c r="D15" t="n">
-        <v>142.0806852982257</v>
+        <v>343.0085281976885</v>
       </c>
       <c r="E15" t="n">
-        <v>37.46847443624376</v>
+        <v>156.2284826769447</v>
       </c>
       <c r="F15" t="n">
-        <v>9.851082924793328</v>
+        <v>39.21447164031055</v>
       </c>
       <c r="G15" t="n">
-        <v>3.672466153998623</v>
+        <v>8.378130292043235</v>
       </c>
       <c r="H15" t="n">
-        <v>1.978985241082135</v>
+        <v>4.024398647956508</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9895972197863946</v>
+        <v>2.574266255477962</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7552491834923154</v>
+        <v>1.043515726076841</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3982194110545196</v>
+        <v>0.6894834244319241</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3449245099856618</v>
+        <v>0.4622405949585704</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1465499423614903</v>
+        <v>0.1022672067355332</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>0.08289602404629969</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>0.02202857307069915</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>-0.01667296217597145</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>0.2329450413712708</v>
       </c>
       <c r="R15" t="n">
-        <v>0.05461049177802074</v>
+        <v>0.1203967636157094</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>0.1554810237865585</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>-0.08875347974706778</v>
       </c>
       <c r="U15" t="n">
-        <v>0.194700309237493</v>
+        <v>-0.07846347197525029</v>
       </c>
       <c r="V15" t="n">
-        <v>0.03571082927059029</v>
+        <v>0.01238826089006245</v>
       </c>
       <c r="W15" t="n">
-        <v>0.04059481057972205</v>
+        <v>-0.1013921787117554</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>-0.002265954892765389</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>0.2533410440101604</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>0.04722206716141336</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>-0.02094829005674383</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>-0.1474081551899521</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.0395036321204771</v>
+        <v>0.03525319822404007</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>0.0855948407409456</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.03377773515242508</v>
+        <v>-0.1496385754175028</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>-0.09724609295984918</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.03913228446430676</v>
+        <v>-0.08803183353962551</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.1659127300994457</v>
+        <v>0.1297460704339915</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>0.1463593380766564</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>-0.02566251293328445</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.02720800457352333</v>
+        <v>-0.1507526231198287</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.06690639335945496</v>
+        <v>0.181242085576566</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.1535326485020451</v>
+        <v>0.09674256547231752</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.1081785660875766</v>
+        <v>-0.1519250520233769</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.0626677719062624</v>
+        <v>-0.1007739481436334</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.06797864010674388</v>
+        <v>-0.06106750306397447</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.108413317582804</v>
+        <v>-0.07721844521929742</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>-0.0113604058620129</v>
       </c>
       <c r="AS15" t="n">
-        <v>0</v>
+        <v>0.01774558307345856</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.1301429566703013</v>
+        <v>0.04878516657349873</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.06617030824755531</v>
+        <v>-0.06022518291083789</v>
       </c>
       <c r="AV15" t="n">
-        <v>0</v>
+        <v>-0.03715191446849873</v>
       </c>
       <c r="AW15" t="n">
-        <v>0</v>
+        <v>0.1439680253870388</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.08094406081064813</v>
+        <v>0.02226402399638883</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.093007231909083</v>
+        <v>0.1446717459789247</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0</v>
+        <v>-0.03537207244403633</v>
       </c>
       <c r="BA15" t="n">
-        <v>596.0689412617638</v>
+        <v>0.02857805218636053</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>579.1318727536089</v>
       </c>
     </row>
     <row r="16">
@@ -2954,160 +3001,163 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>23.81865289402582</v>
+        <v>8010.451032265025</v>
       </c>
       <c r="C16" t="n">
-        <v>356.6126299254429</v>
+        <v>29.06390597848684</v>
       </c>
       <c r="D16" t="n">
-        <v>171.0301576273293</v>
+        <v>228.141962982884</v>
       </c>
       <c r="E16" t="n">
-        <v>47.18083143388182</v>
+        <v>130.7528563971942</v>
       </c>
       <c r="F16" t="n">
-        <v>11.56520059722479</v>
+        <v>32.83800769882239</v>
       </c>
       <c r="G16" t="n">
-        <v>5.567586465064411</v>
+        <v>9.591311005717152</v>
       </c>
       <c r="H16" t="n">
-        <v>3.015570887683402</v>
+        <v>4.781553604585461</v>
       </c>
       <c r="I16" t="n">
-        <v>1.52898574296761</v>
+        <v>1.888234427515297</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7293134716223293</v>
+        <v>1.161147754718587</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4792993239791893</v>
+        <v>0.7093378607410454</v>
       </c>
       <c r="L16" t="n">
-        <v>0.06222529068341656</v>
+        <v>0.3292009255225458</v>
       </c>
       <c r="M16" t="n">
-        <v>0.169264692466386</v>
+        <v>0.2205332365102457</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01805187142643544</v>
+        <v>0.1497326409385482</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2871123710955752</v>
+        <v>0.381627137478056</v>
       </c>
       <c r="P16" t="n">
-        <v>0.2673741815523017</v>
+        <v>0.394891994663094</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1088581485017683</v>
+        <v>0.15634184436867</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>0.4625840884276319</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1666863711043565</v>
+        <v>0.317272552390143</v>
       </c>
       <c r="T16" t="n">
-        <v>0.04149911220229366</v>
+        <v>0.06296758290959557</v>
       </c>
       <c r="U16" t="n">
-        <v>0.2282208537906855</v>
+        <v>0.1937228299185894</v>
       </c>
       <c r="V16" t="n">
-        <v>0.1073021296741304</v>
+        <v>0.2582606758271656</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>-0.02892121216802977</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>-0.0275231156898981</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>0.157791920926833</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.08061948132752771</v>
+        <v>-0.1013641665287113</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>0.05266886876211244</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>0.06731617594185099</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>-0.1162060924484452</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>-0.0313032465560855</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.08175151780650612</v>
+        <v>0.04877225387837397</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>0.1193484257647141</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>-0.006576658182324594</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.1468663143982421</v>
+        <v>0.1143205238448035</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>-0.1031298609610226</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>0.2297353525576609</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.09028019216301218</v>
+        <v>0.06067805196688986</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.0371713783650927</v>
+        <v>-0.08747815557443478</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.06429331218539537</v>
+        <v>-0.0737863133796554</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>0.02707701258924509</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>-0.05954909852869853</v>
       </c>
       <c r="AP16" t="n">
-        <v>0</v>
+        <v>0.1996421548204077</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0</v>
+        <v>-0.1652620860236737</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.09900189892099935</v>
+        <v>-0.1494661192940759</v>
       </c>
       <c r="AS16" t="n">
-        <v>0</v>
+        <v>-0.02541304124635534</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.1468551391066938</v>
+        <v>-0.009046049117436573</v>
       </c>
       <c r="AU16" t="n">
-        <v>0</v>
+        <v>-0.009297592809518918</v>
       </c>
       <c r="AV16" t="n">
-        <v>0</v>
+        <v>-0.2593036064079312</v>
       </c>
       <c r="AW16" t="n">
-        <v>0</v>
+        <v>-0.05278972778988533</v>
       </c>
       <c r="AX16" t="n">
-        <v>0</v>
+        <v>0.07107039188658858</v>
       </c>
       <c r="AY16" t="n">
-        <v>0</v>
+        <v>0.02685236816430697</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0</v>
+        <v>-0.03461460229720845</v>
       </c>
       <c r="BA16" t="n">
-        <v>623.7316626259924</v>
+        <v>0.1205309935292864</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>441.8102269692489</v>
       </c>
     </row>
     <row r="17">
@@ -3115,160 +3165,163 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>18.90650646718988</v>
+        <v>7619.551501641708</v>
       </c>
       <c r="C17" t="n">
-        <v>276.2633843017179</v>
+        <v>22.10394900370598</v>
       </c>
       <c r="D17" t="n">
-        <v>184.6531187114183</v>
+        <v>328.4246956777641</v>
       </c>
       <c r="E17" t="n">
-        <v>72.09408096403877</v>
+        <v>150.4936853870798</v>
       </c>
       <c r="F17" t="n">
-        <v>23.14717655285869</v>
+        <v>37.52512620880061</v>
       </c>
       <c r="G17" t="n">
-        <v>11.69075917338419</v>
+        <v>7.907493793174766</v>
       </c>
       <c r="H17" t="n">
-        <v>4.271606924869056</v>
+        <v>3.704039816186354</v>
       </c>
       <c r="I17" t="n">
-        <v>1.075142865621507</v>
+        <v>2.38830524672546</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5275782080172975</v>
+        <v>1.252477924798574</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1035188364585048</v>
+        <v>0.6646883102815584</v>
       </c>
       <c r="L17" t="n">
-        <v>0.4010169779456911</v>
+        <v>0.5746510013867693</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>0.1416183059056739</v>
       </c>
       <c r="N17" t="n">
-        <v>0.08619561213445256</v>
+        <v>0.2488850574228323</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>-0.03340167084823301</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1672345512914603</v>
+        <v>0.1551170430187033</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.1239319420532733</v>
+        <v>0.01982470493882419</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>0.05102731612374826</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>0.02693322368792795</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>0.04534656369678849</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>0.02832773919098718</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-0.09694179705727514</v>
       </c>
       <c r="W17" t="n">
-        <v>0.05575515019773413</v>
+        <v>0.08334413576389157</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-0.1024912807949561</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-0.02682776996113977</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>-0.181259831448228</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.02324598958620918</v>
+        <v>-0.1617054342734207</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>0.1317367645102999</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.07080278266841551</v>
+        <v>-0.1085247478560907</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.1916956772665671</v>
+        <v>0.08286371030272022</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>0.04308811856411152</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>0.02408104972178042</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>-0.1198494694879233</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.230804842218741</v>
+        <v>-0.02657105001631012</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.1227898648002913</v>
+        <v>-0.04903844622809683</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>-0.05541243289724704</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.09320678667992949</v>
+        <v>0.09247577611653358</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>-0.01269761650874508</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.04923579405446966</v>
+        <v>-0.06392946295088926</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.09174766703059506</v>
+        <v>-0.1070669566219125</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>-0.2393583991927108</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.0409508381125617</v>
+        <v>-0.1135947168916604</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.01776206177591885</v>
+        <v>-0.01044335781712586</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>0.06613365952607059</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.03210610419573915</v>
+        <v>0.06128585107250006</v>
       </c>
       <c r="AT17" t="n">
-        <v>0</v>
+        <v>-0.05279741370826249</v>
       </c>
       <c r="AU17" t="n">
-        <v>0</v>
+        <v>0.09644638136361905</v>
       </c>
       <c r="AV17" t="n">
-        <v>0</v>
+        <v>0.07172905181951762</v>
       </c>
       <c r="AW17" t="n">
-        <v>0</v>
+        <v>-0.007014275826842277</v>
       </c>
       <c r="AX17" t="n">
-        <v>0</v>
+        <v>0.09023501103925746</v>
       </c>
       <c r="AY17" t="n">
-        <v>0</v>
+        <v>0.02511266054461057</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0</v>
+        <v>-0.06805287851441687</v>
       </c>
       <c r="BA17" t="n">
-        <v>594.531355647586</v>
+        <v>0.1284522903786962</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>555.1161977757118</v>
       </c>
     </row>
     <row r="18">
@@ -3276,160 +3329,163 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>18.49705875400253</v>
+        <v>5960.018012808999</v>
       </c>
       <c r="C18" t="n">
-        <v>269.7731586987188</v>
+        <v>8.781871434455342</v>
       </c>
       <c r="D18" t="n">
-        <v>185.7633650765497</v>
+        <v>104.1855034687092</v>
       </c>
       <c r="E18" t="n">
-        <v>73.79444686517232</v>
+        <v>59.83349798537935</v>
       </c>
       <c r="F18" t="n">
-        <v>24.17163495382672</v>
+        <v>14.3705706464587</v>
       </c>
       <c r="G18" t="n">
-        <v>12.1763662070566</v>
+        <v>3.322093636352549</v>
       </c>
       <c r="H18" t="n">
-        <v>4.17713933595753</v>
+        <v>0.8595970622626717</v>
       </c>
       <c r="I18" t="n">
-        <v>1.201597429799548</v>
+        <v>0.3715158266593152</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4979579503028544</v>
+        <v>0.24980639920383</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4720252263319871</v>
+        <v>-0.1103651889733585</v>
       </c>
       <c r="L18" t="n">
-        <v>0.05612129591801468</v>
+        <v>0.1865168591217559</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1350799194396229</v>
+        <v>0.0260131491280136</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1830659710990059</v>
+        <v>-0.1454801350084508</v>
       </c>
       <c r="O18" t="n">
-        <v>0.09223821135806505</v>
+        <v>-0.05072045757231865</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>-0.00516905115557921</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>0.0007590777481322692</v>
       </c>
       <c r="R18" t="n">
-        <v>0.06069492018764364</v>
+        <v>-0.06933578420891956</v>
       </c>
       <c r="S18" t="n">
-        <v>0.05162318049073152</v>
+        <v>0.09265229468109888</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>0.2006173884574607</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05254016119302535</v>
+        <v>-0.05396765145804334</v>
       </c>
       <c r="V18" t="n">
-        <v>0.06930557892464449</v>
+        <v>0.1352415480891692</v>
       </c>
       <c r="W18" t="n">
-        <v>0.02601596311839877</v>
+        <v>-0.04376451232350696</v>
       </c>
       <c r="X18" t="n">
-        <v>0.09533119464111403</v>
+        <v>0.0009237992684139505</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>0.1137512347056311</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>-0.04350086063857334</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>-0.143408158912255</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>0.09164602703390645</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.02189563566797562</v>
+        <v>-0.01538619787844827</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>0.06747165713030732</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.1112216053159836</v>
+        <v>0.003732733336957838</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.08502550147152727</v>
+        <v>0.06284709915651997</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>0.02592227902649333</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>-0.04449522976926688</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.08912799660775846</v>
+        <v>-0.1655362709521137</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>0.05835017102690662</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>-0.002295079116738838</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.01147632893593379</v>
+        <v>-0.03528393239883228</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.07060653528690668</v>
+        <v>-0.1304486426747713</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>-0.06664926340305639</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>-0.01381511312631968</v>
       </c>
       <c r="AP18" t="n">
-        <v>0</v>
+        <v>0.03617237146912299</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0</v>
+        <v>-0.1449651101112183</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>0.1163932408129947</v>
       </c>
       <c r="AS18" t="n">
-        <v>0</v>
+        <v>0.009379650183932102</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.03269512714670333</v>
+        <v>-0.02570549120751121</v>
       </c>
       <c r="AU18" t="n">
-        <v>0</v>
+        <v>-0.024994073737144</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.1605434184001266</v>
+        <v>0.03245314689964628</v>
       </c>
       <c r="AW18" t="n">
-        <v>0</v>
+        <v>-0.06899001418718569</v>
       </c>
       <c r="AX18" t="n">
-        <v>0</v>
+        <v>-0.06670020365554745</v>
       </c>
       <c r="AY18" t="n">
-        <v>0.1635822289933433</v>
+        <v>-0.02313659414335914</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0.1014524672956107</v>
+        <v>-0.1399995376663245</v>
       </c>
       <c r="BA18" t="n">
-        <v>592.1943937392107</v>
+        <v>0.03182814562139979</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>191.6330157781</v>
       </c>
     </row>
     <row r="19">
@@ -3437,160 +3493,163 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>31.78741894195278</v>
+        <v>8033.242050771902</v>
       </c>
       <c r="C19" t="n">
-        <v>365.5137680639695</v>
+        <v>30.87123757471668</v>
       </c>
       <c r="D19" t="n">
-        <v>159.609925634825</v>
+        <v>177.5293142551563</v>
       </c>
       <c r="E19" t="n">
-        <v>40.67218491879632</v>
+        <v>117.3565202890952</v>
       </c>
       <c r="F19" t="n">
-        <v>9.369648934790886</v>
+        <v>29.48582213731041</v>
       </c>
       <c r="G19" t="n">
-        <v>4.189871486660669</v>
+        <v>9.673994695194544</v>
       </c>
       <c r="H19" t="n">
-        <v>2.477664696091888</v>
+        <v>4.753033468481347</v>
       </c>
       <c r="I19" t="n">
-        <v>1.30868213557878</v>
+        <v>1.723068625316714</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6660338777263229</v>
+        <v>1.215436058342684</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6248264746813044</v>
+        <v>0.590144551745744</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2399491863149574</v>
+        <v>0.2378602524173775</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>0.201900885523299</v>
       </c>
       <c r="N19" t="n">
-        <v>0.03102820497549832</v>
+        <v>0.3603377437406374</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1514170770823634</v>
+        <v>0.5654849539016964</v>
       </c>
       <c r="P19" t="n">
-        <v>0.1750462341521545</v>
+        <v>0.5587891262270677</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.1410338920852846</v>
+        <v>0.1962254851800571</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>0.4510449358109554</v>
       </c>
       <c r="S19" t="n">
-        <v>0.05183213925348115</v>
+        <v>0.2976819942080013</v>
       </c>
       <c r="T19" t="n">
-        <v>0.01695441001707864</v>
+        <v>-0.06783671168381744</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1749082595758603</v>
+        <v>-0.04459050464809128</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>-0.01781006751316247</v>
       </c>
       <c r="W19" t="n">
-        <v>0.02185352330262465</v>
+        <v>0.02045587934424446</v>
       </c>
       <c r="X19" t="n">
-        <v>0.05325226067159422</v>
+        <v>0.05488233267881344</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>-0.06537836040029855</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>-0.04525381517780534</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.01460192051637325</v>
+        <v>-0.007828039535379881</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>0.02354938400482335</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>0.2520724400312935</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.05266437861125692</v>
+        <v>-0.1041490297484105</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>0.156746921744333</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.02986894734935959</v>
+        <v>-0.1580926811780335</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.01600884664318554</v>
+        <v>0.08990997233117555</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>-0.03358200390390157</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.0373566855893768</v>
+        <v>-0.09263752027730489</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>-0.05076997084640161</v>
       </c>
       <c r="AK19" t="n">
-        <v>0.1013985411043566</v>
+        <v>-0.03252725085679325</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>0.04506267801124562</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.03405054600516157</v>
+        <v>-0.01888748437747575</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>-0.1154099272700946</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>-0.09122907941661257</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.02706832493309971</v>
+        <v>-0.1432709414422577</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0</v>
+        <v>-0.07604335734715773</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>0.1545115969604614</v>
       </c>
       <c r="AS19" t="n">
-        <v>0</v>
+        <v>0.05943811517471376</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.01059265580938894</v>
+        <v>0.01234583347496129</v>
       </c>
       <c r="AU19" t="n">
-        <v>0</v>
+        <v>0.07100547850658594</v>
       </c>
       <c r="AV19" t="n">
-        <v>0</v>
+        <v>-0.1375599011663858</v>
       </c>
       <c r="AW19" t="n">
-        <v>0.1070863699614139</v>
+        <v>-0.005052377068316597</v>
       </c>
       <c r="AX19" t="n">
-        <v>0.08318409835623902</v>
+        <v>-0.001036562480180766</v>
       </c>
       <c r="AY19" t="n">
-        <v>0</v>
+        <v>-0.05508055650732724</v>
       </c>
       <c r="AZ19" t="n">
-        <v>0.1539150217609911</v>
+        <v>0.03835663721200931</v>
       </c>
       <c r="BA19" t="n">
-        <v>617.9450966891445</v>
+        <v>-0.1134009865273745</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>375.5688071724708</v>
       </c>
     </row>
     <row r="20">
@@ -3598,160 +3657,163 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>14.22847718464099</v>
+        <v>8006.005522757133</v>
       </c>
       <c r="C20" t="n">
-        <v>196.2551373858026</v>
+        <v>28.92942178026545</v>
       </c>
       <c r="D20" t="n">
-        <v>97.02025594309958</v>
+        <v>238.3325658295396</v>
       </c>
       <c r="E20" t="n">
-        <v>23.92510243832863</v>
+        <v>133.2982799196709</v>
       </c>
       <c r="F20" t="n">
-        <v>5.012325836346469</v>
+        <v>33.55202507779512</v>
       </c>
       <c r="G20" t="n">
-        <v>2.226248519099395</v>
+        <v>9.625010566876409</v>
       </c>
       <c r="H20" t="n">
-        <v>1.268431467317936</v>
+        <v>4.770965993611156</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6372381132188757</v>
+        <v>2.249656996918188</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3377610752848923</v>
+        <v>1.241116298235639</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.673284266166521</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1539453480005477</v>
+        <v>0.3239505212195633</v>
       </c>
       <c r="M20" t="n">
-        <v>0.107475206361882</v>
+        <v>0.2074970493664865</v>
       </c>
       <c r="N20" t="n">
-        <v>0.06096139171010127</v>
+        <v>0.200078917390217</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>0.3133910463718929</v>
       </c>
       <c r="P20" t="n">
-        <v>0.02352982755003663</v>
+        <v>0.2548791259432263</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.01482505240361193</v>
+        <v>0.3668373853591128</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>0.1739409905634682</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>0.189422461531069</v>
       </c>
       <c r="T20" t="n">
-        <v>0.1184968852744582</v>
+        <v>0.1013173565903339</v>
       </c>
       <c r="U20" t="n">
-        <v>0.139404456257589</v>
+        <v>-0.2803789532906061</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-0.06786250146552897</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-0.1460735925575912</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>0.03550821759606388</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>0.05696470985300847</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>0.09170535217419919</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.1237230882281714</v>
+        <v>0.03773178817725256</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>-0.1008470477174083</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>-0.05778975206303399</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>-0.02691561600364215</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>-0.149930483395534</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.05722223838067961</v>
+        <v>0.1814595424951392</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.174250993809337</v>
+        <v>0.01758961700504879</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>0.05041007466085688</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>-0.1484946850605736</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>-0.2266079703841948</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>0.02770936912640584</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>0.1198013013672078</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>0.04258160346843112</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>0.2083698507482462</v>
       </c>
       <c r="AO20" t="n">
-        <v>0.0843293813775205</v>
+        <v>-0.01133704680228938</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.06267113447029021</v>
+        <v>0.01511751680729664</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0</v>
+        <v>0.01587899110195405</v>
       </c>
       <c r="AR20" t="n">
-        <v>0</v>
+        <v>0.07684617528097948</v>
       </c>
       <c r="AS20" t="n">
-        <v>0</v>
+        <v>0.06983484464060229</v>
       </c>
       <c r="AT20" t="n">
-        <v>0</v>
+        <v>-0.03936679405141415</v>
       </c>
       <c r="AU20" t="n">
-        <v>0</v>
+        <v>-0.01079148551489526</v>
       </c>
       <c r="AV20" t="n">
-        <v>0</v>
+        <v>-0.009257252440970944</v>
       </c>
       <c r="AW20" t="n">
-        <v>0.178846173630386</v>
+        <v>-0.1356495531245911</v>
       </c>
       <c r="AX20" t="n">
-        <v>0</v>
+        <v>-0.1876829642694637</v>
       </c>
       <c r="AY20" t="n">
-        <v>0.1221853663810385</v>
+        <v>-0.09470613399050438</v>
       </c>
       <c r="AZ20" t="n">
-        <v>0.09717005857923236</v>
+        <v>0.07108421431783701</v>
       </c>
       <c r="BA20" t="n">
-        <v>342.4300145655543</v>
+        <v>0.09490291920545631</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>454.3234458393081</v>
       </c>
     </row>
     <row r="21">
@@ -3759,160 +3821,163 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>44.01411748724998</v>
+        <v>7906.660631817535</v>
       </c>
       <c r="C21" t="n">
-        <v>176.7196056286826</v>
+        <v>58.58376119810712</v>
       </c>
       <c r="D21" t="n">
-        <v>65.29051186496093</v>
+        <v>230.2056485281888</v>
       </c>
       <c r="E21" t="n">
-        <v>18.20426884343496</v>
+        <v>102.0464073561301</v>
       </c>
       <c r="F21" t="n">
-        <v>6.367144766718217</v>
+        <v>27.99640963318364</v>
       </c>
       <c r="G21" t="n">
-        <v>1.335814195008025</v>
+        <v>10.62425516975394</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1446340204501588</v>
+        <v>3.814596932203278</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1126439516009477</v>
+        <v>1.116169363430101</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1243241224451658</v>
+        <v>0.9815563253149426</v>
       </c>
       <c r="K21" t="n">
-        <v>0.118876148665571</v>
+        <v>0.5722256982295785</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.1261055259645794</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1512743406593854</v>
+        <v>0.1872749574170784</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>0.2070914501665631</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>0.3911075960462583</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>0.1522660092040592</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.06129508388547916</v>
+        <v>0.3902394355835486</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>0.1355221717673051</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>0.02777793111508506</v>
       </c>
       <c r="T21" t="n">
-        <v>0.08409361798337202</v>
+        <v>-0.0337903302446334</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06320198311427996</v>
+        <v>-0.01573410529649257</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>-0.2187240012669473</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>0.07570782002608149</v>
       </c>
       <c r="X21" t="n">
-        <v>0.02228321715356613</v>
+        <v>0.001788101305695183</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>-0.03096903196560102</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.04447209342048168</v>
+        <v>-0.1036172380276466</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>-0.01911354427380162</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.1371921298499864</v>
+        <v>-0.09389595102414544</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>0.08676791937742762</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.122502997724763</v>
+        <v>0.03025435777751501</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>0.0676998154030755</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.0554532384189554</v>
+        <v>0.0002379855590469392</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>0.05605395261407622</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>0.08930637625187127</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>-0.02595794156015793</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>0.1361459338972427</v>
       </c>
       <c r="AK21" t="n">
-        <v>0.1434697384460956</v>
+        <v>-0.1378801263538579</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>0.1632784080660452</v>
       </c>
       <c r="AM21" t="n">
-        <v>0.07041774890291912</v>
+        <v>0.08551197870879419</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>-0.1362591128771873</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>0.04807002129581922</v>
       </c>
       <c r="AP21" t="n">
-        <v>0</v>
+        <v>-0.06494894860748454</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0</v>
+        <v>-0.04481783162494427</v>
       </c>
       <c r="AR21" t="n">
-        <v>0</v>
+        <v>-0.03178374116046042</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.05765079679284868</v>
+        <v>0.1426342387599968</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.02217272686348631</v>
+        <v>0.1120187131528089</v>
       </c>
       <c r="AU21" t="n">
-        <v>0.1486083887554485</v>
+        <v>-0.05016367612059239</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.01390661993720126</v>
+        <v>0.0205696392867982</v>
       </c>
       <c r="AW21" t="n">
-        <v>0.0382150315185761</v>
+        <v>-0.1729743775992993</v>
       </c>
       <c r="AX21" t="n">
-        <v>0</v>
+        <v>-0.07221988571086817</v>
       </c>
       <c r="AY21" t="n">
-        <v>0</v>
+        <v>-0.08474537305698321</v>
       </c>
       <c r="AZ21" t="n">
-        <v>0</v>
+        <v>-0.08329237498779771</v>
       </c>
       <c r="BA21" t="n">
-        <v>313.6681507826434</v>
+        <v>0.0317424459047362</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>437.2853153974341</v>
       </c>
     </row>
     <row r="22">
@@ -3920,160 +3985,163 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>88.72700231373466</v>
+        <v>6793.389689937295</v>
       </c>
       <c r="C22" t="n">
-        <v>303.2842086975931</v>
+        <v>50.43418694291393</v>
       </c>
       <c r="D22" t="n">
-        <v>89.85656237923331</v>
+        <v>194.8598442299871</v>
       </c>
       <c r="E22" t="n">
-        <v>28.87552654853665</v>
+        <v>68.70339258419155</v>
       </c>
       <c r="F22" t="n">
-        <v>11.55675475115138</v>
+        <v>19.58569537275213</v>
       </c>
       <c r="G22" t="n">
-        <v>2.850002806687988</v>
+        <v>7.108530143033304</v>
       </c>
       <c r="H22" t="n">
-        <v>0.6274500792927985</v>
+        <v>1.513667994821908</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1116722461724362</v>
+        <v>0.2385042146972668</v>
       </c>
       <c r="J22" t="n">
-        <v>0.01936769914983252</v>
+        <v>0.03058898964361768</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.04186722318094798</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>-0.182584694427596</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01941483714481206</v>
+        <v>0.243580774424824</v>
       </c>
       <c r="N22" t="n">
-        <v>0.1954832415929404</v>
+        <v>0.08727707348375599</v>
       </c>
       <c r="O22" t="n">
-        <v>0.1189578088806077</v>
+        <v>-0.1017911694547824</v>
       </c>
       <c r="P22" t="n">
-        <v>0.07290909687821838</v>
+        <v>0.08810065671089498</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>0.05339414400758074</v>
       </c>
       <c r="R22" t="n">
-        <v>0.08037872963852773</v>
+        <v>-0.1488306482225291</v>
       </c>
       <c r="S22" t="n">
-        <v>0.1003892975059845</v>
+        <v>-0.009331244787290371</v>
       </c>
       <c r="T22" t="n">
-        <v>0.1327919034609626</v>
+        <v>0.01428788117106377</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1004910682227796</v>
+        <v>-0.08704948123204975</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>0.0114678767403836</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>0.04445761948221052</v>
       </c>
       <c r="X22" t="n">
-        <v>0.07408988601100262</v>
+        <v>0.03479251162801757</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>0.053802854156878</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>-0.02209855662981649</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>0.01269599064935118</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>0.01750307016224579</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>-0.02327238401094957</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.1187523044609996</v>
+        <v>-0.04175501387781058</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>-0.03232412541874687</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>-0.01929291310724726</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.09243904634320761</v>
+        <v>-0.158938924400612</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.02652132761035477</v>
+        <v>0.001321297014938152</v>
       </c>
       <c r="AI22" t="n">
-        <v>0.04595568616636625</v>
+        <v>-0.03885733551078865</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>0.03606380333320055</v>
       </c>
       <c r="AK22" t="n">
-        <v>0.07540020636203432</v>
+        <v>0.2144116687248521</v>
       </c>
       <c r="AL22" t="n">
-        <v>0.06702581054573886</v>
+        <v>0.04548624622372825</v>
       </c>
       <c r="AM22" t="n">
-        <v>0.01138486354416218</v>
+        <v>-0.02623417931130156</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>0.1482323590612976</v>
       </c>
       <c r="AO22" t="n">
-        <v>0.01710023638424487</v>
+        <v>-0.01271567903153226</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.1909298245965887</v>
+        <v>0.1133410178821131</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0</v>
+        <v>0.06004195423539909</v>
       </c>
       <c r="AR22" t="n">
-        <v>0.1017994769954119</v>
+        <v>0.01892192263839215</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.1587333971433181</v>
+        <v>-0.06749905792951662</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.01300233023526439</v>
+        <v>0.1206525432320264</v>
       </c>
       <c r="AU22" t="n">
-        <v>0</v>
+        <v>0.1509330776946642</v>
       </c>
       <c r="AV22" t="n">
-        <v>0.105238746507592</v>
+        <v>-0.1304023275200461</v>
       </c>
       <c r="AW22" t="n">
-        <v>0</v>
+        <v>0.07565721678396949</v>
       </c>
       <c r="AX22" t="n">
-        <v>0.1759070417373707</v>
+        <v>0.04130119038373405</v>
       </c>
       <c r="AY22" t="n">
-        <v>0</v>
+        <v>0.09723843725989818</v>
       </c>
       <c r="AZ22" t="n">
-        <v>0</v>
+        <v>0.05239480753687244</v>
       </c>
       <c r="BA22" t="n">
-        <v>528.0036436895207</v>
+        <v>0.0971831571117785</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>343.3478411120832</v>
       </c>
     </row>
     <row r="23">
@@ -4081,160 +4149,163 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>81.76631600037388</v>
+        <v>7142.597174733095</v>
       </c>
       <c r="C23" t="n">
-        <v>283.0848626520149</v>
+        <v>77.54625762830815</v>
       </c>
       <c r="D23" t="n">
-        <v>84.09986326005121</v>
+        <v>282.333103675311</v>
       </c>
       <c r="E23" t="n">
-        <v>25.93345446837327</v>
+        <v>106.2887853155293</v>
       </c>
       <c r="F23" t="n">
-        <v>10.55302059714258</v>
+        <v>40.34495926649301</v>
       </c>
       <c r="G23" t="n">
-        <v>2.323389770360837</v>
+        <v>15.77292435732081</v>
       </c>
       <c r="H23" t="n">
-        <v>0.4393811885203477</v>
+        <v>5.403902212866618</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3476995851186662</v>
+        <v>1.268690041217485</v>
       </c>
       <c r="J23" t="n">
-        <v>0.01265523514968642</v>
+        <v>0.1751698839425873</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>0.1282657249523653</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>0.07423465399501955</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1686521090128124</v>
+        <v>0.03005786123019159</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>0.02259755009119822</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>0.004371763010115211</v>
       </c>
       <c r="P23" t="n">
-        <v>0.1341250138915208</v>
+        <v>0.01172993776180996</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.06483195727427142</v>
+        <v>0.06637005011093297</v>
       </c>
       <c r="R23" t="n">
-        <v>0.2971807160110115</v>
+        <v>0.0960565261195357</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>-0.03361441561312346</v>
       </c>
       <c r="T23" t="n">
-        <v>0.05100465526014916</v>
+        <v>-0.1086269247892298</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03416636610133765</v>
+        <v>0.08702758946328991</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>-0.1938007753051194</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>-0.05219549037343418</v>
       </c>
       <c r="X23" t="n">
-        <v>0.06588026901388339</v>
+        <v>0.02274723518829384</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>-0.02185493356975877</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.1670382150034693</v>
+        <v>-0.01071376147196393</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.08558239265908131</v>
+        <v>0.05319403470526707</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.0432807455395075</v>
+        <v>-0.1567572289828369</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>-0.0730525249442681</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.1167336956810882</v>
+        <v>0.0285867040731468</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.04005307049820989</v>
+        <v>-0.0692219042368924</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>-0.2001678380059678</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.1291454071066253</v>
+        <v>-0.2018140284036884</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.1529678591630062</v>
+        <v>-0.2101572505209521</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.04053395171575588</v>
+        <v>0.2540453919118812</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0.0161218294621841</v>
+        <v>0.02417317127119057</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>0.07612429722528401</v>
       </c>
       <c r="AL23" t="n">
-        <v>0.1435563105269307</v>
+        <v>0.1379418069413574</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>0.08074127085077282</v>
       </c>
       <c r="AN23" t="n">
-        <v>0.01553318384129447</v>
+        <v>-0.1266649107652668</v>
       </c>
       <c r="AO23" t="n">
-        <v>0.05080411488578434</v>
+        <v>-0.04042757258598106</v>
       </c>
       <c r="AP23" t="n">
-        <v>0</v>
+        <v>-0.1867096653137846</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.105956450810435</v>
+        <v>-0.1241570467219828</v>
       </c>
       <c r="AR23" t="n">
-        <v>0</v>
+        <v>-0.03681896180066684</v>
       </c>
       <c r="AS23" t="n">
-        <v>0</v>
+        <v>-0.1360341381184383</v>
       </c>
       <c r="AT23" t="n">
-        <v>0</v>
+        <v>0.0992019124121008</v>
       </c>
       <c r="AU23" t="n">
-        <v>0</v>
+        <v>-0.03348888974235095</v>
       </c>
       <c r="AV23" t="n">
-        <v>0</v>
+        <v>0.1021634833405377</v>
       </c>
       <c r="AW23" t="n">
-        <v>0</v>
+        <v>-0.0005485985743134291</v>
       </c>
       <c r="AX23" t="n">
-        <v>0.05670615036077872</v>
+        <v>-0.1595650975046248</v>
       </c>
       <c r="AY23" t="n">
-        <v>0</v>
+        <v>0.08975568664173639</v>
       </c>
       <c r="AZ23" t="n">
-        <v>0.1356822315103377</v>
+        <v>0.01631857432274566</v>
       </c>
       <c r="BA23" t="n">
-        <v>490.6761794524348</v>
+        <v>0.06772161790467517</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>528.5308272671679</v>
       </c>
     </row>
     <row r="24">
@@ -4242,160 +4313,163 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>52.00061376183656</v>
+        <v>7885.702646571997</v>
       </c>
       <c r="C24" t="n">
-        <v>198.8452724067597</v>
+        <v>45.17726010420984</v>
       </c>
       <c r="D24" t="n">
-        <v>69.11682717644123</v>
+        <v>351.3584520308781</v>
       </c>
       <c r="E24" t="n">
-        <v>19.89729616989265</v>
+        <v>142.9877812588017</v>
       </c>
       <c r="F24" t="n">
-        <v>7.146829328190054</v>
+        <v>37.68729597467419</v>
       </c>
       <c r="G24" t="n">
-        <v>1.509911100800355</v>
+        <v>9.513791245902127</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2506741512586491</v>
+        <v>3.843551463299071</v>
       </c>
       <c r="I24" t="n">
-        <v>0.08320859812681973</v>
+        <v>2.226158191105376</v>
       </c>
       <c r="J24" t="n">
-        <v>0.05553667465482065</v>
+        <v>1.11824049637576</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.6070611960631132</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02178666426995642</v>
+        <v>0.4905458996863692</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>0.03022309812050283</v>
       </c>
       <c r="N24" t="n">
-        <v>0.03645433639207846</v>
+        <v>0.1806538303335166</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>0.09898578809627473</v>
       </c>
       <c r="P24" t="n">
-        <v>0.05375445583845179</v>
+        <v>0.2071852230312138</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>0.1246786247548258</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>0.1302428884435695</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>0.05746641190430954</v>
       </c>
       <c r="T24" t="n">
-        <v>0.04875230007685494</v>
+        <v>0.06784346882167995</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0106573422249885</v>
+        <v>0.01577588215282719</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>-0.04249875287614426</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>-0.03484319726616408</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>-0.09709605969727832</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>-0.1102514610364324</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.0477166572749697</v>
+        <v>-0.0384390297577694</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>-0.02505353631102755</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.08179810996938969</v>
+        <v>0.1147436049417182</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.2315074483733291</v>
+        <v>-0.09914614675512287</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.03379385664041915</v>
+        <v>-0.04610249475822249</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>-0.007069502752786794</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.192416658808896</v>
+        <v>-0.04699170073709717</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.06408250856678009</v>
+        <v>-0.2522413323269944</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>-0.1484088012452296</v>
       </c>
       <c r="AI24" t="n">
-        <v>0.07193236378781892</v>
+        <v>-0.1051069252362036</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0.1451748628104563</v>
+        <v>0.01841044208033834</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>0.0238006366761082</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>-0.1247148791367605</v>
       </c>
       <c r="AM24" t="n">
-        <v>0.03753790840499904</v>
+        <v>-0.1431334188549882</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>0.1298378246434916</v>
       </c>
       <c r="AO24" t="n">
-        <v>0.04354002334757043</v>
+        <v>-0.1215859872801701</v>
       </c>
       <c r="AP24" t="n">
-        <v>0</v>
+        <v>0.08413310172996429</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0</v>
+        <v>0.2099959453701339</v>
       </c>
       <c r="AR24" t="n">
-        <v>0</v>
+        <v>0.03103860882750347</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.05240944694036434</v>
+        <v>0.2227426765306404</v>
       </c>
       <c r="AT24" t="n">
-        <v>0</v>
+        <v>-0.05502947614916819</v>
       </c>
       <c r="AU24" t="n">
-        <v>0</v>
+        <v>-0.08742566928474074</v>
       </c>
       <c r="AV24" t="n">
-        <v>0.04459835635270215</v>
+        <v>0.06024883167139464</v>
       </c>
       <c r="AW24" t="n">
-        <v>0</v>
+        <v>0.1883151513002707</v>
       </c>
       <c r="AX24" t="n">
-        <v>0.2205442843460467</v>
+        <v>0.1381935870404504</v>
       </c>
       <c r="AY24" t="n">
-        <v>0</v>
+        <v>0.0473019263488775</v>
       </c>
       <c r="AZ24" t="n">
-        <v>0</v>
+        <v>-0.08252458434890059</v>
       </c>
       <c r="BA24" t="n">
-        <v>350.3446269523869</v>
+        <v>-0.05715590925350281</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>595.4671365487505</v>
       </c>
     </row>
     <row r="25">
@@ -4403,160 +4477,163 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>65.62605909854378</v>
+        <v>7856.065335167215</v>
       </c>
       <c r="C25" t="n">
-        <v>330.2631579664919</v>
+        <v>55.31347358700202</v>
       </c>
       <c r="D25" t="n">
-        <v>117.472176052882</v>
+        <v>340.7894266643228</v>
       </c>
       <c r="E25" t="n">
-        <v>32.82911705079393</v>
+        <v>130.614863476944</v>
       </c>
       <c r="F25" t="n">
-        <v>10.44229510430351</v>
+        <v>35.36175548659344</v>
       </c>
       <c r="G25" t="n">
-        <v>3.141119587460983</v>
+        <v>10.15534261765968</v>
       </c>
       <c r="H25" t="n">
-        <v>1.36062910220982</v>
+        <v>3.401052096282965</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7214315399460343</v>
+        <v>1.673679164010995</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1840001251361725</v>
+        <v>0.9660652063770213</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3178135782293937</v>
+        <v>0.4304880700736237</v>
       </c>
       <c r="L25" t="n">
-        <v>0.07029354949277594</v>
+        <v>0.3338180619920157</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>0.1710328483796555</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>0.2106561901806995</v>
       </c>
       <c r="O25" t="n">
-        <v>0.09431979922175571</v>
+        <v>0.04706920782611122</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>0.02442152292968194</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>0.05244938643468166</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1428242025323828</v>
+        <v>-0.01934413050634257</v>
       </c>
       <c r="S25" t="n">
-        <v>0.05810389499467387</v>
+        <v>0.0367171837441756</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>0.1983662118815759</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.0795833561225581</v>
       </c>
       <c r="V25" t="n">
-        <v>0.01746170799450052</v>
+        <v>-0.008697022103730634</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>-0.009800328336999989</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>-0.1381280723954468</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>-0.03334469897147183</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.06468308464678256</v>
+        <v>-0.04570082858907715</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.129620176758973</v>
+        <v>0.1907743751474147</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>0.08742414863108267</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.02702208394308077</v>
+        <v>0.04379143507157408</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.0242475324493488</v>
+        <v>-0.1737216482532251</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>0.09938414977819035</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>0.0134721632309476</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.1024849822452477</v>
+        <v>-0.0339157042663539</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.05818053287721451</v>
+        <v>0.08335532400213516</v>
       </c>
       <c r="AI25" t="n">
-        <v>0.03290458144352103</v>
+        <v>0.06874392302315685</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>-0.01406801442285059</v>
       </c>
       <c r="AK25" t="n">
-        <v>0.04039593165422613</v>
+        <v>-0.03128522758962462</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>-0.02952507367971342</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>0.05800667084371956</v>
       </c>
       <c r="AN25" t="n">
-        <v>0.05270839312720296</v>
+        <v>0.0001519164625287297</v>
       </c>
       <c r="AO25" t="n">
-        <v>0.06399898027950383</v>
+        <v>-0.0510303245285105</v>
       </c>
       <c r="AP25" t="n">
-        <v>0</v>
+        <v>-0.1426808587733267</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0</v>
+        <v>-0.0007342009239543562</v>
       </c>
       <c r="AR25" t="n">
-        <v>0.04771046663465126</v>
+        <v>-0.01937079244481237</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.1795460763407132</v>
+        <v>-0.1122728407875548</v>
       </c>
       <c r="AT25" t="n">
-        <v>0</v>
+        <v>-0.1156229676772374</v>
       </c>
       <c r="AU25" t="n">
-        <v>0</v>
+        <v>0.06343156201057627</v>
       </c>
       <c r="AV25" t="n">
-        <v>0.1378569764822704</v>
+        <v>0.08688632818482836</v>
       </c>
       <c r="AW25" t="n">
-        <v>0.1752530355474297</v>
+        <v>-0.2232042077594826</v>
       </c>
       <c r="AX25" t="n">
-        <v>0.1251610921154372</v>
+        <v>0.01895429084008502</v>
       </c>
       <c r="AY25" t="n">
-        <v>0</v>
+        <v>0.03841564760253477</v>
       </c>
       <c r="AZ25" t="n">
-        <v>0</v>
+        <v>-0.02089155872355197</v>
       </c>
       <c r="BA25" t="n">
-        <v>564.0025762867793</v>
+        <v>-0.02794921879420702</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>579.461764554059</v>
       </c>
     </row>
     <row r="26">
@@ -4564,160 +4641,163 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>59.08710890489161</v>
+        <v>7998.190774597149</v>
       </c>
       <c r="C26" t="n">
-        <v>231.2795803206465</v>
+        <v>39.679409582608</v>
       </c>
       <c r="D26" t="n">
-        <v>101.6096678527911</v>
+        <v>184.7395902278013</v>
       </c>
       <c r="E26" t="n">
-        <v>28.15208939218368</v>
+        <v>110.2758779748546</v>
       </c>
       <c r="F26" t="n">
-        <v>10.536892376448</v>
+        <v>28.50542277593313</v>
       </c>
       <c r="G26" t="n">
-        <v>3.685400448440038</v>
+        <v>10.15992496152437</v>
       </c>
       <c r="H26" t="n">
-        <v>1.18073527515032</v>
+        <v>4.531584723013371</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5976114197710868</v>
+        <v>1.409984753777685</v>
       </c>
       <c r="J26" t="n">
-        <v>0.3696929591729031</v>
+        <v>1.106559275022915</v>
       </c>
       <c r="K26" t="n">
-        <v>0.02270869584118518</v>
+        <v>0.5070620100274155</v>
       </c>
       <c r="L26" t="n">
-        <v>0.07955152163905202</v>
+        <v>0.2864248397015789</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1469688625877786</v>
+        <v>0.1658157007145717</v>
       </c>
       <c r="N26" t="n">
-        <v>0.241977755043243</v>
+        <v>0.1409330923829125</v>
       </c>
       <c r="O26" t="n">
-        <v>0.03683795389556294</v>
+        <v>0.5218598127524001</v>
       </c>
       <c r="P26" t="n">
-        <v>0.1038347508448136</v>
+        <v>0.4021666366641338</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.02316820594404029</v>
+        <v>0.2847594698897252</v>
       </c>
       <c r="R26" t="n">
-        <v>0.3233375008330286</v>
+        <v>0.2190031786619425</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>0.25996608873704</v>
       </c>
       <c r="T26" t="n">
-        <v>0.07327981465197962</v>
+        <v>-0.04127078019294377</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04102919247537139</v>
+        <v>0.0207267707845995</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>0.04537918758565955</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>-0.03560795201712258</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>-0.1338940865767259</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>-0.0474105672900353</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>0.04120004359787568</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>-0.1767193216918814</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.09005611993160174</v>
+        <v>0.1338481966881264</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.1394463881038267</v>
+        <v>-0.03467920757834467</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>0.1264730074041015</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>-0.03699271092149285</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>0.09598736927709015</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.0437190176566499</v>
+        <v>-0.08565632836475956</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>-0.08265391849355071</v>
       </c>
       <c r="AI26" t="n">
-        <v>0.01754733919762237</v>
+        <v>0.03515078231003661</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0</v>
+        <v>-0.1153130006908761</v>
       </c>
       <c r="AK26" t="n">
-        <v>0.1444283144411341</v>
+        <v>0.07086193172663485</v>
       </c>
       <c r="AL26" t="n">
-        <v>0.1054583244849432</v>
+        <v>0.01607048309803694</v>
       </c>
       <c r="AM26" t="n">
-        <v>0.1398495784334519</v>
+        <v>0.0441406685028479</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
+        <v>0.1431178071353282</v>
       </c>
       <c r="AO26" t="n">
-        <v>0.153001592036065</v>
+        <v>-0.1680270653731553</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.06578029478492921</v>
+        <v>-0.04326527047008897</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.03767380423654106</v>
+        <v>0.06168513765517202</v>
       </c>
       <c r="AR26" t="n">
-        <v>0.04348498100657106</v>
+        <v>0.03632323550498922</v>
       </c>
       <c r="AS26" t="n">
-        <v>0</v>
+        <v>0.09333575658109243</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.03157586233686111</v>
+        <v>-0.09586386927873766</v>
       </c>
       <c r="AU26" t="n">
-        <v>0</v>
+        <v>-0.07273313562028594</v>
       </c>
       <c r="AV26" t="n">
-        <v>0.0762194926051277</v>
+        <v>0.02158012326647184</v>
       </c>
       <c r="AW26" t="n">
-        <v>0</v>
+        <v>0.03491941526144016</v>
       </c>
       <c r="AX26" t="n">
-        <v>0</v>
+        <v>0.06865092385585531</v>
       </c>
       <c r="AY26" t="n">
-        <v>0.09929711069219238</v>
+        <v>0.03026433822453873</v>
       </c>
       <c r="AZ26" t="n">
-        <v>0.1000872198683372</v>
+        <v>-0.1071702151657185</v>
       </c>
       <c r="BA26" t="n">
-        <v>438.8790986430672</v>
+        <v>-0.1494866375444873</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>382.8893162152568</v>
       </c>
     </row>
     <row r="27">
@@ -4725,160 +4805,163 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>36.83206281356016</v>
+        <v>7924.106892153301</v>
       </c>
       <c r="C27" t="n">
-        <v>205.1458458905537</v>
+        <v>54.88465462521656</v>
       </c>
       <c r="D27" t="n">
-        <v>167.6060944405687</v>
+        <v>221.3966800056899</v>
       </c>
       <c r="E27" t="n">
-        <v>82.63134436250421</v>
+        <v>103.3145067907255</v>
       </c>
       <c r="F27" t="n">
-        <v>31.15409352587978</v>
+        <v>28.01468949792076</v>
       </c>
       <c r="G27" t="n">
-        <v>15.14676757247084</v>
+        <v>10.53401053262232</v>
       </c>
       <c r="H27" t="n">
-        <v>4.176056075476402</v>
+        <v>3.988159750343364</v>
       </c>
       <c r="I27" t="n">
-        <v>0.5149806230335525</v>
+        <v>1.19919382991672</v>
       </c>
       <c r="J27" t="n">
-        <v>0.05443489906979056</v>
+        <v>0.7247996106052452</v>
       </c>
       <c r="K27" t="n">
-        <v>0.2110021133352712</v>
+        <v>0.4422994509844141</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>-0.007098852393368688</v>
       </c>
       <c r="M27" t="n">
-        <v>0.1831762523195596</v>
+        <v>0.1280618292804385</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>0.2862696196952548</v>
       </c>
       <c r="O27" t="n">
-        <v>0.07320595830944446</v>
+        <v>0.4632000840755363</v>
       </c>
       <c r="P27" t="n">
-        <v>0.1244583558555425</v>
+        <v>0.2615458892111529</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.1131178398393878</v>
+        <v>0.3494560177893111</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>0.04385601795914512</v>
       </c>
       <c r="S27" t="n">
-        <v>0.03103578550406002</v>
+        <v>0.02962771072826956</v>
       </c>
       <c r="T27" t="n">
-        <v>0.07087559779352197</v>
+        <v>-0.1261059119748743</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1025044902510207</v>
+        <v>0.08281424654930872</v>
       </c>
       <c r="V27" t="n">
-        <v>0.0188749730284789</v>
+        <v>0.05072035216236486</v>
       </c>
       <c r="W27" t="n">
-        <v>0.08885145376157133</v>
+        <v>0.1074376328192622</v>
       </c>
       <c r="X27" t="n">
-        <v>0.07210932595749968</v>
+        <v>0.09055061057452035</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.01788044965586329</v>
+        <v>-0.06204189919443729</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>0.131517042742357</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.06124575758352259</v>
+        <v>-0.02415146976557751</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>0.08744503407397003</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.2338618118134949</v>
+        <v>0.1042877543805156</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.02221410591792435</v>
+        <v>0.06044926021895958</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.1034167701401333</v>
+        <v>0.1899309544698138</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>-0.07244572354098852</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>0.2214082502918294</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>0.07144900988985585</v>
       </c>
       <c r="AI27" t="n">
-        <v>0.04852901719994928</v>
+        <v>-0.04080140375606173</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0</v>
+        <v>0.06148301297390625</v>
       </c>
       <c r="AK27" t="n">
-        <v>0</v>
+        <v>-0.1375409050627316</v>
       </c>
       <c r="AL27" t="n">
-        <v>0.04654573768271898</v>
+        <v>-0.03519873677263369</v>
       </c>
       <c r="AM27" t="n">
-        <v>0.1338951809046531</v>
+        <v>0.05828417026740745</v>
       </c>
       <c r="AN27" t="n">
-        <v>0</v>
+        <v>-0.1234330575554421</v>
       </c>
       <c r="AO27" t="n">
-        <v>0.011466774343255</v>
+        <v>-0.04590390428790395</v>
       </c>
       <c r="AP27" t="n">
-        <v>0</v>
+        <v>-0.04190830701965646</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0</v>
+        <v>-0.04858895490487461</v>
       </c>
       <c r="AR27" t="n">
-        <v>0</v>
+        <v>0.01162815235837273</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.02502100579804397</v>
+        <v>0.0625271774777702</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.1021908466649245</v>
+        <v>-0.04177877424328905</v>
       </c>
       <c r="AU27" t="n">
-        <v>0.07139836847501764</v>
+        <v>-0.002109699067209151</v>
       </c>
       <c r="AV27" t="n">
-        <v>0</v>
+        <v>-0.06382167102976675</v>
       </c>
       <c r="AW27" t="n">
-        <v>0.1082995409255488</v>
+        <v>0.06801057433558147</v>
       </c>
       <c r="AX27" t="n">
-        <v>0</v>
+        <v>-0.03279226484813303</v>
       </c>
       <c r="AY27" t="n">
-        <v>0.1247302182592497</v>
+        <v>0.06415589520980312</v>
       </c>
       <c r="AZ27" t="n">
-        <v>0</v>
+        <v>-0.0796379753968055</v>
       </c>
       <c r="BA27" t="n">
-        <v>545.4615879344367</v>
+        <v>0.02222753848388116</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>426.6219784212296</v>
       </c>
     </row>
     <row r="28">
@@ -4886,160 +4969,163 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>19.28500046810864</v>
+        <v>4734.661722750161</v>
       </c>
       <c r="C28" t="n">
-        <v>106.8353546079242</v>
+        <v>9.539750379371842</v>
       </c>
       <c r="D28" t="n">
-        <v>52.8938307099447</v>
+        <v>117.421959922839</v>
       </c>
       <c r="E28" t="n">
-        <v>13.16196442816623</v>
+        <v>129.4584406853247</v>
       </c>
       <c r="F28" t="n">
-        <v>3.820593294635173</v>
+        <v>61.88665014329148</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8365085469185781</v>
+        <v>22.23104108379064</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1557664656199342</v>
+        <v>10.97037988584804</v>
       </c>
       <c r="I28" t="n">
-        <v>0.06690563473014112</v>
+        <v>2.981277936169587</v>
       </c>
       <c r="J28" t="n">
-        <v>0.04214800953390015</v>
+        <v>0.3436235742538353</v>
       </c>
       <c r="K28" t="n">
-        <v>0.06209709325910032</v>
+        <v>0.03054182472239039</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>0.2106621446833657</v>
       </c>
       <c r="M28" t="n">
-        <v>0.02449858560913662</v>
+        <v>0.01107580513042476</v>
       </c>
       <c r="N28" t="n">
-        <v>0.02543316083849456</v>
+        <v>0.1825943582626321</v>
       </c>
       <c r="O28" t="n">
-        <v>0.05223752952749666</v>
+        <v>0.1079298574153109</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>0.1479799324630042</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>0.01291194012490818</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>-0.07491053138231527</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>-0.06164943901354278</v>
       </c>
       <c r="T28" t="n">
-        <v>0.07721739888531638</v>
+        <v>0.003457420164011965</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02014984391879365</v>
+        <v>0.04648784373235103</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>0.1945680561862504</v>
       </c>
       <c r="W28" t="n">
-        <v>0.1253014978366558</v>
+        <v>-0.06396049259250906</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>0.1429753994964358</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>0.1168366034936797</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>0.1949525547598061</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>-0.1310376907910095</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>0.02661159526969879</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.1016212727625731</v>
+        <v>0.07737186860337131</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>0.05754950744773707</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>0.05951235159071677</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>-0.1389356428782784</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>-0.0841856667372248</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>0.2098568436375233</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>-0.0160316644192129</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0</v>
+        <v>0.08419059479269292</v>
       </c>
       <c r="AK28" t="n">
-        <v>0</v>
+        <v>-0.02666052674994312</v>
       </c>
       <c r="AL28" t="n">
-        <v>0.1976658839501857</v>
+        <v>0.09239779634076045</v>
       </c>
       <c r="AM28" t="n">
-        <v>0</v>
+        <v>-0.02161597731320426</v>
       </c>
       <c r="AN28" t="n">
-        <v>0.1905433062710337</v>
+        <v>0.0890023821489498</v>
       </c>
       <c r="AO28" t="n">
-        <v>0</v>
+        <v>0.009885477884540174</v>
       </c>
       <c r="AP28" t="n">
-        <v>0</v>
+        <v>0.09289589214294618</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0</v>
+        <v>-0.1432756449513339</v>
       </c>
       <c r="AR28" t="n">
-        <v>0.1701802703908529</v>
+        <v>-0.1301367481064571</v>
       </c>
       <c r="AS28" t="n">
-        <v>0</v>
+        <v>-0.1147551256873918</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.03544919735974223</v>
+        <v>0.09365917065609811</v>
       </c>
       <c r="AU28" t="n">
-        <v>0</v>
+        <v>-0.0996789717717429</v>
       </c>
       <c r="AV28" t="n">
-        <v>0</v>
+        <v>-0.08794456623151131</v>
       </c>
       <c r="AW28" t="n">
-        <v>0</v>
+        <v>-0.003085130421177715</v>
       </c>
       <c r="AX28" t="n">
-        <v>0.04381978068891452</v>
+        <v>0.06418371567923123</v>
       </c>
       <c r="AY28" t="n">
-        <v>0.03255182743235185</v>
+        <v>0.05716631993675192</v>
       </c>
       <c r="AZ28" t="n">
-        <v>0</v>
+        <v>-0.1604407837755244</v>
       </c>
       <c r="BA28" t="n">
-        <v>198.2568388143121</v>
+        <v>0.0412897449236006</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>355.933366009756</v>
       </c>
     </row>
     <row r="29">
@@ -5047,160 +5133,163 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>9.924958595633184</v>
+        <v>7639.599439756468</v>
       </c>
       <c r="C29" t="n">
-        <v>122.5466746538595</v>
+        <v>22.27588474788731</v>
       </c>
       <c r="D29" t="n">
-        <v>67.05792291701033</v>
+        <v>331.5030014227255</v>
       </c>
       <c r="E29" t="n">
-        <v>16.16072855690499</v>
+        <v>151.5576907881304</v>
       </c>
       <c r="F29" t="n">
-        <v>3.548360522240022</v>
+        <v>38.07652243729137</v>
       </c>
       <c r="G29" t="n">
-        <v>1.067420419695389</v>
+        <v>8.155395935239376</v>
       </c>
       <c r="H29" t="n">
-        <v>0.5778163961880973</v>
+        <v>3.810096181094663</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2781683185370479</v>
+        <v>2.705489862684852</v>
       </c>
       <c r="J29" t="n">
-        <v>0.1008114482502269</v>
+        <v>1.122148307477889</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>0.651366271900799</v>
       </c>
       <c r="L29" t="n">
-        <v>0.1101166516339239</v>
+        <v>0.5397468150665135</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>0.3375063657728606</v>
       </c>
       <c r="N29" t="n">
-        <v>0.01651774338825027</v>
+        <v>0.3236366968090798</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>0.1107332624503412</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>0.02434122354511144</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.1324331393332483</v>
+        <v>-0.1921405967258031</v>
       </c>
       <c r="R29" t="n">
-        <v>0.02412556363340877</v>
+        <v>-0.01872450099143275</v>
       </c>
       <c r="S29" t="n">
-        <v>0.1101755439581174</v>
+        <v>-0.02313147236983475</v>
       </c>
       <c r="T29" t="n">
-        <v>0.0680850156245221</v>
+        <v>0.07586585576186275</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>-0.09852795321107183</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>0.02101119043148957</v>
       </c>
       <c r="W29" t="n">
-        <v>0.08392059522276797</v>
+        <v>0.09080985267405134</v>
       </c>
       <c r="X29" t="n">
-        <v>0.02397824703804428</v>
+        <v>-0.04077000843508009</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>-0.02571455470487569</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>0.02408138227656753</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.2889136617356082</v>
+        <v>-0.02827745783163394</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>0.03861998662182176</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.1118953452670751</v>
+        <v>0.04745535283613307</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.01217285086214395</v>
+        <v>-0.08589669927900243</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.03851465224326923</v>
+        <v>-0.1477452223630606</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>0.1612374275123736</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.08779737794738349</v>
+        <v>0.09212943677375951</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.05359893164723568</v>
+        <v>-0.1279147126329782</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>0.03951306519482914</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0.0237663692283513</v>
+        <v>0.1297033195682686</v>
       </c>
       <c r="AK29" t="n">
-        <v>0</v>
+        <v>0.09827498715458635</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>0.02221976684682967</v>
       </c>
       <c r="AM29" t="n">
-        <v>0</v>
+        <v>-0.02392548889872744</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>0.03372030064248262</v>
       </c>
       <c r="AO29" t="n">
-        <v>0.06931513503927923</v>
+        <v>-0.09497485533147293</v>
       </c>
       <c r="AP29" t="n">
-        <v>0</v>
+        <v>-0.0900880725594575</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.0202414414151542</v>
+        <v>0.02068961034884645</v>
       </c>
       <c r="AR29" t="n">
-        <v>0.2020391331444193</v>
+        <v>0.1932274621063821</v>
       </c>
       <c r="AS29" t="n">
-        <v>0</v>
+        <v>-0.02715977681500904</v>
       </c>
       <c r="AT29" t="n">
-        <v>0</v>
+        <v>-0.2013230070105992</v>
       </c>
       <c r="AU29" t="n">
-        <v>0.09054424253965297</v>
+        <v>-0.138396683573349</v>
       </c>
       <c r="AV29" t="n">
-        <v>0</v>
+        <v>-0.03539680549151941</v>
       </c>
       <c r="AW29" t="n">
-        <v>0</v>
+        <v>-0.08569240967509952</v>
       </c>
       <c r="AX29" t="n">
-        <v>0.02618788422942885</v>
+        <v>0.07704068416736903</v>
       </c>
       <c r="AY29" t="n">
-        <v>0.02634392236256526</v>
+        <v>-0.03376714260947649</v>
       </c>
       <c r="AZ29" t="n">
-        <v>0</v>
+        <v>-0.06858696243028137</v>
       </c>
       <c r="BA29" t="n">
-        <v>222.8835452758126</v>
+        <v>-0.04351101573593832</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>560.727494600318</v>
       </c>
     </row>
     <row r="30">
@@ -5208,160 +5297,163 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>8.420183487788142</v>
+        <v>5974.74458692546</v>
       </c>
       <c r="C30" t="n">
-        <v>100.1509788423643</v>
+        <v>17.11784772156874</v>
       </c>
       <c r="D30" t="n">
-        <v>58.00366367639945</v>
+        <v>100.9343999838131</v>
       </c>
       <c r="E30" t="n">
-        <v>13.64191282032464</v>
+        <v>51.77506919881915</v>
       </c>
       <c r="F30" t="n">
-        <v>3.187630798105401</v>
+        <v>12.85732639925515</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7032180026849232</v>
+        <v>3.586383819714078</v>
       </c>
       <c r="H30" t="n">
-        <v>0.4015965533259794</v>
+        <v>0.9673668682847072</v>
       </c>
       <c r="I30" t="n">
-        <v>0.291547242535572</v>
+        <v>0.02755744134036243</v>
       </c>
       <c r="J30" t="n">
-        <v>0.06614867714386298</v>
+        <v>0.06357281073876751</v>
       </c>
       <c r="K30" t="n">
-        <v>0.1166002544433205</v>
+        <v>0.06971599346685635</v>
       </c>
       <c r="L30" t="n">
-        <v>0.01071242422749914</v>
+        <v>0.07499073328283661</v>
       </c>
       <c r="M30" t="n">
-        <v>0.09106056485873244</v>
+        <v>0.08807197867583075</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>0.1090968964935606</v>
       </c>
       <c r="O30" t="n">
-        <v>0.02022825548983189</v>
+        <v>-0.06222488998894475</v>
       </c>
       <c r="P30" t="n">
-        <v>0.06842782820924552</v>
+        <v>0.008590766297852818</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>-0.06752982453321038</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>-0.2363444194848669</v>
       </c>
       <c r="S30" t="n">
-        <v>0.03483478493366276</v>
+        <v>0.1292990369504259</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>-0.2048667449855076</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06364036134920355</v>
+        <v>0.1104443789336388</v>
       </c>
       <c r="V30" t="n">
-        <v>0.05473467052618085</v>
+        <v>-0.008929014903223821</v>
       </c>
       <c r="W30" t="n">
-        <v>0.01899060449914356</v>
+        <v>0.1379510474012809</v>
       </c>
       <c r="X30" t="n">
-        <v>0.01102173268567012</v>
+        <v>0.04538069460134633</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.06542871122099488</v>
+        <v>0.09248454982513504</v>
       </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>0.005873270876053788</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>-0.0008939483913457853</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>0.07045166755064515</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>-0.04213054195290289</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>-0.09619759292512031</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.03328967608118182</v>
+        <v>0.1454218168072148</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.1510025428877457</v>
+        <v>-0.1877540932893778</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>0.09295026941707842</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>0.02819226090998946</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>0.1162200555564336</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0.1691338039177147</v>
+        <v>-0.01730579170497839</v>
       </c>
       <c r="AK30" t="n">
-        <v>0</v>
+        <v>-0.111526990996299</v>
       </c>
       <c r="AL30" t="n">
-        <v>0.03935916936714273</v>
+        <v>0.05559266721411801</v>
       </c>
       <c r="AM30" t="n">
-        <v>0</v>
+        <v>0.0651692033283932</v>
       </c>
       <c r="AN30" t="n">
-        <v>0</v>
+        <v>0.04549018009283422</v>
       </c>
       <c r="AO30" t="n">
-        <v>0.02557156576982363</v>
+        <v>0.174861679099274</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.04436871396037639</v>
+        <v>-0.09493981254504449</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.09917119102578011</v>
+        <v>0.132240641097451</v>
       </c>
       <c r="AR30" t="n">
-        <v>0</v>
+        <v>-0.1492025636897802</v>
       </c>
       <c r="AS30" t="n">
-        <v>0</v>
+        <v>-0.04435205395263766</v>
       </c>
       <c r="AT30" t="n">
-        <v>0</v>
+        <v>0.086941566074282</v>
       </c>
       <c r="AU30" t="n">
-        <v>0</v>
+        <v>0.008527145768148722</v>
       </c>
       <c r="AV30" t="n">
-        <v>0</v>
+        <v>0.07552932568117439</v>
       </c>
       <c r="AW30" t="n">
-        <v>0</v>
+        <v>-0.0122517138414921</v>
       </c>
       <c r="AX30" t="n">
-        <v>0.04469230523935006</v>
+        <v>0.09097123904325732</v>
       </c>
       <c r="AY30" t="n">
-        <v>0</v>
+        <v>-0.02133524694490793</v>
       </c>
       <c r="AZ30" t="n">
-        <v>0</v>
+        <v>-0.04098900248932415</v>
       </c>
       <c r="BA30" t="n">
-        <v>186.0291492613648</v>
+        <v>0.1571906993145196</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>188.1483997606747</v>
       </c>
     </row>
     <row r="31">
@@ -5369,160 +5461,163 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>75.76844257624447</v>
+        <v>5072.749275013178</v>
       </c>
       <c r="C31" t="n">
-        <v>265.7703243054618</v>
+        <v>8.605229233968412</v>
       </c>
       <c r="D31" t="n">
-        <v>81.23305535142586</v>
+        <v>101.5096879514666</v>
       </c>
       <c r="E31" t="n">
-        <v>24.69468291188145</v>
+        <v>100.9136141830495</v>
       </c>
       <c r="F31" t="n">
-        <v>9.815585412819468</v>
+        <v>44.21518149091468</v>
       </c>
       <c r="G31" t="n">
-        <v>2.157551364836379</v>
+        <v>15.47099202892861</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5614512963803129</v>
+        <v>7.272389716650213</v>
       </c>
       <c r="I31" t="n">
-        <v>0.178027922121894</v>
+        <v>2.04738987205667</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>0.06195591051015026</v>
       </c>
       <c r="K31" t="n">
-        <v>0.01094378424187948</v>
+        <v>0.006635957828482184</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>0.01491063083781372</v>
       </c>
       <c r="M31" t="n">
-        <v>0.06757539943049937</v>
+        <v>0.2458182967022686</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>0.06642273035402446</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>0.009401725724339605</v>
       </c>
       <c r="P31" t="n">
-        <v>0.01705253132550407</v>
+        <v>-0.06516535731090699</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>-0.1856515899319834</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>0.06739111662360388</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>0.03461945017016435</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>-0.0538910890480721</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0826481539717934</v>
+        <v>-0.1874452551770812</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>0.05850991667249691</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>0.1193609656190816</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>-0.01736606817376927</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.05761805639042083</v>
+        <v>0.1455652467543367</v>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>-0.06156982173931148</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>0.03805617455058939</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.1026876026869199</v>
+        <v>-0.04902171776892991</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.1169712568667469</v>
+        <v>0.04169771456454646</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>0.05234911403432946</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>0.2251234959163961</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>0.003188462980864936</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>0.1673270015228216</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>0.01382480010550966</v>
       </c>
       <c r="AI31" t="n">
-        <v>0.1398559972135708</v>
+        <v>-0.01368848308377936</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0</v>
+        <v>-0.121092715583319</v>
       </c>
       <c r="AK31" t="n">
-        <v>0.1129821634193098</v>
+        <v>-0.2149301554060913</v>
       </c>
       <c r="AL31" t="n">
-        <v>0.07195603335816804</v>
+        <v>-0.08085036341580297</v>
       </c>
       <c r="AM31" t="n">
-        <v>0.05234743620935738</v>
+        <v>0.02056814605319088</v>
       </c>
       <c r="AN31" t="n">
-        <v>0</v>
+        <v>0.06613716084526279</v>
       </c>
       <c r="AO31" t="n">
-        <v>0</v>
+        <v>-0.05332206998989882</v>
       </c>
       <c r="AP31" t="n">
-        <v>0</v>
+        <v>0.03144493130001614</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.06167625200559115</v>
+        <v>-0.09521987592916609</v>
       </c>
       <c r="AR31" t="n">
-        <v>0</v>
+        <v>-0.1800423458939173</v>
       </c>
       <c r="AS31" t="n">
-        <v>0</v>
+        <v>-0.03288831367745756</v>
       </c>
       <c r="AT31" t="n">
-        <v>0</v>
+        <v>-0.09339088637898853</v>
       </c>
       <c r="AU31" t="n">
-        <v>0.1423151542086004</v>
+        <v>0.07270355830743232</v>
       </c>
       <c r="AV31" t="n">
-        <v>0.09860399619187343</v>
+        <v>-0.06237423930378182</v>
       </c>
       <c r="AW31" t="n">
-        <v>0</v>
+        <v>-0.06673624617649518</v>
       </c>
       <c r="AX31" t="n">
-        <v>0.05299987854804486</v>
+        <v>0.04079985453049087</v>
       </c>
       <c r="AY31" t="n">
-        <v>0.106406543629708</v>
+        <v>0.2417114526607999</v>
       </c>
       <c r="AZ31" t="n">
-        <v>0</v>
+        <v>0.1717284719554319</v>
       </c>
       <c r="BA31" t="n">
-        <v>461.4737613808696</v>
+        <v>0.07294535843354373</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>280.490035528604</v>
       </c>
     </row>
     <row r="32">
@@ -5530,160 +5625,163 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>11.26404553520076</v>
+        <v>6950.020162182273</v>
       </c>
       <c r="C32" t="n">
-        <v>150.0925064457821</v>
+        <v>16.81024232324039</v>
       </c>
       <c r="D32" t="n">
-        <v>78.28746469984908</v>
+        <v>238.0677587322701</v>
       </c>
       <c r="E32" t="n">
-        <v>18.89017400053403</v>
+        <v>113.7339058078948</v>
       </c>
       <c r="F32" t="n">
-        <v>4.004838326497721</v>
+        <v>28.24654706958841</v>
       </c>
       <c r="G32" t="n">
-        <v>1.350108693470728</v>
+        <v>6.121775816678575</v>
       </c>
       <c r="H32" t="n">
-        <v>0.7623653169895526</v>
+        <v>2.505314286372559</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2729189307547047</v>
+        <v>1.439392370371566</v>
       </c>
       <c r="J32" t="n">
-        <v>0.283761600306674</v>
+        <v>0.7045217588482099</v>
       </c>
       <c r="K32" t="n">
-        <v>0.06765160944136832</v>
+        <v>0.4301049513761507</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>0.2353149743873928</v>
       </c>
       <c r="M32" t="n">
-        <v>0.06030114734461303</v>
+        <v>0.1055251896484401</v>
       </c>
       <c r="N32" t="n">
-        <v>0.1487514809630789</v>
+        <v>0.2476511404641928</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>-0.1304973865530275</v>
       </c>
       <c r="P32" t="n">
-        <v>0.1802534153527935</v>
+        <v>0.1497687437771698</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.1228115806469759</v>
+        <v>0.07283634544020105</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>0.05998326505887781</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>-0.07030912744278973</v>
       </c>
       <c r="T32" t="n">
-        <v>0.0546520673239152</v>
+        <v>-0.2483643431145085</v>
       </c>
       <c r="U32" t="n">
-        <v>0.08180084398759992</v>
+        <v>-0.04413777700654353</v>
       </c>
       <c r="V32" t="n">
-        <v>0.1413076049825052</v>
+        <v>0.01411959584841959</v>
       </c>
       <c r="W32" t="n">
-        <v>0.1147844476948193</v>
+        <v>0.02808983525212366</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>0.03350754580816592</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>0.1472233711746148</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.1450609729757461</v>
+        <v>-0.047044950674347</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.07495130003318638</v>
+        <v>0.1008141136876478</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.110548751850615</v>
+        <v>-0.2112816193334489</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.05403734934174919</v>
+        <v>0.1549969100907983</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>-0.1050489249526123</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>-0.04962973093480907</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>0.01831383155077251</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.03785044866429117</v>
+        <v>-0.0837168167047742</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.02739446454780875</v>
+        <v>0.01152032627644152</v>
       </c>
       <c r="AI32" t="n">
-        <v>0.06214095911784243</v>
+        <v>-0.07237543757461797</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0.01322856743340621</v>
+        <v>-0.005713706695128522</v>
       </c>
       <c r="AK32" t="n">
-        <v>0</v>
+        <v>-0.1713098707464728</v>
       </c>
       <c r="AL32" t="n">
-        <v>0.1048130130490064</v>
+        <v>-0.04449359267875608</v>
       </c>
       <c r="AM32" t="n">
-        <v>0</v>
+        <v>-0.102991337844109</v>
       </c>
       <c r="AN32" t="n">
-        <v>0</v>
+        <v>0.01770446707567312</v>
       </c>
       <c r="AO32" t="n">
-        <v>0</v>
+        <v>-0.04588752173703024</v>
       </c>
       <c r="AP32" t="n">
-        <v>0</v>
+        <v>0.119342817618249</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0</v>
+        <v>0.165635779059757</v>
       </c>
       <c r="AR32" t="n">
-        <v>0</v>
+        <v>0.1229993720409407</v>
       </c>
       <c r="AS32" t="n">
-        <v>0</v>
+        <v>0.0584830730156338</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.1369435764112774</v>
+        <v>-0.05669401537606727</v>
       </c>
       <c r="AU32" t="n">
-        <v>0.1330215537108169</v>
+        <v>0.1270986275958239</v>
       </c>
       <c r="AV32" t="n">
-        <v>0.06304371627513615</v>
+        <v>-0.008509245766460078</v>
       </c>
       <c r="AW32" t="n">
-        <v>0</v>
+        <v>-0.09935694339823799</v>
       </c>
       <c r="AX32" t="n">
-        <v>0</v>
+        <v>-0.09690488905244934</v>
       </c>
       <c r="AY32" t="n">
-        <v>0</v>
+        <v>-0.03483535748267495</v>
       </c>
       <c r="AZ32" t="n">
-        <v>0.0767636563197648</v>
+        <v>0.00200517869221144</v>
       </c>
       <c r="BA32" t="n">
-        <v>267.2202960768537</v>
+        <v>-0.09677825058991009</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>408.2266167745456</v>
       </c>
     </row>
     <row r="33">
@@ -5691,160 +5789,163 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>12.05861238308645</v>
+        <v>6820.595643180469</v>
       </c>
       <c r="C33" t="n">
-        <v>155.3166726059097</v>
+        <v>15.64740296589724</v>
       </c>
       <c r="D33" t="n">
-        <v>197.8423419090025</v>
+        <v>220.6980896675297</v>
       </c>
       <c r="E33" t="n">
-        <v>103.8719954745342</v>
+        <v>106.7635267570847</v>
       </c>
       <c r="F33" t="n">
-        <v>38.66998040187122</v>
+        <v>26.21368891688929</v>
       </c>
       <c r="G33" t="n">
-        <v>19.84826919591668</v>
+        <v>5.715425757047482</v>
       </c>
       <c r="H33" t="n">
-        <v>5.615241536103944</v>
+        <v>2.447136142439907</v>
       </c>
       <c r="I33" t="n">
-        <v>0.6337416506678318</v>
+        <v>1.370675828743653</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2852404104339997</v>
+        <v>0.7159607514131383</v>
       </c>
       <c r="K33" t="n">
-        <v>0.3286181593992702</v>
+        <v>0.4577895656737915</v>
       </c>
       <c r="L33" t="n">
-        <v>0.01061848919155547</v>
+        <v>0.4492996720244615</v>
       </c>
       <c r="M33" t="n">
-        <v>0.1530875787094317</v>
+        <v>0.123014682161868</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>0.02502293193446323</v>
       </c>
       <c r="O33" t="n">
-        <v>0.179477183358316</v>
+        <v>-0.07913899041164268</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>-0.08120419509447596</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.09451580486375379</v>
+        <v>-0.04004083091322665</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>0.01561321691245979</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>-0.05978673303418084</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>0.1287910298245105</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>-0.07156010989549863</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>0.05439677968471267</v>
       </c>
       <c r="W33" t="n">
-        <v>0.1869107012688828</v>
+        <v>-0.00180143650686817</v>
       </c>
       <c r="X33" t="n">
-        <v>0.03150155060755572</v>
+        <v>0.01345582444663238</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.1023880212790465</v>
+        <v>0.08703221721663354</v>
       </c>
       <c r="Z33" t="n">
-        <v>0</v>
+        <v>0.02522459776776723</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.1428705120236108</v>
+        <v>0.01194262822748722</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.01720376152274386</v>
+        <v>-0.03222738735637718</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>-0.01319984067026743</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.1754094790998824</v>
+        <v>0.02998003040341727</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>-0.04725165621035632</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.09653947632774629</v>
+        <v>0.1214274311727918</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.01185405982704584</v>
+        <v>-0.04661006687553867</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>0.03356255614187859</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>0.1146667281753897</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0</v>
+        <v>0.01357460753397173</v>
       </c>
       <c r="AK33" t="n">
-        <v>0.1254073989815767</v>
+        <v>-0.1185318756220618</v>
       </c>
       <c r="AL33" t="n">
-        <v>0</v>
+        <v>0.02127619309634046</v>
       </c>
       <c r="AM33" t="n">
-        <v>0</v>
+        <v>0.2146912077715181</v>
       </c>
       <c r="AN33" t="n">
-        <v>0</v>
+        <v>0.07128861072474002</v>
       </c>
       <c r="AO33" t="n">
-        <v>0.1023038685478313</v>
+        <v>-0.06409334943418955</v>
       </c>
       <c r="AP33" t="n">
-        <v>0</v>
+        <v>-0.03932696502915431</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.05581527089503161</v>
+        <v>0.03820487624940181</v>
       </c>
       <c r="AR33" t="n">
-        <v>0.03728444227093138</v>
+        <v>0.02393630431469503</v>
       </c>
       <c r="AS33" t="n">
-        <v>0</v>
+        <v>0.07877580910603518</v>
       </c>
       <c r="AT33" t="n">
-        <v>0</v>
+        <v>0.02352418937683149</v>
       </c>
       <c r="AU33" t="n">
-        <v>0.0162318039426537</v>
+        <v>-0.09590223095839835</v>
       </c>
       <c r="AV33" t="n">
-        <v>0.1341789010544212</v>
+        <v>0.07016279926156889</v>
       </c>
       <c r="AW33" t="n">
-        <v>0.1841873074522948</v>
+        <v>-0.03373470291568925</v>
       </c>
       <c r="AX33" t="n">
-        <v>0.05704325235156896</v>
+        <v>0.1124278446299653</v>
       </c>
       <c r="AY33" t="n">
-        <v>0</v>
+        <v>-0.1014623920340896</v>
       </c>
       <c r="AZ33" t="n">
-        <v>0.1900840023164241</v>
+        <v>0.01255042403334341</v>
       </c>
       <c r="BA33" t="n">
-        <v>536.5756265928183</v>
+        <v>-0.06745470041969023</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>380.95021208153</v>
       </c>
     </row>
     <row r="34">
@@ -5852,160 +5953,163 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>35.09783002513233</v>
+        <v>5577.778676821492</v>
       </c>
       <c r="C34" t="n">
-        <v>151.3713266372514</v>
+        <v>7.109795227499641</v>
       </c>
       <c r="D34" t="n">
-        <v>60.66256237952693</v>
+        <v>77.97801405567645</v>
       </c>
       <c r="E34" t="n">
-        <v>16.52343790052617</v>
+        <v>58.32088980032596</v>
       </c>
       <c r="F34" t="n">
-        <v>5.604145744525381</v>
+        <v>18.06515763237136</v>
       </c>
       <c r="G34" t="n">
-        <v>1.443798406939207</v>
+        <v>5.303068167598589</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1990441072444054</v>
+        <v>2.072080410267838</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.4922604579590443</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1340259629375125</v>
+        <v>0.05792394123733875</v>
       </c>
       <c r="K34" t="n">
-        <v>0.1664365974132953</v>
+        <v>-0.04679067226730417</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>0.06152842202444869</v>
       </c>
       <c r="M34" t="n">
-        <v>0.08893607130722747</v>
+        <v>0.2387804081306325</v>
       </c>
       <c r="N34" t="n">
-        <v>0.07609780771013042</v>
+        <v>0.03657934305360987</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>-0.1743564434823772</v>
       </c>
       <c r="P34" t="n">
-        <v>0.01406415271463327</v>
+        <v>-0.03492123119513966</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.1318826713741033</v>
+        <v>0.1114576012940633</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>0.04158705882207837</v>
       </c>
       <c r="S34" t="n">
-        <v>0.1617795639669769</v>
+        <v>0.1596300399995522</v>
       </c>
       <c r="T34" t="n">
-        <v>0.03234919155521671</v>
+        <v>-0.1473901243455632</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02487882093885417</v>
+        <v>-0.09698111062947859</v>
       </c>
       <c r="V34" t="n">
-        <v>0.1585740870138406</v>
+        <v>0.01270399958637402</v>
       </c>
       <c r="W34" t="n">
-        <v>0.03967135613517644</v>
+        <v>-0.003945697623570438</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>-0.002858385315343897</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>0.07775575566834664</v>
       </c>
       <c r="Z34" t="n">
-        <v>0</v>
+        <v>0.09778137911983345</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>0.1069904992255074</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.1536403176837924</v>
+        <v>0.03094711246909707</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>-0.0961944238528037</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.07854779354878179</v>
+        <v>-0.02958973261177998</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>-0.01909103283666709</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.1078785860128857</v>
+        <v>-0.06761389460722815</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.2821237707979278</v>
+        <v>0.0007685612654098339</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>-0.07414767101145271</v>
       </c>
       <c r="AI34" t="n">
-        <v>0</v>
+        <v>-0.03070774903524017</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0</v>
+        <v>-0.002344978150841103</v>
       </c>
       <c r="AK34" t="n">
-        <v>0</v>
+        <v>-0.03592397593571767</v>
       </c>
       <c r="AL34" t="n">
-        <v>0.03769527519189715</v>
+        <v>-0.1115723689152046</v>
       </c>
       <c r="AM34" t="n">
-        <v>0.113552782754562</v>
+        <v>0.1127623701665548</v>
       </c>
       <c r="AN34" t="n">
-        <v>0.1406344473560525</v>
+        <v>-0.005563573683956424</v>
       </c>
       <c r="AO34" t="n">
-        <v>0</v>
+        <v>0.06160086351430274</v>
       </c>
       <c r="AP34" t="n">
-        <v>0.02851619403466051</v>
+        <v>-0.1797358950085483</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0</v>
+        <v>-0.08577225537150793</v>
       </c>
       <c r="AR34" t="n">
-        <v>0.06996667071809103</v>
+        <v>-0.08884250591594162</v>
       </c>
       <c r="AS34" t="n">
-        <v>0</v>
+        <v>0.02519595184475642</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.1175908411132844</v>
+        <v>-0.004290593955745298</v>
       </c>
       <c r="AU34" t="n">
-        <v>0.09045082190149888</v>
+        <v>-0.00868302885145259</v>
       </c>
       <c r="AV34" t="n">
-        <v>0.1055661198168816</v>
+        <v>0.1133051973101124</v>
       </c>
       <c r="AW34" t="n">
-        <v>0.2254997323026869</v>
+        <v>-0.1417119413489638</v>
       </c>
       <c r="AX34" t="n">
-        <v>0.1074812995382744</v>
+        <v>0.1601022140547428</v>
       </c>
       <c r="AY34" t="n">
-        <v>0</v>
+        <v>0.0677499632902835</v>
       </c>
       <c r="AZ34" t="n">
-        <v>0</v>
+        <v>-0.08940234307083217</v>
       </c>
       <c r="BA34" t="n">
-        <v>273.5899861369841</v>
+        <v>-0.01577816699768865</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>169.3222066377556</v>
       </c>
     </row>
     <row r="35">
@@ -6013,160 +6117,163 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>24.83102132611608</v>
+        <v>5562.114756950668</v>
       </c>
       <c r="C35" t="n">
-        <v>366.8404171820632</v>
+        <v>20.08324315526284</v>
       </c>
       <c r="D35" t="n">
-        <v>166.7363281236712</v>
+        <v>161.1629965839435</v>
       </c>
       <c r="E35" t="n">
-        <v>41.71803836506317</v>
+        <v>167.3259057688133</v>
       </c>
       <c r="F35" t="n">
-        <v>9.011350941473063</v>
+        <v>75.30345469944997</v>
       </c>
       <c r="G35" t="n">
-        <v>4.276216816464332</v>
+        <v>27.86810581671767</v>
       </c>
       <c r="H35" t="n">
-        <v>2.757219209688964</v>
+        <v>14.40114687156797</v>
       </c>
       <c r="I35" t="n">
-        <v>1.587184597146049</v>
+        <v>3.930692883873214</v>
       </c>
       <c r="J35" t="n">
-        <v>0.901937987228957</v>
+        <v>1.156156396496572</v>
       </c>
       <c r="K35" t="n">
-        <v>0.5394592025708699</v>
+        <v>0.489131019609845</v>
       </c>
       <c r="L35" t="n">
-        <v>0.3807327643431291</v>
+        <v>-0.02361989325140509</v>
       </c>
       <c r="M35" t="n">
-        <v>0.1756844941228285</v>
+        <v>-0.05847067814120885</v>
       </c>
       <c r="N35" t="n">
-        <v>0.02005401895919493</v>
+        <v>0.1464646043132257</v>
       </c>
       <c r="O35" t="n">
-        <v>0.1563780253320919</v>
+        <v>0.1478283044914191</v>
       </c>
       <c r="P35" t="n">
-        <v>0.1671276808283405</v>
+        <v>0.2007235749388674</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>0.04886736029477075</v>
       </c>
       <c r="R35" t="n">
-        <v>0.05333950563903646</v>
+        <v>-0.05242481297140805</v>
       </c>
       <c r="S35" t="n">
-        <v>0.1134813389339088</v>
+        <v>0.1848863204468387</v>
       </c>
       <c r="T35" t="n">
-        <v>0.02128842032394127</v>
+        <v>-0.03160089595273252</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03521308743863568</v>
+        <v>-0.07984868867258035</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>0.08315783417277448</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>0.01820811090035875</v>
       </c>
       <c r="X35" t="n">
-        <v>0.03578564687617003</v>
+        <v>-0.0637112048803891</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.1141027433372602</v>
+        <v>0.06685290539167987</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.04258610901311085</v>
+        <v>-0.03882982752122077</v>
       </c>
       <c r="AA35" t="n">
-        <v>0</v>
+        <v>-0.1370190516484196</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.02507721650478835</v>
+        <v>0.00473414702601022</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>0.06040662724451887</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.0958055979299154</v>
+        <v>-0.1670589657484153</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>0.04758139417447912</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>-0.004585786798669771</v>
       </c>
       <c r="AG35" t="n">
-        <v>0</v>
+        <v>0.01727839058934528</v>
       </c>
       <c r="AH35" t="n">
-        <v>0</v>
+        <v>0.01125297441463194</v>
       </c>
       <c r="AI35" t="n">
-        <v>0.04800815751105151</v>
+        <v>-0.04192996956637612</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0.3049450590153875</v>
+        <v>0.02289151121398712</v>
       </c>
       <c r="AK35" t="n">
-        <v>0</v>
+        <v>0.009076664293875183</v>
       </c>
       <c r="AL35" t="n">
-        <v>0</v>
+        <v>-0.08605233913547625</v>
       </c>
       <c r="AM35" t="n">
-        <v>0</v>
+        <v>0.06940605340617735</v>
       </c>
       <c r="AN35" t="n">
-        <v>0.0608929408752296</v>
+        <v>-0.003521269256477439</v>
       </c>
       <c r="AO35" t="n">
-        <v>0</v>
+        <v>0.1308356214375217</v>
       </c>
       <c r="AP35" t="n">
-        <v>0</v>
+        <v>-0.1012007101318174</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0</v>
+        <v>0.08000132519209319</v>
       </c>
       <c r="AR35" t="n">
-        <v>0</v>
+        <v>-0.05732482253599633</v>
       </c>
       <c r="AS35" t="n">
-        <v>0.1164896181273887</v>
+        <v>-0.1744345578628346</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.05534741454152946</v>
+        <v>-0.04551802408691792</v>
       </c>
       <c r="AU35" t="n">
-        <v>0</v>
+        <v>0.02599583291647386</v>
       </c>
       <c r="AV35" t="n">
-        <v>0.06057340229190812</v>
+        <v>-0.02243823381872921</v>
       </c>
       <c r="AW35" t="n">
-        <v>0.09899673165292341</v>
+        <v>-0.172444381549077</v>
       </c>
       <c r="AX35" t="n">
-        <v>0.01974695138085869</v>
+        <v>-0.01766892776608207</v>
       </c>
       <c r="AY35" t="n">
-        <v>0.1096676013976371</v>
+        <v>0.1014947219154995</v>
       </c>
       <c r="AZ35" t="n">
-        <v>0.05257030502317439</v>
+        <v>-0.02791978147300526</v>
       </c>
       <c r="BA35" t="n">
-        <v>621.5630685828853</v>
+        <v>-0.08667875067825594</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>471.704475901062</v>
       </c>
     </row>
     <row r="36">
@@ -6174,160 +6281,163 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>26.09142458856397</v>
+        <v>7678.301611366925</v>
       </c>
       <c r="C36" t="n">
-        <v>327.2350050600258</v>
+        <v>27.44668789898691</v>
       </c>
       <c r="D36" t="n">
-        <v>156.2493556079972</v>
+        <v>149.8225711522819</v>
       </c>
       <c r="E36" t="n">
-        <v>39.11609799250355</v>
+        <v>103.3641658290277</v>
       </c>
       <c r="F36" t="n">
-        <v>9.450112391030544</v>
+        <v>25.83808485671107</v>
       </c>
       <c r="G36" t="n">
-        <v>4.404560389938831</v>
+        <v>8.738834868694777</v>
       </c>
       <c r="H36" t="n">
-        <v>2.438449254579362</v>
+        <v>4.226190136049691</v>
       </c>
       <c r="I36" t="n">
-        <v>1.41405380624448</v>
+        <v>1.203211285235973</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7566563395799116</v>
+        <v>0.9444599059120444</v>
       </c>
       <c r="K36" t="n">
-        <v>0.1968811049058099</v>
+        <v>0.6317367447856336</v>
       </c>
       <c r="L36" t="n">
-        <v>0.4241970989544341</v>
+        <v>0.1680353895184672</v>
       </c>
       <c r="M36" t="n">
-        <v>0.1918658576770146</v>
+        <v>0.1415616359624655</v>
       </c>
       <c r="N36" t="n">
-        <v>0.1936075813864604</v>
+        <v>0.01051255461049064</v>
       </c>
       <c r="O36" t="n">
-        <v>0.2403240265049647</v>
+        <v>0.4715928271566404</v>
       </c>
       <c r="P36" t="n">
-        <v>0.1759036770021284</v>
+        <v>0.3206571366718262</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.1660979758880506</v>
+        <v>0.1316836229269502</v>
       </c>
       <c r="R36" t="n">
-        <v>0.09026193285137829</v>
+        <v>0.1956537875983573</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>0.3093473967061676</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>0.009724634998314368</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0783470235272733</v>
+        <v>-0.02806421988818275</v>
       </c>
       <c r="V36" t="n">
-        <v>0.2443504623008048</v>
+        <v>-0.07162812955918878</v>
       </c>
       <c r="W36" t="n">
-        <v>0.1281536250912896</v>
+        <v>-0.01675502756550606</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>0.05708953398341119</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>0.03885378971387224</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.03664924235636776</v>
+        <v>-0.1106622087490657</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>-0.177208003977042</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.01249999204418084</v>
+        <v>-0.001300164508179635</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.04898537335955089</v>
+        <v>-0.04128364851189592</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.1296138626020241</v>
+        <v>-0.04051827597995591</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.01451287397272133</v>
+        <v>-0.1180394987745064</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.01768213977342064</v>
+        <v>-0.003748679092899768</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>-0.01003460833582894</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>0.03737345109846517</v>
       </c>
       <c r="AI36" t="n">
-        <v>0.1046371932901642</v>
+        <v>-0.04264936586498102</v>
       </c>
       <c r="AJ36" t="n">
-        <v>0</v>
+        <v>-0.1081239862303052</v>
       </c>
       <c r="AK36" t="n">
-        <v>0</v>
+        <v>0.1101843367576388</v>
       </c>
       <c r="AL36" t="n">
-        <v>0.2074851516600442</v>
+        <v>0.1443394836193352</v>
       </c>
       <c r="AM36" t="n">
-        <v>0.05219681086114324</v>
+        <v>0.0716896752856933</v>
       </c>
       <c r="AN36" t="n">
-        <v>0</v>
+        <v>0.136594594288709</v>
       </c>
       <c r="AO36" t="n">
-        <v>0.266172570432706</v>
+        <v>0.1245295215884819</v>
       </c>
       <c r="AP36" t="n">
-        <v>0</v>
+        <v>-0.1105529143294006</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.143854624913474</v>
+        <v>-0.03322943981527867</v>
       </c>
       <c r="AR36" t="n">
-        <v>0</v>
+        <v>0.03873961931171643</v>
       </c>
       <c r="AS36" t="n">
-        <v>0</v>
+        <v>0.01360079866415353</v>
       </c>
       <c r="AT36" t="n">
-        <v>0</v>
+        <v>-0.09648834722201995</v>
       </c>
       <c r="AU36" t="n">
-        <v>0.08076976334320979</v>
+        <v>0.3673413839354646</v>
       </c>
       <c r="AV36" t="n">
-        <v>0</v>
+        <v>0.07221860341907192</v>
       </c>
       <c r="AW36" t="n">
-        <v>0.1363927753807542</v>
+        <v>0.03045479102152141</v>
       </c>
       <c r="AX36" t="n">
-        <v>0.06073019230533503</v>
+        <v>-0.09194407647154694</v>
       </c>
       <c r="AY36" t="n">
-        <v>0</v>
+        <v>-0.03135701930761687</v>
       </c>
       <c r="AZ36" t="n">
-        <v>0</v>
+        <v>0.08388174290743305</v>
       </c>
       <c r="BA36" t="n">
-        <v>570.5978883628484</v>
+        <v>-0.1962515810199634</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>323.9717637942269</v>
       </c>
     </row>
     <row r="37">
@@ -6335,160 +6445,163 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>27.55210100692575</v>
+        <v>7958.992180062705</v>
       </c>
       <c r="C37" t="n">
-        <v>150.7083353221738</v>
+        <v>25.47863147268236</v>
       </c>
       <c r="D37" t="n">
-        <v>104.254071446351</v>
+        <v>343.6388013339255</v>
       </c>
       <c r="E37" t="n">
-        <v>25.68115394858448</v>
+        <v>160.5539147654713</v>
       </c>
       <c r="F37" t="n">
-        <v>9.081480363373483</v>
+        <v>40.21073734682393</v>
       </c>
       <c r="G37" t="n">
-        <v>4.231795388950983</v>
+        <v>9.144089597013163</v>
       </c>
       <c r="H37" t="n">
-        <v>1.554014612330963</v>
+        <v>4.348785090042465</v>
       </c>
       <c r="I37" t="n">
-        <v>0.9086382517235627</v>
+        <v>2.729821358513689</v>
       </c>
       <c r="J37" t="n">
-        <v>0.8316052701841149</v>
+        <v>1.339437226847771</v>
       </c>
       <c r="K37" t="n">
-        <v>0.01960093886556222</v>
+        <v>0.7796848518329563</v>
       </c>
       <c r="L37" t="n">
-        <v>0.1304615750478901</v>
+        <v>0.2352949810701317</v>
       </c>
       <c r="M37" t="n">
-        <v>0.09895351227419799</v>
+        <v>0.3070333624740508</v>
       </c>
       <c r="N37" t="n">
-        <v>0.3791255611115013</v>
+        <v>0.110048282828368</v>
       </c>
       <c r="O37" t="n">
-        <v>0.2379036999002634</v>
+        <v>0.08395383866748395</v>
       </c>
       <c r="P37" t="n">
-        <v>0.2243484875817212</v>
+        <v>0.02038894431631955</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.2355571703860549</v>
+        <v>0.04565106074766241</v>
       </c>
       <c r="R37" t="n">
-        <v>0.0725173853841353</v>
+        <v>0.1722282568268576</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>0.05831340971361163</v>
       </c>
       <c r="T37" t="n">
-        <v>0.07187349654904855</v>
+        <v>0.004648641939878232</v>
       </c>
       <c r="U37" t="n">
-        <v>0.2002267767346254</v>
+        <v>-0.01040678674143337</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>-0.156992578481524</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>-0.05526306873575809</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>-0.114691149958947</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>0.0327168483151213</v>
       </c>
       <c r="Z37" t="n">
-        <v>0</v>
+        <v>0.05099462629079132</v>
       </c>
       <c r="AA37" t="n">
-        <v>0</v>
+        <v>0.1469163250254286</v>
       </c>
       <c r="AB37" t="n">
-        <v>0</v>
+        <v>0.01856313294411232</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.05686213701283761</v>
+        <v>0.1086024197043318</v>
       </c>
       <c r="AD37" t="n">
-        <v>0</v>
+        <v>-0.00474848962057408</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.1337198993870766</v>
+        <v>-0.03654405221138146</v>
       </c>
       <c r="AF37" t="n">
-        <v>0.08494420764392954</v>
+        <v>-0.06020435272451627</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.02190131935687364</v>
+        <v>-0.0571133521879896</v>
       </c>
       <c r="AH37" t="n">
-        <v>0</v>
+        <v>-0.02223459941229031</v>
       </c>
       <c r="AI37" t="n">
-        <v>0.02318518229762277</v>
+        <v>-0.01066512027509459</v>
       </c>
       <c r="AJ37" t="n">
-        <v>0</v>
+        <v>-0.04334715833326445</v>
       </c>
       <c r="AK37" t="n">
-        <v>0</v>
+        <v>0.05242083545915255</v>
       </c>
       <c r="AL37" t="n">
-        <v>0.04661582798351652</v>
+        <v>0.1552579655977591</v>
       </c>
       <c r="AM37" t="n">
-        <v>0</v>
+        <v>0.1219274932378497</v>
       </c>
       <c r="AN37" t="n">
-        <v>0</v>
+        <v>0.01603796420537125</v>
       </c>
       <c r="AO37" t="n">
-        <v>0.05216311256875507</v>
+        <v>-0.001756936710806299</v>
       </c>
       <c r="AP37" t="n">
-        <v>0.1847863766944841</v>
+        <v>-0.07907293550567132</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.1462566604426044</v>
+        <v>0.01024412577090538</v>
       </c>
       <c r="AR37" t="n">
-        <v>0.04707304526592534</v>
+        <v>-0.1371619293678998</v>
       </c>
       <c r="AS37" t="n">
-        <v>0</v>
+        <v>0.09690390081113197</v>
       </c>
       <c r="AT37" t="n">
-        <v>0</v>
+        <v>-0.02495381209066096</v>
       </c>
       <c r="AU37" t="n">
-        <v>0</v>
+        <v>0.02961687870834792</v>
       </c>
       <c r="AV37" t="n">
-        <v>0</v>
+        <v>0.1087043332452419</v>
       </c>
       <c r="AW37" t="n">
-        <v>0</v>
+        <v>-0.02367689358512255</v>
       </c>
       <c r="AX37" t="n">
-        <v>0</v>
+        <v>-0.00808062529814344</v>
       </c>
       <c r="AY37" t="n">
-        <v>0</v>
+        <v>0.1263495012021786</v>
       </c>
       <c r="AZ37" t="n">
-        <v>0.112953401692738</v>
+        <v>-0.02735992273409445</v>
       </c>
       <c r="BA37" t="n">
-        <v>327.3842253847794</v>
+        <v>-0.03739797164159211</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>589.4250484366385</v>
       </c>
     </row>
     <row r="38">
@@ -6496,160 +6609,163 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>30.15847329288653</v>
+        <v>7813.293565614857</v>
       </c>
       <c r="C38" t="n">
-        <v>198.8823475270042</v>
+        <v>77.87592170733237</v>
       </c>
       <c r="D38" t="n">
-        <v>123.257312035452</v>
+        <v>276.3312561573879</v>
       </c>
       <c r="E38" t="n">
-        <v>30.89585048424292</v>
+        <v>93.47857333943666</v>
       </c>
       <c r="F38" t="n">
-        <v>9.604252384182839</v>
+        <v>27.61552751461762</v>
       </c>
       <c r="G38" t="n">
-        <v>4.703116178679838</v>
+        <v>10.97269664566944</v>
       </c>
       <c r="H38" t="n">
-        <v>2.035644422881188</v>
+        <v>3.021004907981359</v>
       </c>
       <c r="I38" t="n">
-        <v>1.201645093922304</v>
+        <v>0.8210239957172381</v>
       </c>
       <c r="J38" t="n">
-        <v>0.6771978177766249</v>
+        <v>0.5385159991200095</v>
       </c>
       <c r="K38" t="n">
-        <v>0.2182063545525711</v>
+        <v>0.251767770964464</v>
       </c>
       <c r="L38" t="n">
-        <v>0.2199343410572002</v>
+        <v>0.09287776515818684</v>
       </c>
       <c r="M38" t="n">
-        <v>0.3570599223077386</v>
+        <v>-0.0008153274732795451</v>
       </c>
       <c r="N38" t="n">
-        <v>0.1549206834150355</v>
+        <v>0.1131485335503987</v>
       </c>
       <c r="O38" t="n">
-        <v>0.4235640959073353</v>
+        <v>0.1859034897800395</v>
       </c>
       <c r="P38" t="n">
-        <v>0.1154252002819379</v>
+        <v>0.1926370521006813</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.2278867113945206</v>
+        <v>0.004320160164339018</v>
       </c>
       <c r="R38" t="n">
-        <v>0.2084047790783898</v>
+        <v>-0.1943264821831726</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-0.04862081170643116</v>
       </c>
       <c r="T38" t="n">
-        <v>0.1157194701955846</v>
+        <v>0.008010891898071639</v>
       </c>
       <c r="U38" t="n">
-        <v>0.08544444296658149</v>
+        <v>0.07685216990808801</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>-0.03107737622324735</v>
       </c>
       <c r="W38" t="n">
-        <v>0.138373605076013</v>
+        <v>-0.1077571354169018</v>
       </c>
       <c r="X38" t="n">
-        <v>0.01777625105811573</v>
+        <v>-0.02360916820887552</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.01866515142609556</v>
+        <v>0.02650313593022639</v>
       </c>
       <c r="Z38" t="n">
-        <v>0</v>
+        <v>-0.03279951386777596</v>
       </c>
       <c r="AA38" t="n">
-        <v>0</v>
+        <v>0.08389167903436019</v>
       </c>
       <c r="AB38" t="n">
-        <v>0</v>
+        <v>0.001606100579423545</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.09859841639311404</v>
+        <v>-0.0891832869387169</v>
       </c>
       <c r="AD38" t="n">
-        <v>0</v>
+        <v>0.0646152386188429</v>
       </c>
       <c r="AE38" t="n">
-        <v>0</v>
+        <v>-0.04319884945693884</v>
       </c>
       <c r="AF38" t="n">
-        <v>0</v>
+        <v>0.02608524535374944</v>
       </c>
       <c r="AG38" t="n">
-        <v>0</v>
+        <v>-0.1990524899761257</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.04582988338138098</v>
+        <v>0.1195225885577644</v>
       </c>
       <c r="AI38" t="n">
-        <v>0</v>
+        <v>0.04104621192411494</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0</v>
+        <v>0.0932416015991922</v>
       </c>
       <c r="AK38" t="n">
-        <v>0.1468474272759032</v>
+        <v>0.1283911532503122</v>
       </c>
       <c r="AL38" t="n">
-        <v>0.08525508002245918</v>
+        <v>-0.04993490284299817</v>
       </c>
       <c r="AM38" t="n">
-        <v>0.01672953317848612</v>
+        <v>0.06907608832371287</v>
       </c>
       <c r="AN38" t="n">
-        <v>0.1916440288399525</v>
+        <v>-0.1358420885824402</v>
       </c>
       <c r="AO38" t="n">
-        <v>0.01298082642020321</v>
+        <v>0.009451562330823386</v>
       </c>
       <c r="AP38" t="n">
-        <v>0</v>
+        <v>0.07937538566233777</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0</v>
+        <v>-0.01081554236700533</v>
       </c>
       <c r="AR38" t="n">
-        <v>0</v>
+        <v>-0.07145430044512938</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.02555208545192342</v>
+        <v>0.03236545448300074</v>
       </c>
       <c r="AT38" t="n">
-        <v>0</v>
+        <v>-0.08375115154109532</v>
       </c>
       <c r="AU38" t="n">
-        <v>0</v>
+        <v>0.04862220597519992</v>
       </c>
       <c r="AV38" t="n">
-        <v>0</v>
+        <v>-0.1536896131427852</v>
       </c>
       <c r="AW38" t="n">
-        <v>0.07045200980999024</v>
+        <v>-0.1120514450345513</v>
       </c>
       <c r="AX38" t="n">
-        <v>0.04688454801477464</v>
+        <v>0.08654209114620998</v>
       </c>
       <c r="AY38" t="n">
-        <v>0.02497192497294688</v>
+        <v>-0.133553368371049</v>
       </c>
       <c r="AZ38" t="n">
-        <v>0.08288985147078845</v>
+        <v>-0.04636420330422229</v>
       </c>
       <c r="BA38" t="n">
-        <v>404.5658558609774</v>
+        <v>0.07575912355766344</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>490.998235910031</v>
       </c>
     </row>
     <row r="39">
@@ -6657,160 +6773,163 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>25.49146551501869</v>
+        <v>5871.91359315398</v>
       </c>
       <c r="C39" t="n">
-        <v>344.3948893518321</v>
+        <v>8.382121190927903</v>
       </c>
       <c r="D39" t="n">
-        <v>160.9306984917053</v>
+        <v>77.82480967889474</v>
       </c>
       <c r="E39" t="n">
-        <v>40.45946606388354</v>
+        <v>51.0198834913795</v>
       </c>
       <c r="F39" t="n">
-        <v>9.216278861260705</v>
+        <v>12.1208840158735</v>
       </c>
       <c r="G39" t="n">
-        <v>4.423464486600022</v>
+        <v>3.193850386989287</v>
       </c>
       <c r="H39" t="n">
-        <v>2.648714326289114</v>
+        <v>0.6640070329449064</v>
       </c>
       <c r="I39" t="n">
-        <v>1.405119447373693</v>
+        <v>-0.1073279859612585</v>
       </c>
       <c r="J39" t="n">
-        <v>0.6396778237499299</v>
+        <v>-0.04051407928065094</v>
       </c>
       <c r="K39" t="n">
-        <v>0.5128551888694698</v>
+        <v>0.05594132586672899</v>
       </c>
       <c r="L39" t="n">
-        <v>0.2523026629232152</v>
+        <v>0.01038319838105094</v>
       </c>
       <c r="M39" t="n">
-        <v>0.09554018239349493</v>
+        <v>0.2290956546521523</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>-0.08872533198355341</v>
       </c>
       <c r="O39" t="n">
-        <v>0.08506958579494794</v>
+        <v>0.0161102764636605</v>
       </c>
       <c r="P39" t="n">
-        <v>0.02029255357101975</v>
+        <v>0.104344071647496</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.2626449477914959</v>
+        <v>-0.1827795327214967</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>-0.05768535576352114</v>
       </c>
       <c r="S39" t="n">
-        <v>0.1530004895745188</v>
+        <v>0.05210886758306294</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>0.1266395385848082</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>-0.0577602563874617</v>
       </c>
       <c r="V39" t="n">
-        <v>0.06570123258926791</v>
+        <v>0.03621576830537809</v>
       </c>
       <c r="W39" t="n">
-        <v>0.1330892284609318</v>
+        <v>0.03871142122562202</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>-0.02088795238201008</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>0.08855005203562982</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.1124042562169876</v>
+        <v>-0.05796478495064392</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.2308580052686779</v>
+        <v>0.1270976577748944</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.07329657704224528</v>
+        <v>0.05295302079037904</v>
       </c>
       <c r="AC39" t="n">
-        <v>0</v>
+        <v>-0.1135789128088522</v>
       </c>
       <c r="AD39" t="n">
-        <v>0</v>
+        <v>0.1178890281277796</v>
       </c>
       <c r="AE39" t="n">
-        <v>0</v>
+        <v>-0.01812861655889186</v>
       </c>
       <c r="AF39" t="n">
-        <v>0.1766779020122786</v>
+        <v>0.02282270277875555</v>
       </c>
       <c r="AG39" t="n">
-        <v>0</v>
+        <v>-0.09068508438439558</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.09935434670368358</v>
+        <v>0.09399213215105508</v>
       </c>
       <c r="AI39" t="n">
-        <v>0.08188474209080514</v>
+        <v>-0.01413364341270117</v>
       </c>
       <c r="AJ39" t="n">
-        <v>0.04012312008922553</v>
+        <v>0.1169314698688227</v>
       </c>
       <c r="AK39" t="n">
-        <v>0.1397014595281787</v>
+        <v>0.1245568734718101</v>
       </c>
       <c r="AL39" t="n">
-        <v>0</v>
+        <v>0.1792372483093838</v>
       </c>
       <c r="AM39" t="n">
-        <v>0</v>
+        <v>0.01724616707560774</v>
       </c>
       <c r="AN39" t="n">
-        <v>0</v>
+        <v>-0.1126634725201388</v>
       </c>
       <c r="AO39" t="n">
-        <v>0.155056108561313</v>
+        <v>-0.1430983031705428</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.1526763564415544</v>
+        <v>-0.1925873944796821</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0</v>
+        <v>-0.1499600664285463</v>
       </c>
       <c r="AR39" t="n">
-        <v>0.01435034707075856</v>
+        <v>0.02174895885194975</v>
       </c>
       <c r="AS39" t="n">
-        <v>0</v>
+        <v>-0.03523141233071017</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.05361850820058054</v>
+        <v>-0.001589201035664016</v>
       </c>
       <c r="AU39" t="n">
-        <v>0</v>
+        <v>-0.09964572494807852</v>
       </c>
       <c r="AV39" t="n">
-        <v>0</v>
+        <v>0.0416935018927225</v>
       </c>
       <c r="AW39" t="n">
-        <v>0</v>
+        <v>0.1615954256586104</v>
       </c>
       <c r="AX39" t="n">
-        <v>0</v>
+        <v>0.07490871049266988</v>
       </c>
       <c r="AY39" t="n">
-        <v>0.09042469652090265</v>
+        <v>-0.04942548373040456</v>
       </c>
       <c r="AZ39" t="n">
-        <v>0</v>
+        <v>-0.0002638635546867598</v>
       </c>
       <c r="BA39" t="n">
-        <v>592.6106968654286</v>
+        <v>-0.01685758673306506</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>153.4648348234729</v>
       </c>
     </row>
     <row r="40">
@@ -6818,160 +6937,163 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>15.0319512902105</v>
+        <v>7816.646951934466</v>
       </c>
       <c r="C40" t="n">
-        <v>159.7053180786555</v>
+        <v>77.13267001806531</v>
       </c>
       <c r="D40" t="n">
-        <v>190.9572376036348</v>
+        <v>274.7870234010677</v>
       </c>
       <c r="E40" t="n">
-        <v>96.336318199983</v>
+        <v>93.69345560114755</v>
       </c>
       <c r="F40" t="n">
-        <v>35.78139471179814</v>
+        <v>27.76981934071747</v>
       </c>
       <c r="G40" t="n">
-        <v>18.09644799094248</v>
+        <v>11.11307219454821</v>
       </c>
       <c r="H40" t="n">
-        <v>5.445271114024462</v>
+        <v>2.899478021689568</v>
       </c>
       <c r="I40" t="n">
-        <v>0.8364483629053168</v>
+        <v>0.749378772496214</v>
       </c>
       <c r="J40" t="n">
-        <v>0.1133515598036004</v>
+        <v>0.322174084485759</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0695448334590717</v>
+        <v>0.3677661841262623</v>
       </c>
       <c r="L40" t="n">
-        <v>0.05577915748654781</v>
+        <v>0.07392358852428708</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0502590315229893</v>
+        <v>0.1038282718984926</v>
       </c>
       <c r="N40" t="n">
-        <v>0.2861981984880514</v>
+        <v>0.03876309620346974</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>0.01128595509506269</v>
       </c>
       <c r="P40" t="n">
-        <v>0.1225662563772204</v>
+        <v>-0.07605228988446538</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>-0.00695654144641214</v>
       </c>
       <c r="R40" t="n">
-        <v>0.129034607294414</v>
+        <v>-0.08355595442572564</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>0.02429786112228546</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>-0.01400175726812037</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>0.1050306831524458</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>0.1369321702572435</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>0.1428700884913554</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>-0.09492194757580957</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>0.00252562887880799</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.1833747577130861</v>
+        <v>-0.1941421652496542</v>
       </c>
       <c r="AA40" t="n">
-        <v>0</v>
+        <v>0.2367737485683162</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>0.1105695991406144</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.1396513779614375</v>
+        <v>-0.1208206555082694</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.115549190016021</v>
+        <v>0.07117142349968007</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.06959558209035376</v>
+        <v>0.0184276675284635</v>
       </c>
       <c r="AF40" t="n">
-        <v>0</v>
+        <v>0.000552198751032015</v>
       </c>
       <c r="AG40" t="n">
-        <v>0</v>
+        <v>0.1195730787065116</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.07709543910536629</v>
+        <v>-0.0315799364961623</v>
       </c>
       <c r="AI40" t="n">
-        <v>0</v>
+        <v>-0.220400043328023</v>
       </c>
       <c r="AJ40" t="n">
-        <v>0.07160715162260393</v>
+        <v>-0.1132277139030582</v>
       </c>
       <c r="AK40" t="n">
-        <v>0</v>
+        <v>-0.01568997394503895</v>
       </c>
       <c r="AL40" t="n">
-        <v>0.1694780958878447</v>
+        <v>-0.08223751587949664</v>
       </c>
       <c r="AM40" t="n">
-        <v>0.1034847665695637</v>
+        <v>0.01633408480902264</v>
       </c>
       <c r="AN40" t="n">
-        <v>0.09058257872395092</v>
+        <v>-0.163320626250132</v>
       </c>
       <c r="AO40" t="n">
-        <v>0</v>
+        <v>0.1157128764039843</v>
       </c>
       <c r="AP40" t="n">
-        <v>0.02558892853108049</v>
+        <v>-0.1558470362977137</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.1656650304752349</v>
+        <v>-0.08236736052007</v>
       </c>
       <c r="AR40" t="n">
-        <v>0.1331080878259792</v>
+        <v>-0.02213950550729808</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.06545102725215678</v>
+        <v>-0.1057491409495037</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.03377724718347111</v>
+        <v>0.03608916432808206</v>
       </c>
       <c r="AU40" t="n">
-        <v>0.1176652952513801</v>
+        <v>-0.04316637284401396</v>
       </c>
       <c r="AV40" t="n">
-        <v>0.07633127775579013</v>
+        <v>-0.04424099047338823</v>
       </c>
       <c r="AW40" t="n">
-        <v>0.1672748771678865</v>
+        <v>-0.01538716170321158</v>
       </c>
       <c r="AX40" t="n">
-        <v>0.01580618953061173</v>
+        <v>-0.02684276340950249</v>
       </c>
       <c r="AY40" t="n">
-        <v>0.08652385229934348</v>
+        <v>0.09788816999496623</v>
       </c>
       <c r="AZ40" t="n">
-        <v>0</v>
+        <v>-0.1744379949362636</v>
       </c>
       <c r="BA40" t="n">
-        <v>524.9247317495492</v>
+        <v>-0.09254384881668747</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>488.3177576770801</v>
       </c>
     </row>
     <row r="41">
@@ -6979,160 +7101,163 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>9.225995184294215</v>
+        <v>7975.512427772554</v>
       </c>
       <c r="C41" t="n">
-        <v>81.28071357351411</v>
+        <v>26.67645002924852</v>
       </c>
       <c r="D41" t="n">
-        <v>53.78076904831097</v>
+        <v>306.7181709910282</v>
       </c>
       <c r="E41" t="n">
-        <v>12.56266180731839</v>
+        <v>150.9790794610697</v>
       </c>
       <c r="F41" t="n">
-        <v>3.458324233677459</v>
+        <v>37.82016696879936</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9521647394943137</v>
+        <v>9.407216507336397</v>
       </c>
       <c r="H41" t="n">
-        <v>0.2230727524705975</v>
+        <v>4.491550734657617</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2.549790562558858</v>
       </c>
       <c r="J41" t="n">
-        <v>0.2426236059520337</v>
+        <v>1.19675237951841</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>0.7702090131649847</v>
       </c>
       <c r="L41" t="n">
-        <v>0.03762643359473041</v>
+        <v>0.4051438572689492</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>0.1505683136055409</v>
       </c>
       <c r="N41" t="n">
-        <v>0.1862746700782541</v>
+        <v>-0.01168068838156119</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>0.2548105094971068</v>
       </c>
       <c r="P41" t="n">
-        <v>0.08805994687382002</v>
+        <v>0.1361423558858831</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>-0.03515116895752285</v>
       </c>
       <c r="R41" t="n">
-        <v>0.01331072456139042</v>
+        <v>0.1599545150636923</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>0.008330000263278473</v>
       </c>
       <c r="T41" t="n">
-        <v>0.03142612823474607</v>
+        <v>0.07685719086487795</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>0.05563495795694803</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>-0.05654374917601376</v>
       </c>
       <c r="W41" t="n">
-        <v>0.0222810596113197</v>
+        <v>-0.02976312028481009</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>-0.05732551629952842</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>0.04861738943511015</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.1276953998359829</v>
+        <v>0.0951528125709018</v>
       </c>
       <c r="AA41" t="n">
-        <v>0</v>
+        <v>-0.0599284176109451</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.01838100703365025</v>
+        <v>0.1551141067529636</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.1249218912455604</v>
+        <v>-0.0512164721226972</v>
       </c>
       <c r="AD41" t="n">
-        <v>0</v>
+        <v>0.1083031762480669</v>
       </c>
       <c r="AE41" t="n">
-        <v>0</v>
+        <v>-0.01547588913662309</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.01244945890737854</v>
+        <v>0.1063156168497022</v>
       </c>
       <c r="AG41" t="n">
-        <v>0</v>
+        <v>-0.09823034858819907</v>
       </c>
       <c r="AH41" t="n">
-        <v>0</v>
+        <v>0.02949704262895803</v>
       </c>
       <c r="AI41" t="n">
-        <v>0</v>
+        <v>0.02791437210851135</v>
       </c>
       <c r="AJ41" t="n">
-        <v>0</v>
+        <v>0.008883528759704946</v>
       </c>
       <c r="AK41" t="n">
-        <v>0.08342311199742482</v>
+        <v>0.1302452678640139</v>
       </c>
       <c r="AL41" t="n">
-        <v>0</v>
+        <v>0.03153116558573434</v>
       </c>
       <c r="AM41" t="n">
-        <v>0</v>
+        <v>-0.02713362258921088</v>
       </c>
       <c r="AN41" t="n">
-        <v>0</v>
+        <v>0.1024129993424415</v>
       </c>
       <c r="AO41" t="n">
-        <v>0</v>
+        <v>0.1786498531569316</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.05553668124426003</v>
+        <v>-0.179740334916848</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0</v>
+        <v>0.06209039684719696</v>
       </c>
       <c r="AR41" t="n">
-        <v>0.03128825168149586</v>
+        <v>-0.1218057759754066</v>
       </c>
       <c r="AS41" t="n">
-        <v>0</v>
+        <v>0.04427740779080886</v>
       </c>
       <c r="AT41" t="n">
-        <v>0</v>
+        <v>0.0004536955249190104</v>
       </c>
       <c r="AU41" t="n">
-        <v>0.0469566580724959</v>
+        <v>0.02528990127353306</v>
       </c>
       <c r="AV41" t="n">
-        <v>0</v>
+        <v>0.06474107849837017</v>
       </c>
       <c r="AW41" t="n">
-        <v>0.1602745201373401</v>
+        <v>-0.06463554614186522</v>
       </c>
       <c r="AX41" t="n">
-        <v>0</v>
+        <v>0.06237955546551771</v>
       </c>
       <c r="AY41" t="n">
-        <v>0</v>
+        <v>-0.07200219199516188</v>
       </c>
       <c r="AZ41" t="n">
-        <v>0</v>
+        <v>-0.06491212285847774</v>
       </c>
       <c r="BA41" t="n">
-        <v>162.7662308881419</v>
+        <v>-0.06803323909499102</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>542.125119510362</v>
       </c>
     </row>
   </sheetData>

--- a/overS.xlsx
+++ b/overS.xlsx
@@ -1525,70 +1525,70 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>4057.120058951147</v>
+        <v>7755</v>
       </c>
       <c r="C7" t="n">
-        <v>18.43424038922233</v>
+        <v>107.674754109065</v>
       </c>
       <c r="D7" t="n">
-        <v>158.9811111111111</v>
+        <v>305.2675</v>
       </c>
       <c r="E7" t="n">
-        <v>233.2008544427047</v>
+        <v>88.10777777777778</v>
       </c>
       <c r="F7" t="n">
-        <v>114.4669231191059</v>
+        <v>33.41960277961131</v>
       </c>
       <c r="G7" t="n">
-        <v>41.7934011893542</v>
+        <v>11.31805555555556</v>
       </c>
       <c r="H7" t="n">
-        <v>20.71166666666667</v>
+        <v>2.578888888888889</v>
       </c>
       <c r="I7" t="n">
-        <v>5.911666666666667</v>
+        <v>0.5522222222222222</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7608333333333334</v>
+        <v>0.3742941294905291</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2225</v>
+        <v>0.02972222222222222</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1669444444444445</v>
+        <v>0.02023910889864252</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1603544943167405</v>
+        <v>0.05558416267997466</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1111923715760545</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="O7" t="n">
-        <v>0.07086030985930032</v>
+        <v>0.003055555555555556</v>
       </c>
       <c r="P7" t="n">
-        <v>0.03722222222222222</v>
+        <v>0.03695380548505041</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.03055555555555555</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.02893620355277217</v>
       </c>
       <c r="S7" t="n">
-        <v>0.09554865054567439</v>
+        <v>0.02558175185925932</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>8.51618779288258e-05</v>
+        <v>0.003055555555555556</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0009820410160617814</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>0.00471710851825514</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>2.125274940160522e-05</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>2.473312801948252e-05</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>0.0001702130261871461</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -1681,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="BB7" t="n">
-        <v>595.1736088362455</v>
+        <v>549.6225460247309</v>
       </c>
     </row>
     <row r="8">
@@ -1689,70 +1689,70 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>8160.674731828225</v>
+        <v>7946</v>
       </c>
       <c r="C8" t="n">
-        <v>89.74361111111111</v>
+        <v>30.01692689456314</v>
       </c>
       <c r="D8" t="n">
-        <v>367.6327827147649</v>
+        <v>372.8102777777778</v>
       </c>
       <c r="E8" t="n">
-        <v>88.10777777777778</v>
+        <v>198.6233978189385</v>
       </c>
       <c r="F8" t="n">
-        <v>57.70426639090303</v>
+        <v>42.22583333333333</v>
       </c>
       <c r="G8" t="n">
-        <v>11.31805555555556</v>
+        <v>9.17261494087991</v>
       </c>
       <c r="H8" t="n">
-        <v>2.578888888888889</v>
+        <v>4.264166666666667</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5522222222222222</v>
+        <v>2.881111111111111</v>
       </c>
       <c r="J8" t="n">
-        <v>0.155</v>
+        <v>1.486111111111111</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02972222222222222</v>
+        <v>0.7463888888888889</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01722222222222222</v>
+        <v>0.4761117010189394</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04416666666666667</v>
+        <v>0.2739147418766134</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1152783079392443</v>
+        <v>0.1993725730584248</v>
       </c>
       <c r="O8" t="n">
-        <v>0.003055555555555556</v>
+        <v>0.03888888888888889</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>0.1019444444444444</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.02636820066460263</v>
+        <v>0.07778712473375024</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01643572859051449</v>
+        <v>0.1504902935805593</v>
       </c>
       <c r="S8" t="n">
-        <v>0.04424513913581619</v>
+        <v>0.01876568092394418</v>
       </c>
       <c r="T8" t="n">
-        <v>0.009508252748648178</v>
+        <v>0.0004881763552083153</v>
       </c>
       <c r="U8" t="n">
-        <v>0.003055555555555556</v>
+        <v>5.673896951670406e-05</v>
       </c>
       <c r="V8" t="n">
-        <v>0.006666666666666667</v>
+        <v>0.0007135323096184312</v>
       </c>
       <c r="W8" t="n">
-        <v>0.004579557775082309</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>0.0003395773052273086</v>
       </c>
       <c r="AG8" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.0001164337328008397</v>
+        <v>0.00196271002900107</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="BB8" t="n">
-        <v>618.113025170699</v>
+        <v>663.5676647267646</v>
       </c>
     </row>
     <row r="9">
@@ -1859,16 +1859,16 @@
         <v>12.20916666666667</v>
       </c>
       <c r="D9" t="n">
-        <v>178.3218364092647</v>
+        <v>215.4951364411884</v>
       </c>
       <c r="E9" t="n">
-        <v>204.3469444444444</v>
+        <v>212.6666841459932</v>
       </c>
       <c r="F9" t="n">
         <v>108.0055555555556</v>
       </c>
       <c r="G9" t="n">
-        <v>40.13944444444444</v>
+        <v>41.82750542573814</v>
       </c>
       <c r="H9" t="n">
         <v>20.71166666666667</v>
@@ -1877,46 +1877,46 @@
         <v>5.911666666666667</v>
       </c>
       <c r="J9" t="n">
-        <v>1.131177181782229</v>
+        <v>0.8422003868951878</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3843580780272272</v>
+        <v>0.2832851407127505</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1790457436754449</v>
+        <v>0.1669444444444445</v>
       </c>
       <c r="M9" t="n">
         <v>0.14</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1075656663290579</v>
+        <v>0.09222222222222222</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1016867268084633</v>
+        <v>0.08293988151189546</v>
       </c>
       <c r="P9" t="n">
         <v>0.03722222222222222</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.04826611287362162</v>
+        <v>0.07652976816860729</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0423455529631842</v>
+        <v>0.03632936784648505</v>
       </c>
       <c r="S9" t="n">
-        <v>0.03774496895580765</v>
+        <v>0.02577373569969791</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>0.001029755683392263</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0006171834711801391</v>
+        <v>0.0002302321750288155</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>0.0001874562048582208</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>3.8023808518923e-06</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.837461456017741e-05</v>
+        <v>5.39553621250347e-06</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.0001105912931039339</v>
+        <v>0</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="BB9" t="n">
-        <v>571.8564592567254</v>
+        <v>618.6122853801792</v>
       </c>
     </row>
     <row r="10">
@@ -2020,7 +2020,7 @@
         <v>5718</v>
       </c>
       <c r="C10" t="n">
-        <v>6.766944444444444</v>
+        <v>15.0787305467652</v>
       </c>
       <c r="D10" t="n">
         <v>71.44555555555556</v>
@@ -2029,58 +2029,58 @@
         <v>46.52861111111111</v>
       </c>
       <c r="F10" t="n">
-        <v>11.57666210934487</v>
+        <v>10.82194444444444</v>
       </c>
       <c r="G10" t="n">
-        <v>12.08558968435593</v>
+        <v>2.475</v>
       </c>
       <c r="H10" t="n">
-        <v>3.198186051759139</v>
+        <v>0.778133752335861</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5319338008722077</v>
+        <v>0.02916666666666667</v>
       </c>
       <c r="J10" t="n">
-        <v>0.003888888888888889</v>
+        <v>0.1270691497090533</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01333333333333333</v>
+        <v>0.1431573279600844</v>
       </c>
       <c r="L10" t="n">
-        <v>0.07040035796940242</v>
+        <v>0.009722222222222222</v>
       </c>
       <c r="M10" t="n">
-        <v>0.005555555555555556</v>
+        <v>0.01460597043801256</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>0.01586421872668207</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01777586238030548</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>0.09799413938192962</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.06172721878822458</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>0.05761564115134309</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>0.06658504514693121</v>
       </c>
       <c r="T10" t="n">
-        <v>0.003557648727397296</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>0.000397293354976905</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>0.0004043636632034595</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>7.75872817899618e-06</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -2107,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.049323140701546e-05</v>
+        <v>2.402238066562751e-05</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>5.128971778734566e-05</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="BB10" t="n">
-        <v>152.3097398750459</v>
+        <v>147.6906327607317</v>
       </c>
     </row>
     <row r="11">
@@ -2181,70 +2181,70 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>7758.224664094816</v>
+        <v>8874.964120435945</v>
       </c>
       <c r="C11" t="n">
-        <v>89.74361111111111</v>
+        <v>31.20055555555556</v>
       </c>
       <c r="D11" t="n">
-        <v>340.9775440335167</v>
+        <v>164.4311111111111</v>
       </c>
       <c r="E11" t="n">
-        <v>88.10777777777778</v>
+        <v>114.0263888888889</v>
       </c>
       <c r="F11" t="n">
-        <v>31.95529888893829</v>
+        <v>41.60517964099357</v>
       </c>
       <c r="G11" t="n">
-        <v>11.31805555555556</v>
+        <v>9.945277777777777</v>
       </c>
       <c r="H11" t="n">
-        <v>4.112885499749903</v>
+        <v>5.926960960830739</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5522222222222222</v>
+        <v>1.820206394100862</v>
       </c>
       <c r="J11" t="n">
-        <v>0.155</v>
+        <v>1.193888888888889</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2176199329812271</v>
+        <v>0.8433630898139061</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0396020334837873</v>
+        <v>0.1680555555555556</v>
       </c>
       <c r="M11" t="n">
-        <v>0.06714254980808722</v>
+        <v>0.2083969917685922</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1133333333333333</v>
+        <v>0.1787205426183787</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1223570158381275</v>
+        <v>0.4605555555555556</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>0.4175</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.05688183530974435</v>
+        <v>0.2733333333333333</v>
       </c>
       <c r="R11" t="n">
-        <v>0.009786063333117415</v>
+        <v>0.2911111111111111</v>
       </c>
       <c r="S11" t="n">
-        <v>0.003888888888888889</v>
+        <v>0.2856593119407912</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>0.05425823135845796</v>
       </c>
       <c r="U11" t="n">
-        <v>0.00337776796261737</v>
+        <v>0.0005001089023735436</v>
       </c>
       <c r="V11" t="n">
-        <v>0.006666666666666667</v>
+        <v>0.0002182273251839239</v>
       </c>
       <c r="W11" t="n">
-        <v>0.005622523601622556</v>
+        <v>0.0006602605317255752</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>2.87392957835984e-06</v>
+        <v>0.0002777777777777778</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -2271,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.385187324676048e-05</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>5.209412932138039e-05</v>
+        <v>0.0001326861516099978</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -2337,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="BB11" t="n">
-        <v>567.5687525200109</v>
+        <v>373.3323120018918</v>
       </c>
     </row>
     <row r="12">
@@ -2345,67 +2345,67 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>8091.563022975255</v>
+        <v>8418.420937295234</v>
       </c>
       <c r="C12" t="n">
-        <v>40.04080593787602</v>
+        <v>33.81445569572154</v>
       </c>
       <c r="D12" t="n">
-        <v>164.4311111111111</v>
+        <v>404.8101981775751</v>
       </c>
       <c r="E12" t="n">
-        <v>131.7974348100711</v>
+        <v>168.2205555555556</v>
       </c>
       <c r="F12" t="n">
-        <v>45.54302025730259</v>
+        <v>42.22583333333333</v>
       </c>
       <c r="G12" t="n">
-        <v>9.945277777777777</v>
+        <v>18.24208868201709</v>
       </c>
       <c r="H12" t="n">
-        <v>4.870277777777778</v>
+        <v>7.048964423693088</v>
       </c>
       <c r="I12" t="n">
-        <v>1.721388888888889</v>
+        <v>3.344943468185557</v>
       </c>
       <c r="J12" t="n">
-        <v>1.433528370747239</v>
+        <v>1.486111111111111</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8513370459669325</v>
+        <v>0.8295679121996398</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1680555555555556</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1813243873081523</v>
+        <v>0.2792220402711277</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1741666666666667</v>
+        <v>0.1527777777777778</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4605555555555556</v>
+        <v>0.03888888888888889</v>
       </c>
       <c r="P12" t="n">
-        <v>0.4186454279587417</v>
+        <v>0.1019444444444444</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.2733333333333333</v>
+        <v>0.06111111111111111</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2911111111111111</v>
+        <v>0.1163888888888889</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.01555696566623174</v>
       </c>
       <c r="T12" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.003650273473377655</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>2.082861499537819e-05</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.000291439921969238</v>
+        <v>1.73485178596109e-05</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -2435,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.689018999518302e-05</v>
+        <v>0.0002777777777777778</v>
       </c>
       <c r="AG12" t="n">
         <v>0</v>
@@ -2468,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.000151593087759722</v>
+        <v>0.001788877808180152</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="BB12" t="n">
-        <v>402.9213292112678</v>
+        <v>681.2665649762399</v>
       </c>
     </row>
     <row r="13">
@@ -2509,70 +2509,70 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>8136.704505646513</v>
+        <v>8443.838331223458</v>
       </c>
       <c r="C13" t="n">
-        <v>26.31636940282122</v>
+        <v>31.20055555555556</v>
       </c>
       <c r="D13" t="n">
-        <v>422.9396090150055</v>
+        <v>173.5278797567423</v>
       </c>
       <c r="E13" t="n">
-        <v>168.2205555555556</v>
+        <v>153.5238315313497</v>
       </c>
       <c r="F13" t="n">
-        <v>42.22583333333333</v>
+        <v>33.50448031643855</v>
       </c>
       <c r="G13" t="n">
-        <v>9.064166666666667</v>
+        <v>9.945277777777777</v>
       </c>
       <c r="H13" t="n">
-        <v>5.947987890865225</v>
+        <v>7.352762500387359</v>
       </c>
       <c r="I13" t="n">
-        <v>3.030000820771528</v>
+        <v>2.295003908269255</v>
       </c>
       <c r="J13" t="n">
-        <v>1.486111111111111</v>
+        <v>1.193888888888889</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7463888888888889</v>
+        <v>1.031292434805341</v>
       </c>
       <c r="L13" t="n">
-        <v>0.4722222222222222</v>
+        <v>0.1680555555555556</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2832357912902506</v>
+        <v>0.1736111111111111</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1813233333360114</v>
+        <v>0.1741666666666667</v>
       </c>
       <c r="O13" t="n">
-        <v>0.03888888888888889</v>
+        <v>0.4999734507058746</v>
       </c>
       <c r="P13" t="n">
-        <v>0.1019444444444444</v>
+        <v>0.469799793851744</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.06111111111111111</v>
+        <v>0.2733333333333333</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1163888888888889</v>
+        <v>0.2911111111111111</v>
       </c>
       <c r="S13" t="n">
-        <v>0.02976814642317462</v>
+        <v>0.3459919677319033</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0002859594417666212</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0008211386476364713</v>
+        <v>0.0004863129217870689</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>0.0007541436939049376</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.804391223840796e-05</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>0.0002777777777777778</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.0002777777777777778</v>
+        <v>2.075359289000561e-05</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
@@ -2632,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.001666666666666667</v>
+        <v>0.0001423423682302818</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -2665,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="BB13" t="n">
-        <v>681.2649570541578</v>
+        <v>416.0143817012155</v>
       </c>
     </row>
     <row r="14">
@@ -2673,70 +2673,70 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>8240.95793457242</v>
+        <v>5965.858621975851</v>
       </c>
       <c r="C14" t="n">
-        <v>92.80679304070092</v>
+        <v>6.766944444444444</v>
       </c>
       <c r="D14" t="n">
-        <v>305.2675</v>
+        <v>87.19177412159846</v>
       </c>
       <c r="E14" t="n">
-        <v>88.10777777777778</v>
+        <v>72.16121753001897</v>
       </c>
       <c r="F14" t="n">
-        <v>39.23177924095459</v>
+        <v>17.34752101628766</v>
       </c>
       <c r="G14" t="n">
-        <v>11.92149784201298</v>
+        <v>2.475</v>
       </c>
       <c r="H14" t="n">
-        <v>2.578888888888889</v>
+        <v>3.517295067595359</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5522222222222222</v>
+        <v>0.02916666666666667</v>
       </c>
       <c r="J14" t="n">
-        <v>0.264199716968449</v>
+        <v>0.1449268202924229</v>
       </c>
       <c r="K14" t="n">
-        <v>0.02972222222222222</v>
+        <v>0.1371982500575924</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03958039751997393</v>
+        <v>0.1299427375690521</v>
       </c>
       <c r="M14" t="n">
-        <v>0.04416666666666667</v>
+        <v>0.03097056227173111</v>
       </c>
       <c r="N14" t="n">
-        <v>0.1199326679313721</v>
+        <v>0.0004378016916881583</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0142004227362873</v>
+        <v>0.1654639323975734</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>0.04945446571756225</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.009351974752504093</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0.04630306107424664</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0.06634066040597598</v>
+        <v>0.002076213855679715</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0.003497791955437507</v>
+        <v>0.0004180329165112632</v>
       </c>
       <c r="V14" t="n">
-        <v>0.006666666666666667</v>
+        <v>0.001084168063344547</v>
       </c>
       <c r="W14" t="n">
-        <v>0.004652172485908272</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>2.456838045004253e-05</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.593678061215323e-05</v>
+        <v>2.516006969751986e-05</v>
       </c>
       <c r="AG14" t="n">
         <v>0</v>
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="BB14" t="n">
-        <v>541.1150993707236</v>
+        <v>190.1509415598949</v>
       </c>
     </row>
     <row r="15">
@@ -2837,70 +2837,70 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>3844</v>
+        <v>5718</v>
       </c>
       <c r="C15" t="n">
-        <v>14.46976331763288</v>
+        <v>6.766944444444444</v>
       </c>
       <c r="D15" t="n">
-        <v>176.4841736334993</v>
+        <v>120.0112324439881</v>
       </c>
       <c r="E15" t="n">
-        <v>225.2795036156759</v>
+        <v>53.09021292301968</v>
       </c>
       <c r="F15" t="n">
-        <v>111.6172345294382</v>
+        <v>18.5001591671941</v>
       </c>
       <c r="G15" t="n">
-        <v>44.38383181516384</v>
+        <v>2.671281840537303</v>
       </c>
       <c r="H15" t="n">
-        <v>20.71166666666667</v>
+        <v>0.4530555555555555</v>
       </c>
       <c r="I15" t="n">
-        <v>6.133304844433351</v>
+        <v>0.4745526970506689</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7608333333333334</v>
+        <v>0.003888888888888889</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3622457970477464</v>
+        <v>0.1098546911799708</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1669444444444445</v>
+        <v>0.009722222222222222</v>
       </c>
       <c r="M15" t="n">
-        <v>0.14</v>
+        <v>0.006164444527859825</v>
       </c>
       <c r="N15" t="n">
-        <v>0.09222222222222222</v>
+        <v>0.001981108739537774</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1253627827736905</v>
+        <v>0.03767009838426593</v>
       </c>
       <c r="P15" t="n">
-        <v>0.03722222222222222</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.03055555555555555</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.01666666666666667</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0.002777777777777778</v>
+        <v>0.01304660512143367</v>
       </c>
       <c r="T15" t="n">
-        <v>0.002046842742998308</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0002487608812526186</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>2.357051590538683e-05</v>
       </c>
       <c r="W15" t="n">
-        <v>0.0001378438691196136</v>
+        <v>2.104003463662817e-05</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>5.204088143032946e-05</v>
+        <v>6.909155913942154e-06</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>1.206019303098924e-05</v>
       </c>
       <c r="AG15" t="n">
         <v>0</v>
@@ -2960,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0</v>
+        <v>0.0001416137939248509</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -2993,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="BB15" t="n">
-        <v>600.8167947129285</v>
+        <v>202.1499723245474</v>
       </c>
     </row>
     <row r="16">
@@ -3001,67 +3001,67 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>6693.353285645837</v>
+        <v>3845.317594236154</v>
       </c>
       <c r="C16" t="n">
-        <v>6.766944444444444</v>
+        <v>27.26288180839182</v>
       </c>
       <c r="D16" t="n">
-        <v>71.44555555555556</v>
+        <v>175.0891324060203</v>
       </c>
       <c r="E16" t="n">
-        <v>67.02173148915341</v>
+        <v>204.3469444444444</v>
       </c>
       <c r="F16" t="n">
-        <v>10.82194444444444</v>
+        <v>111.675614345874</v>
       </c>
       <c r="G16" t="n">
-        <v>5.062334527648321</v>
+        <v>40.41203273309022</v>
       </c>
       <c r="H16" t="n">
-        <v>5.78496647381942</v>
+        <v>23.6013514388005</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9106481983640257</v>
+        <v>5.911666666666667</v>
       </c>
       <c r="J16" t="n">
-        <v>0.03782531579268289</v>
+        <v>0.933791372415663</v>
       </c>
       <c r="K16" t="n">
-        <v>0.07505044419549925</v>
+        <v>0.3289043479165151</v>
       </c>
       <c r="L16" t="n">
-        <v>0.009722222222222222</v>
+        <v>0.1669444444444445</v>
       </c>
       <c r="M16" t="n">
-        <v>0.005555555555555556</v>
+        <v>0.14</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>0.09222222222222222</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>0.03722222222222222</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>0.06201806085862627</v>
       </c>
       <c r="R16" t="n">
-        <v>0.00838465113864552</v>
+        <v>0.1293754226686745</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>0.1404838488183657</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>0.0002442225168449627</v>
       </c>
       <c r="V16" t="n">
-        <v>0.001052943178928444</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>4.796567470953696e-05</v>
       </c>
       <c r="AG16" t="n">
         <v>0</v>
@@ -3124,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0</v>
+        <v>0.0001048879317259563</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -3157,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="BB16" t="n">
-        <v>167.9517162655132</v>
+        <v>590.3726495276443</v>
       </c>
     </row>
     <row r="17">
@@ -3165,70 +3165,70 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>7946</v>
+        <v>8648.713991777613</v>
       </c>
       <c r="C17" t="n">
-        <v>30.44348558680606</v>
+        <v>89.74361111111111</v>
       </c>
       <c r="D17" t="n">
-        <v>372.8102777777778</v>
+        <v>329.4642503174553</v>
       </c>
       <c r="E17" t="n">
-        <v>168.2205555555556</v>
+        <v>109.0415602568841</v>
       </c>
       <c r="F17" t="n">
-        <v>42.22583333333333</v>
+        <v>27.59916666666667</v>
       </c>
       <c r="G17" t="n">
-        <v>9.064166666666667</v>
+        <v>14.24008895376774</v>
       </c>
       <c r="H17" t="n">
-        <v>4.264166666666667</v>
+        <v>2.578888888888889</v>
       </c>
       <c r="I17" t="n">
-        <v>2.881111111111111</v>
+        <v>0.5522222222222222</v>
       </c>
       <c r="J17" t="n">
-        <v>1.662685140855407</v>
+        <v>0.155</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7463888888888889</v>
+        <v>0.1231042104339294</v>
       </c>
       <c r="L17" t="n">
-        <v>0.4722222222222222</v>
+        <v>0.01893541943913949</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2597222222222222</v>
+        <v>0.06406628937998847</v>
       </c>
       <c r="N17" t="n">
-        <v>0.1527777777777778</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="O17" t="n">
-        <v>0.03888888888888889</v>
+        <v>0.01497243657583238</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1164181915479417</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.07495361001869134</v>
+        <v>0.04020206426433949</v>
       </c>
       <c r="R17" t="n">
-        <v>0.1163888888888889</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0.01111111111111111</v>
+        <v>0.01509979270090511</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>0.0003675656889617487</v>
       </c>
       <c r="U17" t="n">
-        <v>0.000388321559961081</v>
+        <v>0.003055555555555556</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>0.007312289114309938</v>
       </c>
       <c r="W17" t="n">
-        <v>0.0009705851374472018</v>
+        <v>0.005133478113617564</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>2.435638136319721e-05</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.0002835390933641404</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>0</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.001666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -3321,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="BB17" t="n">
-        <v>633.564487109178</v>
+        <v>573.7803708515959</v>
       </c>
     </row>
     <row r="18">
@@ -3329,70 +3329,70 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>4134.267101422251</v>
+        <v>8089.917533681774</v>
       </c>
       <c r="C18" t="n">
-        <v>12.20916666666667</v>
+        <v>89.74361111111111</v>
       </c>
       <c r="D18" t="n">
-        <v>166.0350643198971</v>
+        <v>305.2675</v>
       </c>
       <c r="E18" t="n">
-        <v>226.2794800310352</v>
+        <v>88.10777777777778</v>
       </c>
       <c r="F18" t="n">
-        <v>116.226593162543</v>
+        <v>27.99503207918605</v>
       </c>
       <c r="G18" t="n">
-        <v>41.93806582025528</v>
+        <v>11.65219775477278</v>
       </c>
       <c r="H18" t="n">
-        <v>23.32262819160247</v>
+        <v>2.578888888888889</v>
       </c>
       <c r="I18" t="n">
-        <v>6.195166860976487</v>
+        <v>0.5522222222222222</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9949037854599124</v>
+        <v>0.4359385847267663</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2937403373769018</v>
+        <v>0.2373564655264587</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1733137308855463</v>
+        <v>0.01722222222222222</v>
       </c>
       <c r="M18" t="n">
-        <v>0.14</v>
+        <v>0.04416666666666667</v>
       </c>
       <c r="N18" t="n">
-        <v>0.09222222222222222</v>
+        <v>0.126050969328564</v>
       </c>
       <c r="O18" t="n">
-        <v>0.1361414337805257</v>
+        <v>0.01905120563876152</v>
       </c>
       <c r="P18" t="n">
-        <v>0.04854937911776473</v>
+        <v>0.02776648899339465</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.03055555555555555</v>
+        <v>0.0259452561638831</v>
       </c>
       <c r="R18" t="n">
-        <v>0.03752575663124885</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0.002777777777777778</v>
+        <v>0.06275157470683428</v>
       </c>
       <c r="T18" t="n">
-        <v>0.01070875786777666</v>
+        <v>0.0007582396302596586</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>0.003055555555555556</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -3419,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.851100490699576e-05</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
         <v>0</v>
@@ -3452,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0</v>
+        <v>7.524902880429736e-05</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="BB18" t="n">
-        <v>594.166632300656</v>
+        <v>526.908479423258</v>
       </c>
     </row>
     <row r="19">
@@ -3493,70 +3493,70 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>4280.355238939338</v>
+        <v>7946</v>
       </c>
       <c r="C19" t="n">
-        <v>24.13866389558699</v>
+        <v>24.63916666666667</v>
       </c>
       <c r="D19" t="n">
-        <v>185.8332659601909</v>
+        <v>372.8102777777778</v>
       </c>
       <c r="E19" t="n">
-        <v>217.5319766434943</v>
+        <v>168.2205555555556</v>
       </c>
       <c r="F19" t="n">
-        <v>108.0055555555556</v>
+        <v>60.47119588975977</v>
       </c>
       <c r="G19" t="n">
-        <v>40.3984146882673</v>
+        <v>9.064166666666667</v>
       </c>
       <c r="H19" t="n">
-        <v>22.39802949191186</v>
+        <v>6.996271207485863</v>
       </c>
       <c r="I19" t="n">
-        <v>6.250424387042504</v>
+        <v>4.117253770863599</v>
       </c>
       <c r="J19" t="n">
-        <v>1.041995974820367</v>
+        <v>1.486111111111111</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2491176018512809</v>
+        <v>0.7463888888888889</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2267690079835417</v>
+        <v>0.4854555738966708</v>
       </c>
       <c r="M19" t="n">
-        <v>0.14</v>
+        <v>0.2597222222222222</v>
       </c>
       <c r="N19" t="n">
-        <v>0.1154291077464189</v>
+        <v>0.1897632346148942</v>
       </c>
       <c r="O19" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.03888888888888889</v>
       </c>
       <c r="P19" t="n">
-        <v>0.03722222222222222</v>
+        <v>0.1019444444444444</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.03703953263254749</v>
+        <v>0.06111111111111111</v>
       </c>
       <c r="R19" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.1163888888888889</v>
       </c>
       <c r="S19" t="n">
-        <v>0.08326544147127425</v>
+        <v>0.02660666313997967</v>
       </c>
       <c r="T19" t="n">
-        <v>0.002459162949095843</v>
+        <v>0.009480365178345615</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0006800723829548265</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>7.606267996089742e-05</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0.0004489882460697958</v>
+        <v>6.176874322483355e-05</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.630087488501776e-05</v>
+        <v>0</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -3583,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.000103630075315745</v>
+        <v>0.0002777777777777778</v>
       </c>
       <c r="AG19" t="n">
         <v>0</v>
@@ -3616,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0</v>
+        <v>0.00175818478321661</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -3649,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="BB19" t="n">
-        <v>606.5492870613185</v>
+        <v>649.8428466584655</v>
       </c>
     </row>
     <row r="20">
@@ -3657,70 +3657,70 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>8039</v>
+        <v>7946</v>
       </c>
       <c r="C20" t="n">
-        <v>36.21231251747894</v>
+        <v>40.20111830445082</v>
       </c>
       <c r="D20" t="n">
-        <v>165.2818290421189</v>
+        <v>372.8102777777778</v>
       </c>
       <c r="E20" t="n">
-        <v>130.9994374769608</v>
+        <v>168.2205555555556</v>
       </c>
       <c r="F20" t="n">
-        <v>28.51888888888889</v>
+        <v>46.90035137228212</v>
       </c>
       <c r="G20" t="n">
-        <v>15.81238408769727</v>
+        <v>9.064166666666667</v>
       </c>
       <c r="H20" t="n">
-        <v>10.90093244309394</v>
+        <v>4.264166666666667</v>
       </c>
       <c r="I20" t="n">
-        <v>1.829610908054167</v>
+        <v>2.881111111111111</v>
       </c>
       <c r="J20" t="n">
-        <v>1.193888888888889</v>
+        <v>1.627746587163504</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7873707868211854</v>
+        <v>0.8711723796936813</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1680555555555556</v>
+        <v>0.4866030929175944</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2000488141309974</v>
+        <v>0.2787283991766613</v>
       </c>
       <c r="N20" t="n">
-        <v>0.1741666666666667</v>
+        <v>0.1642485334279248</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5355176815034156</v>
+        <v>0.03888888888888889</v>
       </c>
       <c r="P20" t="n">
-        <v>0.488191688342322</v>
+        <v>0.1019444444444444</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.2733333333333333</v>
+        <v>0.06111111111111111</v>
       </c>
       <c r="R20" t="n">
-        <v>0.2911111111111111</v>
+        <v>0.1163888888888889</v>
       </c>
       <c r="S20" t="n">
-        <v>0.2921494413544369</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="T20" t="n">
-        <v>0.04166666666666666</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>0.000338333176143487</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0.0004522662493192119</v>
+        <v>8.88387153581485e-06</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.000307861164961359</v>
+        <v>3.580636992659303e-05</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
@@ -3747,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>0.0002777777777777778</v>
       </c>
       <c r="AG20" t="n">
         <v>0</v>
@@ -3780,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -3813,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="BB20" t="n">
-        <v>394.0016561260819</v>
+        <v>648.1020183591966</v>
       </c>
     </row>
     <row r="21">
@@ -3821,55 +3821,55 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>8405.177332626969</v>
+        <v>7946</v>
       </c>
       <c r="C21" t="n">
-        <v>31.2670312506717</v>
+        <v>25.69548534936261</v>
       </c>
       <c r="D21" t="n">
-        <v>400.9485968315641</v>
+        <v>372.8102777777778</v>
       </c>
       <c r="E21" t="n">
-        <v>185.1103072580512</v>
+        <v>168.4916864714165</v>
       </c>
       <c r="F21" t="n">
-        <v>44.74629191079223</v>
+        <v>42.22583333333333</v>
       </c>
       <c r="G21" t="n">
-        <v>10.78435504656357</v>
+        <v>9.064166666666667</v>
       </c>
       <c r="H21" t="n">
-        <v>4.264166666666667</v>
+        <v>6.183717734055859</v>
       </c>
       <c r="I21" t="n">
-        <v>3.137548366842546</v>
+        <v>3.057327771219564</v>
       </c>
       <c r="J21" t="n">
-        <v>1.486111111111111</v>
+        <v>1.549266138806037</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8317614297225925</v>
+        <v>0.7463888888888889</v>
       </c>
       <c r="L21" t="n">
         <v>0.4722222222222222</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2662769463895573</v>
+        <v>0.3207482125120595</v>
       </c>
       <c r="N21" t="n">
-        <v>0.1735033276828101</v>
+        <v>0.1527777777777778</v>
       </c>
       <c r="O21" t="n">
         <v>0.03888888888888889</v>
       </c>
       <c r="P21" t="n">
-        <v>0.1019444444444444</v>
+        <v>0.1471348861738919</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.1054406058876317</v>
+        <v>0.06111111111111111</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1359207330614424</v>
+        <v>0.1163888888888889</v>
       </c>
       <c r="S21" t="n">
         <v>0.01111111111111111</v>
@@ -3878,13 +3878,13 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>0.0002530369369111408</v>
       </c>
       <c r="V21" t="n">
-        <v>0.0006913056850649909</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>0.001172322031045285</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>2.375805774673579e-05</v>
+        <v>0</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
@@ -3911,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.0003114405709985459</v>
+        <v>0.0002897381182930182</v>
       </c>
       <c r="AG21" t="n">
         <v>0</v>
@@ -3944,7 +3944,7 @@
         <v>0</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.001761387389042619</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="BB21" t="n">
-        <v>683.8842660433768</v>
+        <v>631.1479149939661</v>
       </c>
     </row>
     <row r="22">
@@ -3985,70 +3985,70 @@
         <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>8109.32644515384</v>
+        <v>8201.436084358775</v>
       </c>
       <c r="C22" t="n">
-        <v>41.61426591437262</v>
+        <v>31.20055555555556</v>
       </c>
       <c r="D22" t="n">
-        <v>164.4311111111111</v>
+        <v>215.7655342501879</v>
       </c>
       <c r="E22" t="n">
-        <v>129.4272822877887</v>
+        <v>114.0263888888889</v>
       </c>
       <c r="F22" t="n">
-        <v>28.51888888888889</v>
+        <v>30.6247857666165</v>
       </c>
       <c r="G22" t="n">
-        <v>15.77237639143262</v>
+        <v>9.945277777777777</v>
       </c>
       <c r="H22" t="n">
-        <v>5.085794498402008</v>
+        <v>4.870277777777778</v>
       </c>
       <c r="I22" t="n">
         <v>1.721388888888889</v>
       </c>
       <c r="J22" t="n">
-        <v>1.193888888888889</v>
+        <v>1.636614465734982</v>
       </c>
       <c r="K22" t="n">
         <v>0.7391666666666666</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1764372140510144</v>
+        <v>0.1982798057680238</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2205695849518576</v>
+        <v>0.1736111111111111</v>
       </c>
       <c r="N22" t="n">
-        <v>0.1854243022299215</v>
+        <v>0.1741666666666667</v>
       </c>
       <c r="O22" t="n">
         <v>0.4605555555555556</v>
       </c>
       <c r="P22" t="n">
-        <v>0.4225285842303027</v>
+        <v>0.4226915509193007</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.2916293436127541</v>
+        <v>0.2733333333333333</v>
       </c>
       <c r="R22" t="n">
         <v>0.2911111111111111</v>
       </c>
       <c r="S22" t="n">
-        <v>0.301578613148629</v>
+        <v>0.3018062012510477</v>
       </c>
       <c r="T22" t="n">
-        <v>0.04388699393257536</v>
+        <v>0.04213331588204042</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0002362223432921963</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0.0001050484718549354</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="BB22" t="n">
-        <v>390.8985038878571</v>
+        <v>412.8679564674709</v>
       </c>
     </row>
     <row r="23">
@@ -4149,67 +4149,67 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>4471.867661588088</v>
+        <v>8327.443186022409</v>
       </c>
       <c r="C23" t="n">
-        <v>12.20916666666667</v>
+        <v>24.63916666666667</v>
       </c>
       <c r="D23" t="n">
-        <v>167.9701153417483</v>
+        <v>372.8102777777778</v>
       </c>
       <c r="E23" t="n">
-        <v>204.3469444444444</v>
+        <v>176.2916040878898</v>
       </c>
       <c r="F23" t="n">
-        <v>109.7821640260984</v>
+        <v>42.22583333333333</v>
       </c>
       <c r="G23" t="n">
-        <v>41.41036920697027</v>
+        <v>9.064166666666667</v>
       </c>
       <c r="H23" t="n">
-        <v>21.07010308771675</v>
+        <v>7.106923250317084</v>
       </c>
       <c r="I23" t="n">
-        <v>6.668299403580894</v>
+        <v>2.881111111111111</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8495606813889418</v>
+        <v>1.486111111111111</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2225</v>
+        <v>0.7463888888888889</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1715580487450414</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="M23" t="n">
-        <v>0.14</v>
+        <v>0.2597222222222222</v>
       </c>
       <c r="N23" t="n">
-        <v>0.1103022179661489</v>
+        <v>0.1668076924504267</v>
       </c>
       <c r="O23" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.03888888888888889</v>
       </c>
       <c r="P23" t="n">
-        <v>0.03722222222222222</v>
+        <v>0.1019444444444444</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.03055555555555555</v>
+        <v>0.06111111111111111</v>
       </c>
       <c r="R23" t="n">
-        <v>0.03547459454085707</v>
+        <v>0.1163888888888889</v>
       </c>
       <c r="S23" t="n">
-        <v>0.002777777777777778</v>
+        <v>0.04050529033978304</v>
       </c>
       <c r="T23" t="n">
-        <v>0.007454465705301129</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0003279637880388534</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>0.0001505783687436231</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -4227,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>3.238694702482588e-06</v>
+        <v>0</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -4239,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.571228079467353e-06</v>
+        <v>0.0002777777777777778</v>
       </c>
       <c r="AG23" t="n">
         <v>0</v>
@@ -4272,7 +4272,7 @@
         <v>0</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.0002107692536306239</v>
+        <v>0.002072380414677739</v>
       </c>
       <c r="AR23" t="n">
         <v>0</v>
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="BB23" t="n">
-        <v>565.1067779507586</v>
+        <v>638.5116743908915</v>
       </c>
     </row>
     <row r="24">
@@ -4313,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>8092.273681222739</v>
+        <v>8039</v>
       </c>
       <c r="C24" t="n">
         <v>31.20055555555556</v>
@@ -4322,19 +4322,19 @@
         <v>164.4311111111111</v>
       </c>
       <c r="E24" t="n">
-        <v>156.2052960907274</v>
+        <v>114.0263888888889</v>
       </c>
       <c r="F24" t="n">
         <v>28.51888888888889</v>
       </c>
       <c r="G24" t="n">
-        <v>9.945277777777777</v>
+        <v>10.50738173070778</v>
       </c>
       <c r="H24" t="n">
-        <v>6.701272699640892</v>
+        <v>7.563409026835602</v>
       </c>
       <c r="I24" t="n">
-        <v>1.721388888888889</v>
+        <v>2.135455128583286</v>
       </c>
       <c r="J24" t="n">
         <v>1.193888888888889</v>
@@ -4343,19 +4343,19 @@
         <v>0.7391666666666666</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1680555555555556</v>
+        <v>0.2457065506671552</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1736111111111111</v>
+        <v>0.1832563228694099</v>
       </c>
       <c r="N24" t="n">
-        <v>0.1834445404708663</v>
+        <v>0.1836703221684381</v>
       </c>
       <c r="O24" t="n">
         <v>0.4605555555555556</v>
       </c>
       <c r="P24" t="n">
-        <v>0.4818929993831572</v>
+        <v>0.4949501414964667</v>
       </c>
       <c r="Q24" t="n">
         <v>0.2733333333333333</v>
@@ -4364,19 +4364,19 @@
         <v>0.2911111111111111</v>
       </c>
       <c r="S24" t="n">
-        <v>0.2786860780651387</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="T24" t="n">
-        <v>0.04738050798464678</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0.0007801054737743867</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0.001221222728805855</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.0002777777777777778</v>
+        <v>0.0002908309655299782</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -4403,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="AF24" t="n">
-        <v>6.747432295951633e-05</v>
+        <v>0</v>
       </c>
       <c r="AG24" t="n">
         <v>0</v>
@@ -4436,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0</v>
+        <v>0.0001433251665696473</v>
       </c>
       <c r="AR24" t="n">
         <v>0</v>
@@ -4469,7 +4469,7 @@
         <v>0</v>
       </c>
       <c r="BB24" t="n">
-        <v>403.0172639410199</v>
+        <v>362.7687078239046</v>
       </c>
     </row>
     <row r="25">
@@ -4480,49 +4480,49 @@
         <v>7946</v>
       </c>
       <c r="C25" t="n">
-        <v>36.93886605540518</v>
+        <v>24.63916666666667</v>
       </c>
       <c r="D25" t="n">
         <v>372.8102777777778</v>
       </c>
       <c r="E25" t="n">
-        <v>169.8933337793149</v>
+        <v>168.2845447237574</v>
       </c>
       <c r="F25" t="n">
         <v>42.22583333333333</v>
       </c>
       <c r="G25" t="n">
-        <v>9.064166666666667</v>
+        <v>12.19935892796863</v>
       </c>
       <c r="H25" t="n">
-        <v>6.084641163941909</v>
+        <v>4.264166666666667</v>
       </c>
       <c r="I25" t="n">
-        <v>2.881111111111111</v>
+        <v>3.707754747984345</v>
       </c>
       <c r="J25" t="n">
         <v>1.486111111111111</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7463888888888889</v>
+        <v>0.8436313541194306</v>
       </c>
       <c r="L25" t="n">
         <v>0.4722222222222222</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2967912739731775</v>
+        <v>0.2597222222222222</v>
       </c>
       <c r="N25" t="n">
-        <v>0.1734712586961188</v>
+        <v>0.1690424484967658</v>
       </c>
       <c r="O25" t="n">
-        <v>0.07767699315570331</v>
+        <v>0.1097222815224643</v>
       </c>
       <c r="P25" t="n">
-        <v>0.1257073022343271</v>
+        <v>0.1019444444444444</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.06111111111111111</v>
+        <v>0.08002970608869109</v>
       </c>
       <c r="R25" t="n">
         <v>0.1163888888888889</v>
@@ -4531,16 +4531,16 @@
         <v>0.01111111111111111</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>0.00246600828103075</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0001505340141800195</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>0.0009022372916750337</v>
       </c>
       <c r="W25" t="n">
-        <v>2.746457130106021e-05</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -4555,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>2.3869438214536e-05</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -4600,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.001666666666666667</v>
+        <v>0.00183922614754082</v>
       </c>
       <c r="AR25" t="n">
         <v>0</v>
@@ -4633,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="BB25" t="n">
-        <v>643.4673324919734</v>
+        <v>631.7865377533184</v>
       </c>
     </row>
     <row r="26">
@@ -4641,70 +4641,70 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>8039</v>
+        <v>8762.229754493208</v>
       </c>
       <c r="C26" t="n">
         <v>31.20055555555556</v>
       </c>
       <c r="D26" t="n">
-        <v>179.9995275039115</v>
+        <v>165.5924999155805</v>
       </c>
       <c r="E26" t="n">
-        <v>114.0263888888889</v>
+        <v>118.0289798745418</v>
       </c>
       <c r="F26" t="n">
-        <v>28.51888888888889</v>
+        <v>49.04706362314362</v>
       </c>
       <c r="G26" t="n">
-        <v>14.81736120669964</v>
+        <v>13.06570480762678</v>
       </c>
       <c r="H26" t="n">
-        <v>5.42829139610539</v>
+        <v>4.870277777777778</v>
       </c>
       <c r="I26" t="n">
-        <v>1.79456819392287</v>
+        <v>1.721388888888889</v>
       </c>
       <c r="J26" t="n">
         <v>1.193888888888889</v>
       </c>
       <c r="K26" t="n">
-        <v>0.9178259631967264</v>
+        <v>0.7542892776734104</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2744411804958585</v>
+        <v>0.2001966722772193</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1774961246204677</v>
+        <v>0.1736111111111111</v>
       </c>
       <c r="N26" t="n">
-        <v>0.1741666666666667</v>
+        <v>0.1960397444456747</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5717628155566561</v>
+        <v>0.4605555555555556</v>
       </c>
       <c r="P26" t="n">
-        <v>0.4783303228839277</v>
+        <v>0.4175</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.3269689649692363</v>
+        <v>0.304307085148311</v>
       </c>
       <c r="R26" t="n">
-        <v>0.2958684432526358</v>
+        <v>0.2911111111111111</v>
       </c>
       <c r="S26" t="n">
-        <v>0.3319248753330469</v>
+        <v>0.328617825937448</v>
       </c>
       <c r="T26" t="n">
-        <v>0.0425927996201821</v>
+        <v>0.048043890261181</v>
       </c>
       <c r="U26" t="n">
-        <v>0.001129205281934543</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0.0009757359238080399</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>4.47824001857918e-05</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -4719,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.0003079950804075165</v>
+        <v>0.0002777777777777778</v>
       </c>
       <c r="AC26" t="n">
         <v>0</v>
@@ -4764,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="AQ26" t="n">
-        <v>7.699413828308491e-05</v>
+        <v>0</v>
       </c>
       <c r="AR26" t="n">
         <v>0</v>
@@ -4797,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="BB26" t="n">
-        <v>380.5733386098815</v>
+        <v>387.8949541657028</v>
       </c>
     </row>
   </sheetData>

--- a/overS.xlsx
+++ b/overS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB26"/>
+  <dimension ref="A1:BC41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,265 +436,270 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>classe</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>deltaDateHour</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>[0.0-0.5)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>[0.5-1.5)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>[1.5-2.5)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>[2.5-3.5)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>[3.5-4.5)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>[4.5-5.5)</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>[5.5-6.5)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>[6.5-7.5)</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>[7.5-8.5)</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>[8.5-9.5)</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>[9.5-10.5)</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>[10.5-11.5)</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>[11.5-12.5)</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>[12.5-13.5)</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>[13.5-14.5)</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>[14.5-15.5)</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>[15.5-16.5)</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>[16.5-17.5)</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>[17.5-18.5)</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>[18.5-19.5)</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>[19.5-20.5)</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>[20.5-21.5)</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>[21.5-22.5)</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>[22.5-23.5)</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>[23.5-24.5)</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>[24.5-25.5)</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>[25.5-26.5)</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>[26.5-27.5)</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>[27.5-28.5)</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>[28.5-29.5)</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>[29.5-30.5)</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>[30.5-31.5)</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>[31.5-32.5)</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>[32.5-33.5)</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>[33.5-34.5)</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>[34.5-35.5)</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>[35.5-36.5)</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>[36.5-37.5)</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>[37.5-38.5)</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>[38.5-39.5)</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>[39.5-40.5)</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>[40.5-41.5)</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>[41.5-42.5)</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>[42.5-43.5)</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>[43.5-44.5)</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>[44.5-45.5)</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>[45.5-46.5)</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>[46.5-47.5)</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>[47.5-48.5)</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>[48.5-49.5)</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>[49.5-50.5)</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
@@ -702,89 +707,89 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>3844</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>12.20916666666667</v>
+        <v>18157</v>
       </c>
       <c r="D2" t="n">
-        <v>158.9811111111111</v>
+        <v>9.680555555555555</v>
       </c>
       <c r="E2" t="n">
-        <v>204.3469444444444</v>
+        <v>331.4952777777778</v>
       </c>
       <c r="F2" t="n">
-        <v>108.0055555555556</v>
+        <v>380.3130555555555</v>
       </c>
       <c r="G2" t="n">
-        <v>40.13944444444444</v>
+        <v>155.4963888888889</v>
       </c>
       <c r="H2" t="n">
-        <v>20.71166666666667</v>
+        <v>127.3316666666667</v>
       </c>
       <c r="I2" t="n">
-        <v>5.911666666666667</v>
+        <v>97.37833333333333</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7608333333333334</v>
+        <v>61.85944444444444</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2225</v>
+        <v>46.98</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1669444444444445</v>
+        <v>21.51694444444444</v>
       </c>
       <c r="M2" t="n">
-        <v>0.14</v>
+        <v>4.491666666666666</v>
       </c>
       <c r="N2" t="n">
-        <v>0.09222222222222222</v>
+        <v>0.7875</v>
       </c>
       <c r="O2" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.6183333333333333</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03722222222222222</v>
+        <v>0.5316666666666666</v>
       </c>
       <c r="Q2" t="n">
+        <v>0.3161111111111111</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.2352777777777778</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.0775</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.1408333333333333</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.1258333333333333</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.2352777777777778</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.2713888888888889</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.1722222222222222</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.09444444444444444</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.05277777777777778</v>
+      </c>
+      <c r="AA2" t="n">
         <v>0.03055555555555555</v>
       </c>
-      <c r="R2" t="n">
-        <v>0.01666666666666667</v>
-      </c>
-      <c r="S2" t="n">
+      <c r="AB2" t="n">
         <v>0.002777777777777778</v>
       </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
       <c r="AC2" t="n">
         <v>0</v>
       </c>
@@ -861,123 +866,126 @@
         <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>551.8169444444443</v>
+        <v>0</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1240.24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>7946</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>24.63916666666667</v>
+        <v>17494</v>
       </c>
       <c r="D3" t="n">
-        <v>372.8102777777778</v>
+        <v>116.8369444444444</v>
       </c>
       <c r="E3" t="n">
-        <v>168.2205555555556</v>
+        <v>375.7588888888889</v>
       </c>
       <c r="F3" t="n">
-        <v>42.22583333333333</v>
+        <v>104.2502777777778</v>
       </c>
       <c r="G3" t="n">
-        <v>9.064166666666667</v>
+        <v>37.72444444444444</v>
       </c>
       <c r="H3" t="n">
-        <v>4.264166666666667</v>
+        <v>24.82</v>
       </c>
       <c r="I3" t="n">
-        <v>2.881111111111111</v>
+        <v>16.645</v>
       </c>
       <c r="J3" t="n">
-        <v>1.486111111111111</v>
+        <v>10.43055555555556</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7463888888888889</v>
+        <v>5.815</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4722222222222222</v>
+        <v>4.522222222222222</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2597222222222222</v>
+        <v>2.298888888888889</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1527777777777778</v>
+        <v>0.7194444444444444</v>
       </c>
       <c r="O3" t="n">
-        <v>0.03888888888888889</v>
+        <v>0.27</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1019444444444444</v>
+        <v>0.2230555555555556</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.06111111111111111</v>
+        <v>0.5494444444444444</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1163888888888889</v>
+        <v>0.5480555555555555</v>
       </c>
       <c r="S3" t="n">
+        <v>0.3702777777777778</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.4255555555555556</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.1694444444444445</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.1025</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.2716666666666667</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.4511111111111111</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.1411111111111111</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.1352777777777778</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.1063888888888889</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.03638888888888889</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.02166666666666667</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.003333333333333334</v>
+      </c>
+      <c r="AE3" t="n">
         <v>0.01111111111111111</v>
       </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
       <c r="AF3" t="n">
-        <v>0.0002777777777777778</v>
+        <v>0.01194444444444445</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>0.09055555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>0.7786111111111111</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>0.9138888888888889</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>0.9402777777777778</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
@@ -992,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.001666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1025,78 +1033,81 @@
         <v>0</v>
       </c>
       <c r="BB3" t="n">
-        <v>627.5538888888889</v>
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>706.78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>7755</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>89.74361111111111</v>
+        <v>17119</v>
       </c>
       <c r="D4" t="n">
-        <v>305.2675</v>
+        <v>35.92833333333333</v>
       </c>
       <c r="E4" t="n">
-        <v>88.10777777777778</v>
+        <v>264.5522222222222</v>
       </c>
       <c r="F4" t="n">
-        <v>27.59916666666667</v>
+        <v>228.9394444444444</v>
       </c>
       <c r="G4" t="n">
-        <v>11.31805555555556</v>
+        <v>65.00833333333334</v>
       </c>
       <c r="H4" t="n">
-        <v>2.578888888888889</v>
+        <v>21.82972222222222</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5522222222222222</v>
+        <v>8.951388888888889</v>
       </c>
       <c r="J4" t="n">
-        <v>0.155</v>
+        <v>3.642777777777778</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02972222222222222</v>
+        <v>1.313055555555556</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01722222222222222</v>
+        <v>0.7027777777777777</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04416666666666667</v>
+        <v>0.6669444444444445</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1133333333333333</v>
+        <v>0.6330555555555556</v>
       </c>
       <c r="O4" t="n">
-        <v>0.003055555555555556</v>
+        <v>0.2416666666666667</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.001388888888888889</v>
+        <v>0.03611111111111111</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="S4" t="n">
-        <v>0.003888888888888889</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003055555555555556</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.004444444444444444</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -1189,78 +1200,81 @@
         <v>0</v>
       </c>
       <c r="BB4" t="n">
-        <v>525.5491666666665</v>
+        <v>0</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>632.49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>5718</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>6.766944444444444</v>
+        <v>15790</v>
       </c>
       <c r="D5" t="n">
-        <v>71.44555555555556</v>
+        <v>130.2325</v>
       </c>
       <c r="E5" t="n">
-        <v>46.52861111111111</v>
+        <v>375.9136111111111</v>
       </c>
       <c r="F5" t="n">
-        <v>10.82194444444444</v>
+        <v>122.8825</v>
       </c>
       <c r="G5" t="n">
-        <v>2.475</v>
+        <v>50.24722222222222</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4530555555555555</v>
+        <v>25.52222222222222</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02916666666666667</v>
+        <v>12.35055555555556</v>
       </c>
       <c r="J5" t="n">
-        <v>0.003888888888888889</v>
+        <v>6.062777777777778</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01333333333333333</v>
+        <v>2.681111111111111</v>
       </c>
       <c r="L5" t="n">
-        <v>0.009722222222222222</v>
+        <v>2.329722222222222</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005555555555555556</v>
+        <v>1.736944444444444</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>0.9533333333333334</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>0.3802777777777778</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>0.2330555555555555</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>0.1055555555555556</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.03055555555555555</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>0.01944444444444444</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.002222222222222222</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>0.003055555555555556</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1275,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
@@ -1353,75 +1367,78 @@
         <v>0</v>
       </c>
       <c r="BB5" t="n">
-        <v>138.5527777777778</v>
+        <v>0</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>731.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>8039</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>31.20055555555556</v>
+        <v>14494</v>
       </c>
       <c r="D6" t="n">
-        <v>164.4311111111111</v>
+        <v>29.69083333333333</v>
       </c>
       <c r="E6" t="n">
-        <v>114.0263888888889</v>
+        <v>123.5347222222222</v>
       </c>
       <c r="F6" t="n">
-        <v>28.51888888888889</v>
+        <v>48.77361111111111</v>
       </c>
       <c r="G6" t="n">
-        <v>9.945277777777777</v>
+        <v>15.00083333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>4.870277777777778</v>
+        <v>3.215833333333333</v>
       </c>
       <c r="I6" t="n">
-        <v>1.721388888888889</v>
+        <v>0.9683333333333334</v>
       </c>
       <c r="J6" t="n">
-        <v>1.193888888888889</v>
+        <v>0.6125</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7391666666666666</v>
+        <v>0.5872222222222222</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1680555555555556</v>
+        <v>0.2344444444444445</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1736111111111111</v>
+        <v>0.2202777777777778</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1741666666666667</v>
+        <v>0.1008333333333333</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4605555555555556</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="P6" t="n">
-        <v>0.4175</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2733333333333333</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="R6" t="n">
-        <v>0.2911111111111111</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="S6" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="T6" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1439,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.0002777777777777778</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -1517,105 +1534,108 @@
         <v>0</v>
       </c>
       <c r="BB6" t="n">
-        <v>358.9250000000001</v>
+        <v>0</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>223.08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>7755</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>107.674754109065</v>
+        <v>17258</v>
       </c>
       <c r="D7" t="n">
-        <v>305.2675</v>
+        <v>150.4230555555555</v>
       </c>
       <c r="E7" t="n">
-        <v>88.10777777777778</v>
+        <v>341.7936111111111</v>
       </c>
       <c r="F7" t="n">
-        <v>33.41960277961131</v>
+        <v>114.5261111111111</v>
       </c>
       <c r="G7" t="n">
-        <v>11.31805555555556</v>
+        <v>71.90166666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>2.578888888888889</v>
+        <v>33.97944444444445</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5522222222222222</v>
+        <v>21.98611111111111</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3742941294905291</v>
+        <v>10.36972222222222</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02972222222222222</v>
+        <v>3.933055555555556</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02023910889864252</v>
+        <v>1.61</v>
       </c>
       <c r="M7" t="n">
-        <v>0.05558416267997466</v>
+        <v>1.224444444444444</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1133333333333333</v>
+        <v>0.8433333333333334</v>
       </c>
       <c r="O7" t="n">
-        <v>0.003055555555555556</v>
+        <v>0.6291666666666667</v>
       </c>
       <c r="P7" t="n">
-        <v>0.03695380548505041</v>
+        <v>0.1322222222222222</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.001388888888888889</v>
+        <v>0.07138888888888889</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02893620355277217</v>
+        <v>0.07722222222222222</v>
       </c>
       <c r="S7" t="n">
-        <v>0.02558175185925932</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="U7" t="n">
-        <v>0.003055555555555556</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="V7" t="n">
-        <v>0.006666666666666667</v>
+        <v>0.035</v>
       </c>
       <c r="W7" t="n">
-        <v>0.00471710851825514</v>
+        <v>0.04833333333333333</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>0.02055555555555556</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>0.01722222222222222</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>0.03083333333333333</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="AB7" t="n">
-        <v>2.125274940160522e-05</v>
+        <v>0.01944444444444444</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.473312801948252e-05</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
@@ -1648,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.0001702130261871461</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -1681,75 +1701,78 @@
         <v>0</v>
       </c>
       <c r="BB7" t="n">
-        <v>549.6225460247309</v>
+        <v>0</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>753.79</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>7946</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>30.01692689456314</v>
+        <v>16182</v>
       </c>
       <c r="D8" t="n">
-        <v>372.8102777777778</v>
+        <v>83.07638888888889</v>
       </c>
       <c r="E8" t="n">
-        <v>198.6233978189385</v>
+        <v>388.5605555555555</v>
       </c>
       <c r="F8" t="n">
-        <v>42.22583333333333</v>
+        <v>92.45944444444444</v>
       </c>
       <c r="G8" t="n">
-        <v>9.17261494087991</v>
+        <v>17.99722222222222</v>
       </c>
       <c r="H8" t="n">
-        <v>4.264166666666667</v>
+        <v>7.893333333333334</v>
       </c>
       <c r="I8" t="n">
-        <v>2.881111111111111</v>
+        <v>4.060555555555555</v>
       </c>
       <c r="J8" t="n">
-        <v>1.486111111111111</v>
+        <v>2.074444444444445</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7463888888888889</v>
+        <v>1.068611111111111</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4761117010189394</v>
+        <v>0.45</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2739147418766134</v>
+        <v>0.2261111111111111</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1993725730584248</v>
+        <v>0.06777777777777778</v>
       </c>
       <c r="O8" t="n">
-        <v>0.03888888888888889</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1019444444444444</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.07778712473375024</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1504902935805593</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01876568092394418</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0004881763552083153</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>5.673896951670406e-05</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0007135323096184312</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1779,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.0003395773052273086</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
         <v>0</v>
@@ -1812,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.00196271002900107</v>
+        <v>0</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -1845,81 +1868,84 @@
         <v>0</v>
       </c>
       <c r="BB8" t="n">
-        <v>663.5676647267646</v>
+        <v>0</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>597.96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>3844</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>12.20916666666667</v>
+        <v>15046</v>
       </c>
       <c r="D9" t="n">
-        <v>215.4951364411884</v>
+        <v>94.29555555555555</v>
       </c>
       <c r="E9" t="n">
-        <v>212.6666841459932</v>
+        <v>455.6741666666667</v>
       </c>
       <c r="F9" t="n">
-        <v>108.0055555555556</v>
+        <v>87.70083333333334</v>
       </c>
       <c r="G9" t="n">
-        <v>41.82750542573814</v>
+        <v>14.6475</v>
       </c>
       <c r="H9" t="n">
-        <v>20.71166666666667</v>
+        <v>3.435555555555556</v>
       </c>
       <c r="I9" t="n">
-        <v>5.911666666666667</v>
+        <v>1.7</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8422003868951878</v>
+        <v>1.164722222222222</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2832851407127505</v>
+        <v>0.6708333333333333</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1669444444444445</v>
+        <v>0.4947222222222222</v>
       </c>
       <c r="M9" t="n">
-        <v>0.14</v>
+        <v>0.2861111111111111</v>
       </c>
       <c r="N9" t="n">
-        <v>0.09222222222222222</v>
+        <v>0.1125</v>
       </c>
       <c r="O9" t="n">
-        <v>0.08293988151189546</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="P9" t="n">
-        <v>0.03722222222222222</v>
+        <v>0.03888888888888889</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.07652976816860729</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="R9" t="n">
-        <v>0.03632936784648505</v>
+        <v>0.0008333333333333334</v>
       </c>
       <c r="S9" t="n">
-        <v>0.02577373569969791</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001029755683392263</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0002302321750288155</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0001874562048582208</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>0.001111111111111111</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1931,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>3.8023808518923e-06</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -1943,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.39553621250347e-06</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
@@ -2009,93 +2035,96 @@
         <v>0</v>
       </c>
       <c r="BB9" t="n">
-        <v>618.6122853801792</v>
+        <v>0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>660.33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>5718</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>15.0787305467652</v>
+        <v>13636</v>
       </c>
       <c r="D10" t="n">
-        <v>71.44555555555556</v>
+        <v>390.8583333333333</v>
       </c>
       <c r="E10" t="n">
-        <v>46.52861111111111</v>
+        <v>75.71916666666667</v>
       </c>
       <c r="F10" t="n">
-        <v>10.82194444444444</v>
+        <v>64.49861111111112</v>
       </c>
       <c r="G10" t="n">
-        <v>2.475</v>
+        <v>56.34305555555556</v>
       </c>
       <c r="H10" t="n">
-        <v>0.778133752335861</v>
+        <v>32.88472222222222</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02916666666666667</v>
+        <v>17.775</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1270691497090533</v>
+        <v>7.939722222222223</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1431573279600844</v>
+        <v>3.299722222222222</v>
       </c>
       <c r="L10" t="n">
-        <v>0.009722222222222222</v>
+        <v>1.633333333333333</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01460597043801256</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01586421872668207</v>
+        <v>0.8852777777777778</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>0.8194444444444444</v>
       </c>
       <c r="P10" t="n">
-        <v>0.09799413938192962</v>
+        <v>0.9808333333333333</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>1.097222222222222</v>
       </c>
       <c r="R10" t="n">
-        <v>0.05761564115134309</v>
+        <v>0.9775</v>
       </c>
       <c r="S10" t="n">
-        <v>0.06658504514693121</v>
+        <v>0.7391666666666666</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.4394444444444445</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.2105555555555556</v>
       </c>
       <c r="V10" t="n">
-        <v>0.000397293354976905</v>
+        <v>0.1080555555555556</v>
       </c>
       <c r="W10" t="n">
-        <v>0.0004043636632034595</v>
+        <v>0.07222222222222222</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>0.03611111111111111</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>0.03916666666666667</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>0.03111111111111111</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -2104,10 +2133,10 @@
         <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.402238066562751e-05</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
@@ -2140,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>5.128971778734566e-05</v>
+        <v>0</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2173,102 +2202,105 @@
         <v>0</v>
       </c>
       <c r="BB10" t="n">
-        <v>147.6906327607317</v>
+        <v>0</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>658.3099999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>8874.964120435945</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>31.20055555555556</v>
+        <v>14231</v>
       </c>
       <c r="D11" t="n">
-        <v>164.4311111111111</v>
+        <v>491.9083333333334</v>
       </c>
       <c r="E11" t="n">
-        <v>114.0263888888889</v>
+        <v>678.1569444444444</v>
       </c>
       <c r="F11" t="n">
-        <v>41.60517964099357</v>
+        <v>208.4030555555556</v>
       </c>
       <c r="G11" t="n">
-        <v>9.945277777777777</v>
+        <v>143.5</v>
       </c>
       <c r="H11" t="n">
-        <v>5.926960960830739</v>
+        <v>135.23</v>
       </c>
       <c r="I11" t="n">
-        <v>1.820206394100862</v>
+        <v>46.69416666666667</v>
       </c>
       <c r="J11" t="n">
-        <v>1.193888888888889</v>
+        <v>16.71555555555556</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8433630898139061</v>
+        <v>10.75055555555556</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1680555555555556</v>
+        <v>8.176111111111112</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2083969917685922</v>
+        <v>5.233333333333333</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1787205426183787</v>
+        <v>3.495</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4605555555555556</v>
+        <v>2.505555555555556</v>
       </c>
       <c r="P11" t="n">
-        <v>0.4175</v>
+        <v>2.028333333333333</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.2733333333333333</v>
+        <v>1.873333333333333</v>
       </c>
       <c r="R11" t="n">
-        <v>0.2911111111111111</v>
+        <v>1.764722222222222</v>
       </c>
       <c r="S11" t="n">
-        <v>0.2856593119407912</v>
+        <v>1.782777777777778</v>
       </c>
       <c r="T11" t="n">
-        <v>0.05425823135845796</v>
+        <v>1.464722222222222</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0005001089023735436</v>
+        <v>1.093888888888889</v>
       </c>
       <c r="V11" t="n">
-        <v>0.0002182273251839239</v>
+        <v>0.4388888888888889</v>
       </c>
       <c r="W11" t="n">
-        <v>0.0006602605317255752</v>
+        <v>0.1883333333333333</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>0.3852777777777778</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>0.725</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>0.3141666666666666</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>0.035</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.0002777777777777778</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>0.01027777777777778</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="AF11" t="n">
         <v>0</v>
@@ -2304,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.0001326861516099978</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -2337,123 +2369,126 @@
         <v>0</v>
       </c>
       <c r="BB11" t="n">
-        <v>373.3323120018918</v>
+        <v>0</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>1787.61</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>8418.420937295234</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>33.81445569572154</v>
+        <v>14638</v>
       </c>
       <c r="D12" t="n">
-        <v>404.8101981775751</v>
+        <v>68.52194444444444</v>
       </c>
       <c r="E12" t="n">
-        <v>168.2205555555556</v>
+        <v>106.3577777777778</v>
       </c>
       <c r="F12" t="n">
-        <v>42.22583333333333</v>
+        <v>62.46638888888889</v>
       </c>
       <c r="G12" t="n">
-        <v>18.24208868201709</v>
+        <v>22.34555555555556</v>
       </c>
       <c r="H12" t="n">
-        <v>7.048964423693088</v>
+        <v>15.77694444444444</v>
       </c>
       <c r="I12" t="n">
-        <v>3.344943468185557</v>
+        <v>13.65361111111111</v>
       </c>
       <c r="J12" t="n">
-        <v>1.486111111111111</v>
+        <v>11.58555555555555</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8295679121996398</v>
+        <v>12.52416666666667</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4722222222222222</v>
+        <v>10.17333333333333</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2792220402711277</v>
+        <v>8.941111111111111</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1527777777777778</v>
+        <v>5.971388888888889</v>
       </c>
       <c r="O12" t="n">
+        <v>3.0575</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.405277777777778</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.6772222222222222</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.3194444444444444</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.05944444444444445</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.04916666666666666</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.03361111111111111</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.05444444444444444</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.1144444444444444</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.05722222222222222</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.07416666666666667</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.06194444444444445</v>
+      </c>
+      <c r="AA12" t="n">
         <v>0.03888888888888889</v>
       </c>
-      <c r="P12" t="n">
-        <v>0.1019444444444444</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.06111111111111111</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.1163888888888889</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.01555696566623174</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0.003650273473377655</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
       <c r="AB12" t="n">
-        <v>1.73485178596109e-05</v>
+        <v>0.03722222222222222</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>0.01944444444444444</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.0002777777777777778</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="AI12" t="n">
         <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>0.004166666666666667</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="AM12" t="n">
         <v>0</v>
@@ -2462,13 +2497,13 @@
         <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="AP12" t="n">
-        <v>0</v>
+        <v>0.003611111111111111</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.001788877808180152</v>
+        <v>0</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -2480,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="AU12" t="n">
-        <v>0</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="AV12" t="n">
         <v>0</v>
@@ -2501,78 +2536,81 @@
         <v>0</v>
       </c>
       <c r="BB12" t="n">
-        <v>681.2665649762399</v>
+        <v>0</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>364.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>8443.838331223458</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>31.20055555555556</v>
+        <v>11043</v>
       </c>
       <c r="D13" t="n">
-        <v>173.5278797567423</v>
+        <v>140.9513888888889</v>
       </c>
       <c r="E13" t="n">
-        <v>153.5238315313497</v>
+        <v>193.9438888888889</v>
       </c>
       <c r="F13" t="n">
-        <v>33.50448031643855</v>
+        <v>20.96027777777778</v>
       </c>
       <c r="G13" t="n">
-        <v>9.945277777777777</v>
+        <v>1.295</v>
       </c>
       <c r="H13" t="n">
-        <v>7.352762500387359</v>
+        <v>0.1605555555555556</v>
       </c>
       <c r="I13" t="n">
-        <v>2.295003908269255</v>
+        <v>0.03361111111111111</v>
       </c>
       <c r="J13" t="n">
-        <v>1.193888888888889</v>
+        <v>0.03416666666666666</v>
       </c>
       <c r="K13" t="n">
-        <v>1.031292434805341</v>
+        <v>0.0275</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1680555555555556</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1736111111111111</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1741666666666667</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4999734507058746</v>
+        <v>0.001111111111111111</v>
       </c>
       <c r="P13" t="n">
-        <v>0.469799793851744</v>
+        <v>0.001111111111111111</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.2733333333333333</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2911111111111111</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="S13" t="n">
-        <v>0.3459919677319033</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0.04166666666666666</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0004863129217870689</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0007541436939049376</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.804391223840796e-05</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -2587,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.0002777777777777778</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -2599,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.075359289000561e-05</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
@@ -2632,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.0001423423682302818</v>
+        <v>0</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -2665,57 +2703,60 @@
         <v>0</v>
       </c>
       <c r="BB13" t="n">
-        <v>416.0143817012155</v>
+        <v>0</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>357.43</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B14" t="n">
-        <v>5965.858621975851</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>6.766944444444444</v>
+        <v>15116</v>
       </c>
       <c r="D14" t="n">
-        <v>87.19177412159846</v>
+        <v>934.5622222222222</v>
       </c>
       <c r="E14" t="n">
-        <v>72.16121753001897</v>
+        <v>825.7752777777778</v>
       </c>
       <c r="F14" t="n">
-        <v>17.34752101628766</v>
+        <v>124.0169444444444</v>
       </c>
       <c r="G14" t="n">
-        <v>2.475</v>
+        <v>19.92666666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>3.517295067595359</v>
+        <v>10.41388888888889</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02916666666666667</v>
+        <v>7.323611111111111</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1449268202924229</v>
+        <v>3.923888888888889</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1371982500575924</v>
+        <v>3.044166666666666</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1299427375690521</v>
+        <v>0.3741666666666666</v>
       </c>
       <c r="M14" t="n">
-        <v>0.03097056227173111</v>
+        <v>0.05166666666666667</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0004378016916881583</v>
+        <v>0.06111111111111111</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1654639323975734</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0.04945446571756225</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -2724,19 +2765,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0.002076213855679715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0004180329165112632</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0.001084168063344547</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>0.001944444444444444</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -2751,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>2.456838045004253e-05</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -2763,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.516006969751986e-05</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="n">
         <v>0</v>
@@ -2829,93 +2870,96 @@
         <v>0</v>
       </c>
       <c r="BB14" t="n">
-        <v>190.1509415598949</v>
+        <v>0</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>1982.66</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B15" t="n">
-        <v>5718</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>6.766944444444444</v>
+        <v>13243</v>
       </c>
       <c r="D15" t="n">
-        <v>120.0112324439881</v>
+        <v>1313.844722222222</v>
       </c>
       <c r="E15" t="n">
-        <v>53.09021292301968</v>
+        <v>1278.845833333333</v>
       </c>
       <c r="F15" t="n">
-        <v>18.5001591671941</v>
+        <v>345.7963888888889</v>
       </c>
       <c r="G15" t="n">
-        <v>2.671281840537303</v>
+        <v>152.6361111111111</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4530555555555555</v>
+        <v>86.86305555555556</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4745526970506689</v>
+        <v>48.23805555555555</v>
       </c>
       <c r="J15" t="n">
-        <v>0.003888888888888889</v>
+        <v>38.4975</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1098546911799708</v>
+        <v>31.50805555555555</v>
       </c>
       <c r="L15" t="n">
-        <v>0.009722222222222222</v>
+        <v>37.69861111111111</v>
       </c>
       <c r="M15" t="n">
-        <v>0.006164444527859825</v>
+        <v>34.1</v>
       </c>
       <c r="N15" t="n">
-        <v>0.001981108739537774</v>
+        <v>17.01638888888889</v>
       </c>
       <c r="O15" t="n">
-        <v>0.03767009838426593</v>
+        <v>7.8825</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>2.803611111111111</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1.431388888888889</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.5088888888888888</v>
       </c>
       <c r="S15" t="n">
-        <v>0.01304660512143367</v>
+        <v>0.4802777777777778</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>0.2658333333333333</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>0.0375</v>
       </c>
       <c r="V15" t="n">
-        <v>2.357051590538683e-05</v>
+        <v>0.095</v>
       </c>
       <c r="W15" t="n">
-        <v>2.104003463662817e-05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="AB15" t="n">
-        <v>6.909155913942154e-06</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -2927,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.206019303098924e-05</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
         <v>0</v>
@@ -2936,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="AJ15" t="n">
         <v>0</v>
@@ -2960,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.0001416137939248509</v>
+        <v>0</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -2993,72 +3037,75 @@
         <v>0</v>
       </c>
       <c r="BB15" t="n">
-        <v>202.1499723245474</v>
+        <v>0</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>3429.12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B16" t="n">
-        <v>3845.317594236154</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>27.26288180839182</v>
+        <v>14610</v>
       </c>
       <c r="D16" t="n">
-        <v>175.0891324060203</v>
+        <v>20.72611111111111</v>
       </c>
       <c r="E16" t="n">
-        <v>204.3469444444444</v>
+        <v>304.2311111111111</v>
       </c>
       <c r="F16" t="n">
-        <v>111.675614345874</v>
+        <v>257.5830555555556</v>
       </c>
       <c r="G16" t="n">
-        <v>40.41203273309022</v>
+        <v>92.42194444444445</v>
       </c>
       <c r="H16" t="n">
-        <v>23.6013514388005</v>
+        <v>23.40277777777778</v>
       </c>
       <c r="I16" t="n">
-        <v>5.911666666666667</v>
+        <v>6.706388888888889</v>
       </c>
       <c r="J16" t="n">
-        <v>0.933791372415663</v>
+        <v>1.8175</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3289043479165151</v>
+        <v>1.330277777777778</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1669444444444445</v>
+        <v>1.600833333333333</v>
       </c>
       <c r="M16" t="n">
-        <v>0.14</v>
+        <v>0.6836111111111111</v>
       </c>
       <c r="N16" t="n">
-        <v>0.09222222222222222</v>
+        <v>0.5386111111111112</v>
       </c>
       <c r="O16" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.29</v>
       </c>
       <c r="P16" t="n">
-        <v>0.03722222222222222</v>
+        <v>0.1402777777777778</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.06201806085862627</v>
+        <v>0.0525</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1293754226686745</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1404838488183657</v>
+        <v>0.025</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0002442225168449627</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -3091,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.796567470953696e-05</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="n">
         <v>0</v>
@@ -3124,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.0001048879317259563</v>
+        <v>0</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -3157,78 +3204,81 @@
         <v>0</v>
       </c>
       <c r="BB16" t="n">
-        <v>590.3726495276443</v>
+        <v>0</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>711.58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B17" t="n">
-        <v>8648.713991777613</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>89.74361111111111</v>
+        <v>14738</v>
       </c>
       <c r="D17" t="n">
-        <v>329.4642503174553</v>
+        <v>378.0927777777778</v>
       </c>
       <c r="E17" t="n">
-        <v>109.0415602568841</v>
+        <v>627.7016666666667</v>
       </c>
       <c r="F17" t="n">
-        <v>27.59916666666667</v>
+        <v>202.3891666666667</v>
       </c>
       <c r="G17" t="n">
-        <v>14.24008895376774</v>
+        <v>62.93194444444445</v>
       </c>
       <c r="H17" t="n">
-        <v>2.578888888888889</v>
+        <v>14.17722222222222</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5522222222222222</v>
+        <v>2.858611111111111</v>
       </c>
       <c r="J17" t="n">
-        <v>0.155</v>
+        <v>0.8313888888888888</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1231042104339294</v>
+        <v>0.3841666666666667</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01893541943913949</v>
+        <v>0.1861111111111111</v>
       </c>
       <c r="M17" t="n">
-        <v>0.06406628937998847</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="N17" t="n">
-        <v>0.1133333333333333</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01497243657583238</v>
+        <v>0.01416666666666667</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>0.01916666666666667</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.04020206426433949</v>
+        <v>0.009444444444444445</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0.01509979270090511</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0003675656889617487</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0.003055555555555556</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0.007312289114309938</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0.005133478113617564</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -3321,81 +3371,84 @@
         <v>0</v>
       </c>
       <c r="BB17" t="n">
-        <v>573.7803708515959</v>
+        <v>0</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>1312.52</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B18" t="n">
-        <v>8089.917533681774</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>89.74361111111111</v>
+        <v>13986</v>
       </c>
       <c r="D18" t="n">
-        <v>305.2675</v>
+        <v>21.37527777777778</v>
       </c>
       <c r="E18" t="n">
-        <v>88.10777777777778</v>
+        <v>107.9580555555556</v>
       </c>
       <c r="F18" t="n">
-        <v>27.99503207918605</v>
+        <v>133.3744444444444</v>
       </c>
       <c r="G18" t="n">
-        <v>11.65219775477278</v>
+        <v>66.56805555555556</v>
       </c>
       <c r="H18" t="n">
-        <v>2.578888888888889</v>
+        <v>24.18555555555556</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5522222222222222</v>
+        <v>20.82083333333333</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4359385847267663</v>
+        <v>15.9525</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2373564655264587</v>
+        <v>8.931666666666667</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01722222222222222</v>
+        <v>3.826388888888889</v>
       </c>
       <c r="M18" t="n">
-        <v>0.04416666666666667</v>
+        <v>1.3675</v>
       </c>
       <c r="N18" t="n">
-        <v>0.126050969328564</v>
+        <v>0.9330555555555555</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01905120563876152</v>
+        <v>0.7683333333333333</v>
       </c>
       <c r="P18" t="n">
-        <v>0.02776648899339465</v>
+        <v>0.6205555555555555</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.0259452561638831</v>
+        <v>0.7144444444444444</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>0.3311111111111111</v>
       </c>
       <c r="S18" t="n">
-        <v>0.06275157470683428</v>
+        <v>0.1827777777777778</v>
       </c>
       <c r="T18" t="n">
-        <v>0.0007582396302596586</v>
+        <v>0.1330555555555556</v>
       </c>
       <c r="U18" t="n">
-        <v>0.003055555555555556</v>
+        <v>0.09166666666666666</v>
       </c>
       <c r="V18" t="n">
-        <v>0.006666666666666667</v>
+        <v>0.05833333333333333</v>
       </c>
       <c r="W18" t="n">
-        <v>0.004444444444444444</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -3428,10 +3481,10 @@
         <v>0</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>0.045</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>0.02722222222222222</v>
       </c>
       <c r="AK18" t="n">
         <v>0</v>
@@ -3452,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="AQ18" t="n">
-        <v>7.524902880429736e-05</v>
+        <v>0</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -3485,78 +3538,81 @@
         <v>0</v>
       </c>
       <c r="BB18" t="n">
-        <v>526.908479423258</v>
+        <v>0</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>408.29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>7946</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>24.63916666666667</v>
+        <v>12102</v>
       </c>
       <c r="D19" t="n">
-        <v>372.8102777777778</v>
+        <v>134.0158333333333</v>
       </c>
       <c r="E19" t="n">
-        <v>168.2205555555556</v>
+        <v>497.4241666666667</v>
       </c>
       <c r="F19" t="n">
-        <v>60.47119588975977</v>
+        <v>113.9708333333333</v>
       </c>
       <c r="G19" t="n">
-        <v>9.064166666666667</v>
+        <v>30.18583333333333</v>
       </c>
       <c r="H19" t="n">
-        <v>6.996271207485863</v>
+        <v>15.67722222222222</v>
       </c>
       <c r="I19" t="n">
-        <v>4.117253770863599</v>
+        <v>6.555555555555555</v>
       </c>
       <c r="J19" t="n">
-        <v>1.486111111111111</v>
+        <v>3.27</v>
       </c>
       <c r="K19" t="n">
-        <v>0.7463888888888889</v>
+        <v>1.733888888888889</v>
       </c>
       <c r="L19" t="n">
-        <v>0.4854555738966708</v>
+        <v>0.9466666666666667</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2597222222222222</v>
+        <v>0.7294444444444445</v>
       </c>
       <c r="N19" t="n">
-        <v>0.1897632346148942</v>
+        <v>0.5008333333333334</v>
       </c>
       <c r="O19" t="n">
-        <v>0.03888888888888889</v>
+        <v>0.4852777777777778</v>
       </c>
       <c r="P19" t="n">
-        <v>0.1019444444444444</v>
+        <v>0.05583333333333333</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.06111111111111111</v>
+        <v>0.0775</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1163888888888889</v>
+        <v>0.09444444444444444</v>
       </c>
       <c r="S19" t="n">
-        <v>0.02660666313997967</v>
+        <v>0.05833333333333333</v>
       </c>
       <c r="T19" t="n">
-        <v>0.009480365178345615</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="W19" t="n">
-        <v>6.176874322483355e-05</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -3583,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.0002777777777777778</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
         <v>0</v>
@@ -3616,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.00175818478321661</v>
+        <v>0</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -3649,78 +3705,81 @@
         <v>0</v>
       </c>
       <c r="BB19" t="n">
-        <v>649.8428466584655</v>
+        <v>0</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>808.04</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="B20" t="n">
-        <v>7946</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>40.20111830445082</v>
+        <v>3506</v>
       </c>
       <c r="D20" t="n">
-        <v>372.8102777777778</v>
+        <v>159.3644444444444</v>
       </c>
       <c r="E20" t="n">
-        <v>168.2205555555556</v>
+        <v>85.71083333333333</v>
       </c>
       <c r="F20" t="n">
-        <v>46.90035137228212</v>
+        <v>30.935</v>
       </c>
       <c r="G20" t="n">
-        <v>9.064166666666667</v>
+        <v>7.493055555555555</v>
       </c>
       <c r="H20" t="n">
-        <v>4.264166666666667</v>
+        <v>2.293333333333333</v>
       </c>
       <c r="I20" t="n">
-        <v>2.881111111111111</v>
+        <v>0.8352777777777778</v>
       </c>
       <c r="J20" t="n">
-        <v>1.627746587163504</v>
+        <v>0.4005555555555556</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8711723796936813</v>
+        <v>0.2108333333333333</v>
       </c>
       <c r="L20" t="n">
-        <v>0.4866030929175944</v>
+        <v>0.07805555555555556</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2787283991766613</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="N20" t="n">
-        <v>0.1642485334279248</v>
+        <v>0.01416666666666667</v>
       </c>
       <c r="O20" t="n">
-        <v>0.03888888888888889</v>
+        <v>0.05777777777777778</v>
       </c>
       <c r="P20" t="n">
-        <v>0.1019444444444444</v>
+        <v>0.01055555555555556</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.06111111111111111</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1163888888888889</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0.01111111111111111</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0.000338333176143487</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>8.88387153581485e-06</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -3735,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>3.580636992659303e-05</v>
+        <v>0</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
@@ -3747,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.0002777777777777778</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="n">
         <v>0</v>
@@ -3780,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.001666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -3813,78 +3872,81 @@
         <v>0</v>
       </c>
       <c r="BB20" t="n">
-        <v>648.1020183591966</v>
+        <v>0</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>287.44</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B21" t="n">
-        <v>7946</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>25.69548534936261</v>
+        <v>1321</v>
       </c>
       <c r="D21" t="n">
-        <v>372.8102777777778</v>
+        <v>132.3233333333333</v>
       </c>
       <c r="E21" t="n">
-        <v>168.4916864714165</v>
+        <v>192.8661111111111</v>
       </c>
       <c r="F21" t="n">
-        <v>42.22583333333333</v>
+        <v>0.7522222222222222</v>
       </c>
       <c r="G21" t="n">
-        <v>9.064166666666667</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>6.183717734055859</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>3.057327771219564</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.549266138806037</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.7463888888888889</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4722222222222222</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3207482125120595</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0.1527777777777778</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0.03888888888888889</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.1471348861738919</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.06111111111111111</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1163888888888889</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0.01111111111111111</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0002530369369111408</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0.001172322031045285</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -3911,7 +3973,7 @@
         <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.0002897381182930182</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
         <v>0</v>
@@ -3944,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.001666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -3977,7 +4039,10 @@
         <v>0</v>
       </c>
       <c r="BB21" t="n">
-        <v>631.1479149939661</v>
+        <v>0</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>325.94</v>
       </c>
     </row>
     <row r="22">
@@ -3985,61 +4050,61 @@
         <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>8201.436084358775</v>
+        <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>31.20055555555556</v>
+        <v>3844</v>
       </c>
       <c r="D22" t="n">
-        <v>215.7655342501879</v>
+        <v>12.20916666666667</v>
       </c>
       <c r="E22" t="n">
-        <v>114.0263888888889</v>
+        <v>158.9811111111111</v>
       </c>
       <c r="F22" t="n">
-        <v>30.6247857666165</v>
+        <v>204.3469444444444</v>
       </c>
       <c r="G22" t="n">
-        <v>9.945277777777777</v>
+        <v>108.0055555555556</v>
       </c>
       <c r="H22" t="n">
-        <v>4.870277777777778</v>
+        <v>40.13944444444444</v>
       </c>
       <c r="I22" t="n">
-        <v>1.721388888888889</v>
+        <v>20.71166666666667</v>
       </c>
       <c r="J22" t="n">
-        <v>1.636614465734982</v>
+        <v>5.911666666666667</v>
       </c>
       <c r="K22" t="n">
-        <v>0.7391666666666666</v>
+        <v>0.7608333333333334</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1982798057680238</v>
+        <v>0.2225</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1736111111111111</v>
+        <v>0.1669444444444445</v>
       </c>
       <c r="N22" t="n">
-        <v>0.1741666666666667</v>
+        <v>0.14</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4605555555555556</v>
+        <v>0.09222222222222222</v>
       </c>
       <c r="P22" t="n">
-        <v>0.4226915509193007</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.2733333333333333</v>
+        <v>0.03722222222222222</v>
       </c>
       <c r="R22" t="n">
-        <v>0.2911111111111111</v>
+        <v>0.03055555555555555</v>
       </c>
       <c r="S22" t="n">
-        <v>0.3018062012510477</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="T22" t="n">
-        <v>0.04213331588204042</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -4063,7 +4128,7 @@
         <v>0</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.0002777777777777778</v>
+        <v>0</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -4141,75 +4206,78 @@
         <v>0</v>
       </c>
       <c r="BB22" t="n">
-        <v>412.8679564674709</v>
+        <v>0</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>551.8169444444443</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>8327.443186022409</v>
+        <v>3</v>
       </c>
       <c r="C23" t="n">
+        <v>7946</v>
+      </c>
+      <c r="D23" t="n">
         <v>24.63916666666667</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>372.8102777777778</v>
       </c>
-      <c r="E23" t="n">
-        <v>176.2916040878898</v>
-      </c>
       <c r="F23" t="n">
+        <v>168.2205555555556</v>
+      </c>
+      <c r="G23" t="n">
         <v>42.22583333333333</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>9.064166666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>7.106923250317084</v>
-      </c>
       <c r="I23" t="n">
+        <v>4.264166666666667</v>
+      </c>
+      <c r="J23" t="n">
         <v>2.881111111111111</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>1.486111111111111</v>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
         <v>0.7463888888888889</v>
       </c>
-      <c r="L23" t="n">
+      <c r="M23" t="n">
         <v>0.4722222222222222</v>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>0.2597222222222222</v>
       </c>
-      <c r="N23" t="n">
-        <v>0.1668076924504267</v>
-      </c>
       <c r="O23" t="n">
+        <v>0.1527777777777778</v>
+      </c>
+      <c r="P23" t="n">
         <v>0.03888888888888889</v>
       </c>
-      <c r="P23" t="n">
+      <c r="Q23" t="n">
         <v>0.1019444444444444</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="R23" t="n">
         <v>0.06111111111111111</v>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>0.1163888888888889</v>
       </c>
-      <c r="S23" t="n">
-        <v>0.04050529033978304</v>
-      </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0.0001505783687436231</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -4239,11 +4307,11 @@
         <v>0</v>
       </c>
       <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
         <v>0.0002777777777777778</v>
       </c>
-      <c r="AG23" t="n">
-        <v>0</v>
-      </c>
       <c r="AH23" t="n">
         <v>0</v>
       </c>
@@ -4272,10 +4340,10 @@
         <v>0</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.002072380414677739</v>
+        <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>0</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="AS23" t="n">
         <v>0</v>
@@ -4305,81 +4373,84 @@
         <v>0</v>
       </c>
       <c r="BB23" t="n">
-        <v>638.5116743908915</v>
+        <v>0</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>627.5538888888889</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B24" t="n">
-        <v>8039</v>
+        <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>31.20055555555556</v>
+        <v>7755</v>
       </c>
       <c r="D24" t="n">
-        <v>164.4311111111111</v>
+        <v>89.74361111111111</v>
       </c>
       <c r="E24" t="n">
-        <v>114.0263888888889</v>
+        <v>305.2675</v>
       </c>
       <c r="F24" t="n">
-        <v>28.51888888888889</v>
+        <v>88.10777777777778</v>
       </c>
       <c r="G24" t="n">
-        <v>10.50738173070778</v>
+        <v>27.59916666666667</v>
       </c>
       <c r="H24" t="n">
-        <v>7.563409026835602</v>
+        <v>11.31805555555556</v>
       </c>
       <c r="I24" t="n">
-        <v>2.135455128583286</v>
+        <v>2.578888888888889</v>
       </c>
       <c r="J24" t="n">
-        <v>1.193888888888889</v>
+        <v>0.5522222222222222</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7391666666666666</v>
+        <v>0.155</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2457065506671552</v>
+        <v>0.02972222222222222</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1832563228694099</v>
+        <v>0.01722222222222222</v>
       </c>
       <c r="N24" t="n">
-        <v>0.1836703221684381</v>
+        <v>0.04416666666666667</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4605555555555556</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="P24" t="n">
-        <v>0.4949501414964667</v>
+        <v>0.003055555555555556</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.2733333333333333</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.2911111111111111</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="S24" t="n">
-        <v>0.2777777777777778</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.003888888888888889</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>0.003055555555555556</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -4391,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.0002908309655299782</v>
+        <v>0</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -4436,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.0001433251665696473</v>
+        <v>0</v>
       </c>
       <c r="AR24" t="n">
         <v>0</v>
@@ -4469,75 +4540,78 @@
         <v>0</v>
       </c>
       <c r="BB24" t="n">
-        <v>362.7687078239046</v>
+        <v>0</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>525.5491666666665</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B25" t="n">
-        <v>7946</v>
+        <v>3</v>
       </c>
       <c r="C25" t="n">
-        <v>24.63916666666667</v>
+        <v>5718</v>
       </c>
       <c r="D25" t="n">
-        <v>372.8102777777778</v>
+        <v>6.766944444444444</v>
       </c>
       <c r="E25" t="n">
-        <v>168.2845447237574</v>
+        <v>71.44555555555556</v>
       </c>
       <c r="F25" t="n">
-        <v>42.22583333333333</v>
+        <v>46.52861111111111</v>
       </c>
       <c r="G25" t="n">
-        <v>12.19935892796863</v>
+        <v>10.82194444444444</v>
       </c>
       <c r="H25" t="n">
-        <v>4.264166666666667</v>
+        <v>2.475</v>
       </c>
       <c r="I25" t="n">
-        <v>3.707754747984345</v>
+        <v>0.4530555555555555</v>
       </c>
       <c r="J25" t="n">
-        <v>1.486111111111111</v>
+        <v>0.02916666666666667</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8436313541194306</v>
+        <v>0.003888888888888889</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4722222222222222</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2597222222222222</v>
+        <v>0.009722222222222222</v>
       </c>
       <c r="N25" t="n">
-        <v>0.1690424484967658</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="O25" t="n">
-        <v>0.1097222815224643</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0.1019444444444444</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.08002970608869109</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1163888888888889</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0.01111111111111111</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0.00246600828103075</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0.0009022372916750337</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -4555,7 +4629,7 @@
         <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>2.3869438214536e-05</v>
+        <v>0</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -4567,7 +4641,7 @@
         <v>0</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.0002777777777777778</v>
+        <v>0</v>
       </c>
       <c r="AG25" t="n">
         <v>0</v>
@@ -4600,7 +4674,7 @@
         <v>0</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.00183922614754082</v>
+        <v>0</v>
       </c>
       <c r="AR25" t="n">
         <v>0</v>
@@ -4633,78 +4707,81 @@
         <v>0</v>
       </c>
       <c r="BB25" t="n">
-        <v>631.7865377533184</v>
+        <v>0</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>138.5527777777778</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B26" t="n">
-        <v>8762.229754493208</v>
+        <v>3</v>
       </c>
       <c r="C26" t="n">
+        <v>8039</v>
+      </c>
+      <c r="D26" t="n">
         <v>31.20055555555556</v>
       </c>
-      <c r="D26" t="n">
-        <v>165.5924999155805</v>
-      </c>
       <c r="E26" t="n">
-        <v>118.0289798745418</v>
+        <v>164.4311111111111</v>
       </c>
       <c r="F26" t="n">
-        <v>49.04706362314362</v>
+        <v>114.0263888888889</v>
       </c>
       <c r="G26" t="n">
-        <v>13.06570480762678</v>
+        <v>28.51888888888889</v>
       </c>
       <c r="H26" t="n">
+        <v>9.945277777777777</v>
+      </c>
+      <c r="I26" t="n">
         <v>4.870277777777778</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>1.721388888888889</v>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>1.193888888888889</v>
       </c>
-      <c r="K26" t="n">
-        <v>0.7542892776734104</v>
-      </c>
       <c r="L26" t="n">
-        <v>0.2001966722772193</v>
+        <v>0.7391666666666666</v>
       </c>
       <c r="M26" t="n">
+        <v>0.1680555555555556</v>
+      </c>
+      <c r="N26" t="n">
         <v>0.1736111111111111</v>
       </c>
-      <c r="N26" t="n">
-        <v>0.1960397444456747</v>
-      </c>
       <c r="O26" t="n">
+        <v>0.1741666666666667</v>
+      </c>
+      <c r="P26" t="n">
         <v>0.4605555555555556</v>
       </c>
-      <c r="P26" t="n">
+      <c r="Q26" t="n">
         <v>0.4175</v>
       </c>
-      <c r="Q26" t="n">
-        <v>0.304307085148311</v>
-      </c>
       <c r="R26" t="n">
+        <v>0.2733333333333333</v>
+      </c>
+      <c r="S26" t="n">
         <v>0.2911111111111111</v>
       </c>
-      <c r="S26" t="n">
-        <v>0.328617825937448</v>
-      </c>
       <c r="T26" t="n">
-        <v>0.048043890261181</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>4.47824001857918e-05</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -4719,11 +4796,11 @@
         <v>0</v>
       </c>
       <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
         <v>0.0002777777777777778</v>
       </c>
-      <c r="AC26" t="n">
-        <v>0</v>
-      </c>
       <c r="AD26" t="n">
         <v>0</v>
       </c>
@@ -4797,7 +4874,2515 @@
         <v>0</v>
       </c>
       <c r="BB26" t="n">
-        <v>387.8949541657028</v>
+        <v>0</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>358.9250000000001</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4035.507099858597</v>
+      </c>
+      <c r="D27" t="n">
+        <v>18.6685829888115</v>
+      </c>
+      <c r="E27" t="n">
+        <v>179.0833840745328</v>
+      </c>
+      <c r="F27" t="n">
+        <v>204.3469444444444</v>
+      </c>
+      <c r="G27" t="n">
+        <v>108.0055555555556</v>
+      </c>
+      <c r="H27" t="n">
+        <v>40.13944444444444</v>
+      </c>
+      <c r="I27" t="n">
+        <v>20.71166666666667</v>
+      </c>
+      <c r="J27" t="n">
+        <v>5.911666666666667</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1.110788036271688</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.3034676258340796</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.1709423187427016</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.1435525450500733</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.09936288305683846</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.08186428965825764</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.03055555555555555</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.01666666666666667</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.002777777777777778</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.0007984382626604637</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.0006657423835285191</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>5.818437902513076e-06</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>578.8703592054865</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" t="n">
+        <v>8513.546766217065</v>
+      </c>
+      <c r="D28" t="n">
+        <v>89.74361111111111</v>
+      </c>
+      <c r="E28" t="n">
+        <v>305.2675</v>
+      </c>
+      <c r="F28" t="n">
+        <v>96.97042515260874</v>
+      </c>
+      <c r="G28" t="n">
+        <v>29.11088530073156</v>
+      </c>
+      <c r="H28" t="n">
+        <v>11.31805555555556</v>
+      </c>
+      <c r="I28" t="n">
+        <v>7.231628730204529</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.5522222222222222</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.3242902448228553</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.02972222222222222</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.01722222222222222</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.04416666666666667</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.1133333333333333</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.03274840253667468</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.02628737308950707</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.001388888888888889</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.003888888888888889</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.003055555555555556</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.004588228964982156</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>3.423667652955647e-05</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>6.060931066757944e-06</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>540.8017270638996</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" t="n">
+        <v>8039</v>
+      </c>
+      <c r="D29" t="n">
+        <v>31.20055555555556</v>
+      </c>
+      <c r="E29" t="n">
+        <v>169.5596266123316</v>
+      </c>
+      <c r="F29" t="n">
+        <v>121.0920160872593</v>
+      </c>
+      <c r="G29" t="n">
+        <v>48.57616456248177</v>
+      </c>
+      <c r="H29" t="n">
+        <v>18.70208723815166</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4.870277777777778</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.721388888888889</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1.313761461548228</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.7801701685950722</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.215884778158593</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.1736111111111111</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.1977949033504831</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.4605555555555556</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.4417545689046415</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.3181080085531124</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.2911111111111111</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.04506396901306751</v>
+      </c>
+      <c r="V29" t="n">
+        <v>6.286344195400516e-05</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.0003006164995206083</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.0005827910532213204</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0.0003096007508503098</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>400.2389660078708</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3844</v>
+      </c>
+      <c r="D30" t="n">
+        <v>30.39536447778384</v>
+      </c>
+      <c r="E30" t="n">
+        <v>191.9227730254219</v>
+      </c>
+      <c r="F30" t="n">
+        <v>212.2538852112429</v>
+      </c>
+      <c r="G30" t="n">
+        <v>112.2403023114464</v>
+      </c>
+      <c r="H30" t="n">
+        <v>40.13944444444444</v>
+      </c>
+      <c r="I30" t="n">
+        <v>20.71166666666667</v>
+      </c>
+      <c r="J30" t="n">
+        <v>6.426932691218198</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.9171725074543771</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.2225</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.1790752359734784</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.1403864411687421</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.1105597032584757</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.03722222222222222</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.1220844175743069</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.01666666666666667</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.01110226397214228</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.000123041845603589</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.000120933954164845</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>1.416904424363973e-05</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>1.240430669226186e-05</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>615.889075502332</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3938.310974780848</v>
+      </c>
+      <c r="D31" t="n">
+        <v>12.20916666666667</v>
+      </c>
+      <c r="E31" t="n">
+        <v>158.9811111111111</v>
+      </c>
+      <c r="F31" t="n">
+        <v>228.3796564764087</v>
+      </c>
+      <c r="G31" t="n">
+        <v>108.0055555555556</v>
+      </c>
+      <c r="H31" t="n">
+        <v>45.3612973989956</v>
+      </c>
+      <c r="I31" t="n">
+        <v>20.71166666666667</v>
+      </c>
+      <c r="J31" t="n">
+        <v>5.911666666666667</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.7608333333333334</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.3190015923898426</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.1669444444444445</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.09222222222222222</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.06234857953964297</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.08950606009784209</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.03055555555555555</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.07167276023333953</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.002777777777777778</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.001245201150840859</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.0007452548866270253</v>
+      </c>
+      <c r="W31" t="n">
+        <v>9.520343063564966e-05</v>
+      </c>
+      <c r="X31" t="n">
+        <v>8.375468764214124e-05</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>2.313100729653521e-05</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>581.2981754128281</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" t="n">
+        <v>8169.910554006149</v>
+      </c>
+      <c r="D32" t="n">
+        <v>89.74361111111111</v>
+      </c>
+      <c r="E32" t="n">
+        <v>337.2906315170839</v>
+      </c>
+      <c r="F32" t="n">
+        <v>100.1838373638624</v>
+      </c>
+      <c r="G32" t="n">
+        <v>27.59916666666667</v>
+      </c>
+      <c r="H32" t="n">
+        <v>11.31805555555556</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.578888888888889</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5522222222222222</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1880552011821177</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.02972222222222222</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.05151153474108805</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.04416666666666667</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.1148511816278435</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.04888467669812115</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.04355583307358373</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.007464619127598893</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.003888888888888889</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.01059391663258989</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.003088899893276181</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.004989343956141461</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0.0001073931763998984</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0.0002476630092190725</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>569.8242080329532</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3</v>
+      </c>
+      <c r="C33" t="n">
+        <v>7755</v>
+      </c>
+      <c r="D33" t="n">
+        <v>108.2814546071028</v>
+      </c>
+      <c r="E33" t="n">
+        <v>364.0554226974572</v>
+      </c>
+      <c r="F33" t="n">
+        <v>96.70225601235707</v>
+      </c>
+      <c r="G33" t="n">
+        <v>27.59916666666667</v>
+      </c>
+      <c r="H33" t="n">
+        <v>11.31805555555556</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.578888888888889</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5522222222222222</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.444378693603967</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.02972222222222222</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.01872139536734544</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.04514788516800829</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.1133333333333333</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.01821615957762956</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.01317434157593494</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.01768761887246103</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.03449330615594477</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.003055555555555556</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.00741574810804101</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.004444444444444444</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>3.126145482503054e-05</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>611.8372886156902</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3</v>
+      </c>
+      <c r="C34" t="n">
+        <v>5718</v>
+      </c>
+      <c r="D34" t="n">
+        <v>16.71566217543463</v>
+      </c>
+      <c r="E34" t="n">
+        <v>83.86162591619471</v>
+      </c>
+      <c r="F34" t="n">
+        <v>46.52861111111111</v>
+      </c>
+      <c r="G34" t="n">
+        <v>11.46212176365037</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2.475</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.4530555555555555</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.02916666666666667</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.3984662862454753</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.06537456345332224</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.009722222222222222</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.01173109587512683</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.02197272227494477</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.0713560898482135</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.004856300122600498</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.00544020558042177</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.0002245670232177402</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>1.973024691426266e-05</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>162.1144069715055</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3</v>
+      </c>
+      <c r="C35" t="n">
+        <v>8039</v>
+      </c>
+      <c r="D35" t="n">
+        <v>33.95761330154629</v>
+      </c>
+      <c r="E35" t="n">
+        <v>206.178631080994</v>
+      </c>
+      <c r="F35" t="n">
+        <v>114.0263888888889</v>
+      </c>
+      <c r="G35" t="n">
+        <v>28.69845427256291</v>
+      </c>
+      <c r="H35" t="n">
+        <v>17.5288331031879</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4.870277777777778</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.790974411678141</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1.355250641565057</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.7391666666666666</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.1684835047942868</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.1736111111111111</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.1741666666666667</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.4972343482936356</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.4175</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.2992916291917818</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.3054377246075095</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.04553794240128641</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.0004415767424085202</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.0002777777777777778</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>411.5053502042319</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3</v>
+      </c>
+      <c r="C36" t="n">
+        <v>7946</v>
+      </c>
+      <c r="D36" t="n">
+        <v>24.63916666666667</v>
+      </c>
+      <c r="E36" t="n">
+        <v>380.8821100475204</v>
+      </c>
+      <c r="F36" t="n">
+        <v>168.2205555555556</v>
+      </c>
+      <c r="G36" t="n">
+        <v>42.22583333333333</v>
+      </c>
+      <c r="H36" t="n">
+        <v>15.36928064132349</v>
+      </c>
+      <c r="I36" t="n">
+        <v>4.264166666666667</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.943114175740721</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1.486111111111111</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.7683720096310751</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.4722222222222222</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.2860015619122236</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.1527777777777778</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.09300128647924467</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.1019444444444444</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.06111111111111111</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.1811422785193811</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.03584888332591447</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.002181517059669943</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>1.299714658982857e-05</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0.0003249023125126525</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0.001666666666666667</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>643.1869458565267</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3</v>
+      </c>
+      <c r="C37" t="n">
+        <v>8039</v>
+      </c>
+      <c r="D37" t="n">
+        <v>31.20055555555556</v>
+      </c>
+      <c r="E37" t="n">
+        <v>191.5621243077729</v>
+      </c>
+      <c r="F37" t="n">
+        <v>117.461678234234</v>
+      </c>
+      <c r="G37" t="n">
+        <v>28.51888888888889</v>
+      </c>
+      <c r="H37" t="n">
+        <v>11.72608504416598</v>
+      </c>
+      <c r="I37" t="n">
+        <v>4.870277777777778</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2.10286134116877</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1.546427961172131</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.7391666666666666</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.1680555555555556</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.1736111111111111</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.1741666666666667</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.4777024307630068</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.4175</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.2960643265171783</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.3045136229487804</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.04410893924894662</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.0002063764487412818</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.0002777777777777778</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>7.104022510226887e-05</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>392.0621214024434</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3</v>
+      </c>
+      <c r="C38" t="n">
+        <v>9416.922499426109</v>
+      </c>
+      <c r="D38" t="n">
+        <v>24.63916666666667</v>
+      </c>
+      <c r="E38" t="n">
+        <v>373.5308845281228</v>
+      </c>
+      <c r="F38" t="n">
+        <v>173.4815692147732</v>
+      </c>
+      <c r="G38" t="n">
+        <v>42.8033107803835</v>
+      </c>
+      <c r="H38" t="n">
+        <v>10.21010386093741</v>
+      </c>
+      <c r="I38" t="n">
+        <v>4.264166666666667</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.286976308406282</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1.486111111111111</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.9527084295161636</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.4722222222222222</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.2597222222222222</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.1527777777777778</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.1787970540101778</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.1019444444444444</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.06111111111111111</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.1497696576619271</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.0671744721225183</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.0006978148986710931</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0.0002777777777777778</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0.001666666666666667</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>636.1011587874996</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3844</v>
+      </c>
+      <c r="D39" t="n">
+        <v>23.51634049379723</v>
+      </c>
+      <c r="E39" t="n">
+        <v>167.1502601893949</v>
+      </c>
+      <c r="F39" t="n">
+        <v>204.3469444444444</v>
+      </c>
+      <c r="G39" t="n">
+        <v>109.750091648484</v>
+      </c>
+      <c r="H39" t="n">
+        <v>40.13944444444444</v>
+      </c>
+      <c r="I39" t="n">
+        <v>25.31337852343414</v>
+      </c>
+      <c r="J39" t="n">
+        <v>6.397539966203404</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.7608333333333334</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.2225</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.1690838812909431</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.1365091247893737</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.03722222222222222</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.03055555555555555</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.01666666666666667</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.002777777777777778</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.009168691762957971</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.0009507224951971836</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.0003224119296671202</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>6.116139147933001e-07</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>5.815033505461164e-05</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>578.1823155266419</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3844</v>
+      </c>
+      <c r="D40" t="n">
+        <v>14.20027274457347</v>
+      </c>
+      <c r="E40" t="n">
+        <v>203.821853933712</v>
+      </c>
+      <c r="F40" t="n">
+        <v>204.3469444444444</v>
+      </c>
+      <c r="G40" t="n">
+        <v>111.0039992044488</v>
+      </c>
+      <c r="H40" t="n">
+        <v>43.91354994576173</v>
+      </c>
+      <c r="I40" t="n">
+        <v>22.33211452259287</v>
+      </c>
+      <c r="J40" t="n">
+        <v>5.911666666666667</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.9263194446981112</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.2646854063785413</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.1669444444444445</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.1736322476880178</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.09222222222222222</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.04184212629441525</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.04480245618868105</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.04123329335329318</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.01666666666666667</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.002777777777777778</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.01212385504068779</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.0006946968549389601</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>3.755314019377882e-05</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>5.592679937997659e-05</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>4.200685720407528e-05</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>607.3144815866046</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B41" t="n">
+        <v>3</v>
+      </c>
+      <c r="C41" t="n">
+        <v>7946</v>
+      </c>
+      <c r="D41" t="n">
+        <v>35.41937766412618</v>
+      </c>
+      <c r="E41" t="n">
+        <v>395.3339336387469</v>
+      </c>
+      <c r="F41" t="n">
+        <v>168.2205555555556</v>
+      </c>
+      <c r="G41" t="n">
+        <v>54.08837419044826</v>
+      </c>
+      <c r="H41" t="n">
+        <v>9.559583823156483</v>
+      </c>
+      <c r="I41" t="n">
+        <v>4.912042403898996</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.462894974286271</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1.486111111111111</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.7463888888888889</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.5005225509949831</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.2597222222222222</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.1804074700040743</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.0419280385986496</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.1030563128828668</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.1344588324335471</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.1163888888888889</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.01111111111111111</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>6.007679316175943e-07</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0.0003449901133667444</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0.001666666666666667</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>674.5788699349029</v>
       </c>
     </row>
   </sheetData>

--- a/overS.xlsx
+++ b/overS.xlsx
@@ -4888,70 +4888,70 @@
         <v>3</v>
       </c>
       <c r="C27" t="n">
-        <v>4035.507099858597</v>
+        <v>7950.940001969825</v>
       </c>
       <c r="D27" t="n">
-        <v>18.6685829888115</v>
+        <v>24.63916666666667</v>
       </c>
       <c r="E27" t="n">
-        <v>179.0833840745328</v>
+        <v>442.2191467606088</v>
       </c>
       <c r="F27" t="n">
-        <v>204.3469444444444</v>
+        <v>171.9767943911428</v>
       </c>
       <c r="G27" t="n">
-        <v>108.0055555555556</v>
+        <v>42.22583333333333</v>
       </c>
       <c r="H27" t="n">
-        <v>40.13944444444444</v>
+        <v>9.064166666666667</v>
       </c>
       <c r="I27" t="n">
-        <v>20.71166666666667</v>
+        <v>5.217604814265186</v>
       </c>
       <c r="J27" t="n">
-        <v>5.911666666666667</v>
+        <v>2.881111111111111</v>
       </c>
       <c r="K27" t="n">
-        <v>1.110788036271688</v>
+        <v>1.793590814612497</v>
       </c>
       <c r="L27" t="n">
-        <v>0.3034676258340796</v>
+        <v>0.8285136947516962</v>
       </c>
       <c r="M27" t="n">
-        <v>0.1709423187427016</v>
+        <v>0.4741281181854541</v>
       </c>
       <c r="N27" t="n">
-        <v>0.1435525450500733</v>
+        <v>0.2597222222222222</v>
       </c>
       <c r="O27" t="n">
-        <v>0.09936288305683846</v>
+        <v>0.1527777777777778</v>
       </c>
       <c r="P27" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.07420067602255317</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.08186428965825764</v>
+        <v>0.1019444444444444</v>
       </c>
       <c r="R27" t="n">
-        <v>0.03055555555555555</v>
+        <v>0.06111111111111111</v>
       </c>
       <c r="S27" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.1429168753919526</v>
       </c>
       <c r="T27" t="n">
-        <v>0.002777777777777778</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>0.001463489377265885</v>
       </c>
       <c r="V27" t="n">
-        <v>0.0007984382626604637</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0.0006657423835285191</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="AC27" t="n">
-        <v>5.818437902513076e-06</v>
+        <v>7.085370843562035e-06</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>0.0002777777777777778</v>
       </c>
       <c r="AH27" t="n">
         <v>0</v>
@@ -5011,7 +5011,7 @@
         <v>0</v>
       </c>
       <c r="AR27" t="n">
-        <v>0</v>
+        <v>0.001883106048934578</v>
       </c>
       <c r="AS27" t="n">
         <v>0</v>
@@ -5044,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="BC27" t="n">
-        <v>578.8703592054865</v>
+        <v>702.1274720480001</v>
       </c>
     </row>
     <row r="28">
@@ -5055,70 +5055,70 @@
         <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>8513.546766217065</v>
+        <v>7946</v>
       </c>
       <c r="D28" t="n">
-        <v>89.74361111111111</v>
+        <v>38.53694898000413</v>
       </c>
       <c r="E28" t="n">
-        <v>305.2675</v>
+        <v>372.8102777777778</v>
       </c>
       <c r="F28" t="n">
-        <v>96.97042515260874</v>
+        <v>168.2205555555556</v>
       </c>
       <c r="G28" t="n">
-        <v>29.11088530073156</v>
+        <v>58.9180509041821</v>
       </c>
       <c r="H28" t="n">
-        <v>11.31805555555556</v>
+        <v>9.064166666666667</v>
       </c>
       <c r="I28" t="n">
-        <v>7.231628730204529</v>
+        <v>4.988257668952032</v>
       </c>
       <c r="J28" t="n">
-        <v>0.5522222222222222</v>
+        <v>3.04192346575813</v>
       </c>
       <c r="K28" t="n">
-        <v>0.3242902448228553</v>
+        <v>1.486111111111111</v>
       </c>
       <c r="L28" t="n">
-        <v>0.02972222222222222</v>
+        <v>0.7463888888888889</v>
       </c>
       <c r="M28" t="n">
-        <v>0.01722222222222222</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="N28" t="n">
-        <v>0.04416666666666667</v>
+        <v>0.2597222222222222</v>
       </c>
       <c r="O28" t="n">
-        <v>0.1133333333333333</v>
+        <v>0.1730972438215943</v>
       </c>
       <c r="P28" t="n">
-        <v>0.03274840253667468</v>
+        <v>0.05036999533842312</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.02628737308950707</v>
+        <v>0.1019444444444444</v>
       </c>
       <c r="R28" t="n">
-        <v>0.001388888888888889</v>
+        <v>0.06111111111111111</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>0.1174268563182912</v>
       </c>
       <c r="T28" t="n">
-        <v>0.003888888888888889</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0.003055555555555556</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0.006666666666666667</v>
+        <v>0.001369267682520386</v>
       </c>
       <c r="X28" t="n">
-        <v>0.004588228964982156</v>
+        <v>0.0006121600162951198</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -5133,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.423667652955647e-05</v>
+        <v>0</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -5145,7 +5145,7 @@
         <v>0</v>
       </c>
       <c r="AG28" t="n">
-        <v>6.060931066757944e-06</v>
+        <v>0.0002779329425315079</v>
       </c>
       <c r="AH28" t="n">
         <v>0</v>
@@ -5178,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="AR28" t="n">
-        <v>0</v>
+        <v>0.001982141606375394</v>
       </c>
       <c r="AS28" t="n">
         <v>0</v>
@@ -5211,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="BC28" t="n">
-        <v>540.8017270638996</v>
+        <v>659.0639277277336</v>
       </c>
     </row>
     <row r="29">
@@ -5222,70 +5222,70 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>8039</v>
+        <v>3844</v>
       </c>
       <c r="D29" t="n">
-        <v>31.20055555555556</v>
+        <v>43.95038682003927</v>
       </c>
       <c r="E29" t="n">
-        <v>169.5596266123316</v>
+        <v>158.9811111111111</v>
       </c>
       <c r="F29" t="n">
-        <v>121.0920160872593</v>
+        <v>210.601466641285</v>
       </c>
       <c r="G29" t="n">
-        <v>48.57616456248177</v>
+        <v>108.0055555555556</v>
       </c>
       <c r="H29" t="n">
-        <v>18.70208723815166</v>
+        <v>48.59062697218772</v>
       </c>
       <c r="I29" t="n">
-        <v>4.870277777777778</v>
+        <v>20.71166666666667</v>
       </c>
       <c r="J29" t="n">
-        <v>1.721388888888889</v>
+        <v>5.911666666666667</v>
       </c>
       <c r="K29" t="n">
-        <v>1.313761461548228</v>
+        <v>0.7740806863924842</v>
       </c>
       <c r="L29" t="n">
-        <v>0.7801701685950722</v>
+        <v>0.412697782242244</v>
       </c>
       <c r="M29" t="n">
-        <v>0.215884778158593</v>
+        <v>0.1941095672451386</v>
       </c>
       <c r="N29" t="n">
-        <v>0.1736111111111111</v>
+        <v>0.1700981580136438</v>
       </c>
       <c r="O29" t="n">
-        <v>0.1977949033504831</v>
+        <v>0.1058329792312419</v>
       </c>
       <c r="P29" t="n">
-        <v>0.4605555555555556</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.4417545689046415</v>
+        <v>0.03722222222222222</v>
       </c>
       <c r="R29" t="n">
-        <v>0.3181080085531124</v>
+        <v>0.03055555555555555</v>
       </c>
       <c r="S29" t="n">
-        <v>0.2911111111111111</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="T29" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04506396901306751</v>
+        <v>0.005078500592446785</v>
       </c>
       <c r="V29" t="n">
-        <v>6.286344195400516e-05</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0.0003006164995206083</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0.0005827910532213204</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -5300,7 +5300,7 @@
         <v>0</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.0003096007508503098</v>
+        <v>3.037387723960023e-05</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -5312,7 +5312,7 @@
         <v>0</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>4.209409242808374e-05</v>
       </c>
       <c r="AH29" t="n">
         <v>0</v>
@@ -5378,7 +5378,7 @@
         <v>0</v>
       </c>
       <c r="BC29" t="n">
-        <v>400.2389660078708</v>
+        <v>598.5433394640877</v>
       </c>
     </row>
     <row r="30">
@@ -5389,70 +5389,70 @@
         <v>3</v>
       </c>
       <c r="C30" t="n">
-        <v>3844</v>
+        <v>7946</v>
       </c>
       <c r="D30" t="n">
-        <v>30.39536447778384</v>
+        <v>39.13185311942076</v>
       </c>
       <c r="E30" t="n">
-        <v>191.9227730254219</v>
+        <v>372.8102777777778</v>
       </c>
       <c r="F30" t="n">
-        <v>212.2538852112429</v>
+        <v>168.2205555555556</v>
       </c>
       <c r="G30" t="n">
-        <v>112.2403023114464</v>
+        <v>49.75078011791177</v>
       </c>
       <c r="H30" t="n">
-        <v>40.13944444444444</v>
+        <v>15.26802343772183</v>
       </c>
       <c r="I30" t="n">
-        <v>20.71166666666667</v>
+        <v>4.264166666666667</v>
       </c>
       <c r="J30" t="n">
-        <v>6.426932691218198</v>
+        <v>2.881111111111111</v>
       </c>
       <c r="K30" t="n">
-        <v>0.9171725074543771</v>
+        <v>1.486111111111111</v>
       </c>
       <c r="L30" t="n">
-        <v>0.2225</v>
+        <v>0.9007319742879141</v>
       </c>
       <c r="M30" t="n">
-        <v>0.1790752359734784</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="N30" t="n">
-        <v>0.1403864411687421</v>
+        <v>0.2597222222222222</v>
       </c>
       <c r="O30" t="n">
-        <v>0.1105597032584757</v>
+        <v>0.158072472305947</v>
       </c>
       <c r="P30" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.03888888888888889</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.03722222222222222</v>
+        <v>0.1019444444444444</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1220844175743069</v>
+        <v>0.0705849676626637</v>
       </c>
       <c r="S30" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.1163888888888889</v>
       </c>
       <c r="T30" t="n">
-        <v>0.01110226397214228</v>
+        <v>0.01770164082486309</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0.000123041845603589</v>
+        <v>0.0006683858630691326</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>0.000412331923973477</v>
       </c>
       <c r="X30" t="n">
-        <v>0.000120933954164845</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -5467,7 +5467,7 @@
         <v>0</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>3.519048653763903e-05</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -5479,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="AG30" t="n">
-        <v>1.416904424363973e-05</v>
+        <v>0.0002777777777777778</v>
       </c>
       <c r="AH30" t="n">
         <v>0</v>
@@ -5512,7 +5512,7 @@
         <v>0</v>
       </c>
       <c r="AR30" t="n">
-        <v>1.240430669226186e-05</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="AS30" t="n">
         <v>0</v>
@@ -5545,7 +5545,7 @@
         <v>0</v>
       </c>
       <c r="BC30" t="n">
-        <v>615.889075502332</v>
+        <v>655.9521969717425</v>
       </c>
     </row>
     <row r="31">
@@ -5556,70 +5556,70 @@
         <v>3</v>
       </c>
       <c r="C31" t="n">
-        <v>3938.310974780848</v>
+        <v>7946</v>
       </c>
       <c r="D31" t="n">
-        <v>12.20916666666667</v>
+        <v>33.11400922963054</v>
       </c>
       <c r="E31" t="n">
-        <v>158.9811111111111</v>
+        <v>372.8102777777778</v>
       </c>
       <c r="F31" t="n">
-        <v>228.3796564764087</v>
+        <v>170.7266972588416</v>
       </c>
       <c r="G31" t="n">
-        <v>108.0055555555556</v>
+        <v>55.2977846533065</v>
       </c>
       <c r="H31" t="n">
-        <v>45.3612973989956</v>
+        <v>12.35838634327978</v>
       </c>
       <c r="I31" t="n">
-        <v>20.71166666666667</v>
+        <v>4.264166666666667</v>
       </c>
       <c r="J31" t="n">
-        <v>5.911666666666667</v>
+        <v>2.881111111111111</v>
       </c>
       <c r="K31" t="n">
-        <v>0.7608333333333334</v>
+        <v>1.486111111111111</v>
       </c>
       <c r="L31" t="n">
-        <v>0.3190015923898426</v>
+        <v>0.9222983294604118</v>
       </c>
       <c r="M31" t="n">
-        <v>0.1669444444444445</v>
+        <v>0.4895857351025087</v>
       </c>
       <c r="N31" t="n">
-        <v>0.14</v>
+        <v>0.2597222222222222</v>
       </c>
       <c r="O31" t="n">
-        <v>0.09222222222222222</v>
+        <v>0.1527777777777778</v>
       </c>
       <c r="P31" t="n">
-        <v>0.06234857953964297</v>
+        <v>0.04702977432452156</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.08950606009784209</v>
+        <v>0.1019444444444444</v>
       </c>
       <c r="R31" t="n">
-        <v>0.03055555555555555</v>
+        <v>0.06111111111111111</v>
       </c>
       <c r="S31" t="n">
-        <v>0.07167276023333953</v>
+        <v>0.1388273707820022</v>
       </c>
       <c r="T31" t="n">
-        <v>0.002777777777777778</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="U31" t="n">
-        <v>0.001245201150840859</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0.0007452548866270253</v>
+        <v>6.413152527095159e-05</v>
       </c>
       <c r="W31" t="n">
-        <v>9.520343063564966e-05</v>
+        <v>0.001287411942753761</v>
       </c>
       <c r="X31" t="n">
-        <v>8.375468764214124e-05</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -5634,7 +5634,7 @@
         <v>0</v>
       </c>
       <c r="AC31" t="n">
-        <v>2.313100729653521e-05</v>
+        <v>6.072792464799096e-05</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>0.0002777777777777778</v>
       </c>
       <c r="AH31" t="n">
         <v>0</v>
@@ -5679,7 +5679,7 @@
         <v>0</v>
       </c>
       <c r="AR31" t="n">
-        <v>0</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="AS31" t="n">
         <v>0</v>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="BC31" t="n">
-        <v>581.2981754128281</v>
+        <v>655.1263087438983</v>
       </c>
     </row>
     <row r="32">
@@ -5723,70 +5723,70 @@
         <v>3</v>
       </c>
       <c r="C32" t="n">
-        <v>8169.910554006149</v>
+        <v>3844</v>
       </c>
       <c r="D32" t="n">
-        <v>89.74361111111111</v>
+        <v>12.58002525862136</v>
       </c>
       <c r="E32" t="n">
-        <v>337.2906315170839</v>
+        <v>158.9811111111111</v>
       </c>
       <c r="F32" t="n">
-        <v>100.1838373638624</v>
+        <v>220.6798965401739</v>
       </c>
       <c r="G32" t="n">
-        <v>27.59916666666667</v>
+        <v>108.0055555555556</v>
       </c>
       <c r="H32" t="n">
-        <v>11.31805555555556</v>
+        <v>40.69096057742562</v>
       </c>
       <c r="I32" t="n">
-        <v>2.578888888888889</v>
+        <v>20.71166666666667</v>
       </c>
       <c r="J32" t="n">
-        <v>0.5522222222222222</v>
+        <v>5.911666666666667</v>
       </c>
       <c r="K32" t="n">
-        <v>0.1880552011821177</v>
+        <v>1.119664218588344</v>
       </c>
       <c r="L32" t="n">
-        <v>0.02972222222222222</v>
+        <v>0.2225</v>
       </c>
       <c r="M32" t="n">
-        <v>0.05151153474108805</v>
+        <v>0.1669444444444445</v>
       </c>
       <c r="N32" t="n">
-        <v>0.04416666666666667</v>
+        <v>0.1592989281966177</v>
       </c>
       <c r="O32" t="n">
-        <v>0.1148511816278435</v>
+        <v>0.1058116819584516</v>
       </c>
       <c r="P32" t="n">
-        <v>0.04888467669812115</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.04355583307358373</v>
+        <v>0.03722222222222222</v>
       </c>
       <c r="R32" t="n">
-        <v>0.007464619127598893</v>
+        <v>0.04424963010017018</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="T32" t="n">
-        <v>0.003888888888888889</v>
+        <v>0.07958370201622723</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01059391663258989</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0.003088899893276181</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0.004989343956141461</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -5813,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.0001073931763998984</v>
+        <v>0</v>
       </c>
       <c r="AH32" t="n">
         <v>0</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="AR32" t="n">
-        <v>0.0002476630092190725</v>
+        <v>0</v>
       </c>
       <c r="AS32" t="n">
         <v>0</v>
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="BC32" t="n">
-        <v>569.8242080329532</v>
+        <v>569.5544905370805</v>
       </c>
     </row>
     <row r="33">
@@ -5893,67 +5893,67 @@
         <v>7755</v>
       </c>
       <c r="D33" t="n">
-        <v>108.2814546071028</v>
+        <v>93.58149638931435</v>
       </c>
       <c r="E33" t="n">
-        <v>364.0554226974572</v>
+        <v>318.6098978062359</v>
       </c>
       <c r="F33" t="n">
-        <v>96.70225601235707</v>
+        <v>88.10777777777778</v>
       </c>
       <c r="G33" t="n">
         <v>27.59916666666667</v>
       </c>
       <c r="H33" t="n">
-        <v>11.31805555555556</v>
+        <v>17.16513119519907</v>
       </c>
       <c r="I33" t="n">
         <v>2.578888888888889</v>
       </c>
       <c r="J33" t="n">
-        <v>0.5522222222222222</v>
+        <v>0.9643196111011714</v>
       </c>
       <c r="K33" t="n">
-        <v>0.444378693603967</v>
+        <v>0.1781477886937612</v>
       </c>
       <c r="L33" t="n">
-        <v>0.02972222222222222</v>
+        <v>0.1256927914191783</v>
       </c>
       <c r="M33" t="n">
-        <v>0.01872139536734544</v>
+        <v>0.01993678512484428</v>
       </c>
       <c r="N33" t="n">
-        <v>0.04514788516800829</v>
+        <v>0.1020249661800202</v>
       </c>
       <c r="O33" t="n">
         <v>0.1133333333333333</v>
       </c>
       <c r="P33" t="n">
-        <v>0.01821615957762956</v>
+        <v>0.003055555555555556</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>0.05728648718077019</v>
       </c>
       <c r="R33" t="n">
-        <v>0.01317434157593494</v>
+        <v>0.001604141401543951</v>
       </c>
       <c r="S33" t="n">
-        <v>0.01768761887246103</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.03449330615594477</v>
+        <v>0.003888888888888889</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0.003055555555555556</v>
+        <v>0.003726637113406733</v>
       </c>
       <c r="W33" t="n">
-        <v>0.00741574810804101</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="X33" t="n">
-        <v>0.004444444444444444</v>
+        <v>0.005243540894635612</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>9.042682699990026e-06</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -5980,7 +5980,7 @@
         <v>0</v>
       </c>
       <c r="AG33" t="n">
-        <v>3.126145482503054e-05</v>
+        <v>5.314697594229304e-05</v>
       </c>
       <c r="AH33" t="n">
         <v>0</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="BC33" t="n">
-        <v>611.8372886156902</v>
+        <v>549.227348107295</v>
       </c>
     </row>
     <row r="34">
@@ -6057,70 +6057,70 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>5718</v>
+        <v>8597.578431610875</v>
       </c>
       <c r="D34" t="n">
-        <v>16.71566217543463</v>
+        <v>39.4956210772125</v>
       </c>
       <c r="E34" t="n">
-        <v>83.86162591619471</v>
+        <v>204.9414129658084</v>
       </c>
       <c r="F34" t="n">
-        <v>46.52861111111111</v>
+        <v>121.5095326488986</v>
       </c>
       <c r="G34" t="n">
-        <v>11.46212176365037</v>
+        <v>28.51888888888889</v>
       </c>
       <c r="H34" t="n">
-        <v>2.475</v>
+        <v>10.80277521651671</v>
       </c>
       <c r="I34" t="n">
-        <v>0.4530555555555555</v>
+        <v>7.17124409110928</v>
       </c>
       <c r="J34" t="n">
-        <v>0.02916666666666667</v>
+        <v>2.010928384065415</v>
       </c>
       <c r="K34" t="n">
-        <v>0.3984662862454753</v>
+        <v>1.355266363204815</v>
       </c>
       <c r="L34" t="n">
-        <v>0.06537456345332224</v>
+        <v>0.8186166593716271</v>
       </c>
       <c r="M34" t="n">
-        <v>0.009722222222222222</v>
+        <v>0.2472426955631682</v>
       </c>
       <c r="N34" t="n">
-        <v>0.01173109587512683</v>
+        <v>0.1736111111111111</v>
       </c>
       <c r="O34" t="n">
-        <v>0.02197272227494477</v>
+        <v>0.2040730365560997</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>0.4862034822994078</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.0713560898482135</v>
+        <v>0.5138604161034196</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>0.2795338998645908</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>0.2911111111111111</v>
       </c>
       <c r="T34" t="n">
-        <v>0.004856300122600498</v>
+        <v>0.2930904357878043</v>
       </c>
       <c r="U34" t="n">
-        <v>0.00544020558042177</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0.0002245670232177402</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>0.0001157072066581438</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -6135,7 +6135,7 @@
         <v>0</v>
       </c>
       <c r="AC34" t="n">
-        <v>1.973024691426266e-05</v>
+        <v>0.0002961083414229104</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -6147,7 +6147,7 @@
         <v>0</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>6.45035196808054e-06</v>
       </c>
       <c r="AH34" t="n">
         <v>0</v>
@@ -6213,7 +6213,7 @@
         <v>0</v>
       </c>
       <c r="BC34" t="n">
-        <v>162.1144069715055</v>
+        <v>419.1550974160396</v>
       </c>
     </row>
     <row r="35">
@@ -6224,61 +6224,61 @@
         <v>3</v>
       </c>
       <c r="C35" t="n">
-        <v>8039</v>
+        <v>3844</v>
       </c>
       <c r="D35" t="n">
-        <v>33.95761330154629</v>
+        <v>12.20916666666667</v>
       </c>
       <c r="E35" t="n">
-        <v>206.178631080994</v>
+        <v>194.0220937399062</v>
       </c>
       <c r="F35" t="n">
-        <v>114.0263888888889</v>
+        <v>219.2702352366129</v>
       </c>
       <c r="G35" t="n">
-        <v>28.69845427256291</v>
+        <v>108.0055555555556</v>
       </c>
       <c r="H35" t="n">
-        <v>17.5288331031879</v>
+        <v>40.13944444444444</v>
       </c>
       <c r="I35" t="n">
-        <v>4.870277777777778</v>
+        <v>20.71166666666667</v>
       </c>
       <c r="J35" t="n">
-        <v>1.790974411678141</v>
+        <v>5.911666666666667</v>
       </c>
       <c r="K35" t="n">
-        <v>1.355250641565057</v>
+        <v>0.8831659762892359</v>
       </c>
       <c r="L35" t="n">
-        <v>0.7391666666666666</v>
+        <v>0.2464571731238966</v>
       </c>
       <c r="M35" t="n">
-        <v>0.1684835047942868</v>
+        <v>0.1941743423715798</v>
       </c>
       <c r="N35" t="n">
-        <v>0.1736111111111111</v>
+        <v>0.14</v>
       </c>
       <c r="O35" t="n">
-        <v>0.1741666666666667</v>
+        <v>0.1211723064690607</v>
       </c>
       <c r="P35" t="n">
-        <v>0.4972343482936356</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.4175</v>
+        <v>0.03722222222222222</v>
       </c>
       <c r="R35" t="n">
-        <v>0.2992916291917818</v>
+        <v>0.05854573563327593</v>
       </c>
       <c r="S35" t="n">
-        <v>0.3054377246075095</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="T35" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04553794240128641</v>
+        <v>0.001218088111217451</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.0004415767424085202</v>
+        <v>0.001044802868034659</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -6302,7 +6302,7 @@
         <v>0</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.0002777777777777778</v>
+        <v>0</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -6380,7 +6380,7 @@
         <v>0</v>
       </c>
       <c r="BC35" t="n">
-        <v>411.5053502042319</v>
+        <v>602.0139407347185</v>
       </c>
     </row>
     <row r="36">
@@ -6391,70 +6391,70 @@
         <v>3</v>
       </c>
       <c r="C36" t="n">
-        <v>7946</v>
+        <v>7755</v>
       </c>
       <c r="D36" t="n">
-        <v>24.63916666666667</v>
+        <v>89.74361111111111</v>
       </c>
       <c r="E36" t="n">
-        <v>380.8821100475204</v>
+        <v>310.2206661173846</v>
       </c>
       <c r="F36" t="n">
-        <v>168.2205555555556</v>
+        <v>97.36087883461856</v>
       </c>
       <c r="G36" t="n">
-        <v>42.22583333333333</v>
+        <v>27.59916666666667</v>
       </c>
       <c r="H36" t="n">
-        <v>15.36928064132349</v>
+        <v>17.25102380587821</v>
       </c>
       <c r="I36" t="n">
-        <v>4.264166666666667</v>
+        <v>2.578888888888889</v>
       </c>
       <c r="J36" t="n">
-        <v>3.943114175740721</v>
+        <v>0.5522222222222222</v>
       </c>
       <c r="K36" t="n">
-        <v>1.486111111111111</v>
+        <v>0.155</v>
       </c>
       <c r="L36" t="n">
-        <v>0.7683720096310751</v>
+        <v>0.06561888551326832</v>
       </c>
       <c r="M36" t="n">
-        <v>0.4722222222222222</v>
+        <v>0.01908923580219151</v>
       </c>
       <c r="N36" t="n">
-        <v>0.2860015619122236</v>
+        <v>0.09925297634864957</v>
       </c>
       <c r="O36" t="n">
-        <v>0.1527777777777778</v>
+        <v>0.1287793712652972</v>
       </c>
       <c r="P36" t="n">
-        <v>0.09300128647924467</v>
+        <v>0.03434822216060698</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.1019444444444444</v>
+        <v>0.03659228984877246</v>
       </c>
       <c r="R36" t="n">
-        <v>0.06111111111111111</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="S36" t="n">
-        <v>0.1811422785193811</v>
+        <v>0.02515975279728399</v>
       </c>
       <c r="T36" t="n">
-        <v>0.03584888332591447</v>
+        <v>0.02127885320518755</v>
       </c>
       <c r="U36" t="n">
-        <v>0.002181517059669943</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>0.003055555555555556</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -6469,7 +6469,7 @@
         <v>0</v>
       </c>
       <c r="AC36" t="n">
-        <v>1.299714658982857e-05</v>
+        <v>0</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -6481,7 +6481,7 @@
         <v>0</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.0003249023125126525</v>
+        <v>0</v>
       </c>
       <c r="AH36" t="n">
         <v>0</v>
@@ -6514,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="AR36" t="n">
-        <v>0.001666666666666667</v>
+        <v>0.0004124517580406368</v>
       </c>
       <c r="AS36" t="n">
         <v>0</v>
@@ -6547,7 +6547,7 @@
         <v>0</v>
       </c>
       <c r="BC36" t="n">
-        <v>643.1869458565267</v>
+        <v>545.9075452410249</v>
       </c>
     </row>
     <row r="37">
@@ -6558,31 +6558,31 @@
         <v>3</v>
       </c>
       <c r="C37" t="n">
-        <v>8039</v>
+        <v>8392.705064426513</v>
       </c>
       <c r="D37" t="n">
-        <v>31.20055555555556</v>
+        <v>48.9812827519273</v>
       </c>
       <c r="E37" t="n">
-        <v>191.5621243077729</v>
+        <v>164.4311111111111</v>
       </c>
       <c r="F37" t="n">
-        <v>117.461678234234</v>
+        <v>117.6717952987896</v>
       </c>
       <c r="G37" t="n">
         <v>28.51888888888889</v>
       </c>
       <c r="H37" t="n">
-        <v>11.72608504416598</v>
+        <v>9.945277777777777</v>
       </c>
       <c r="I37" t="n">
         <v>4.870277777777778</v>
       </c>
       <c r="J37" t="n">
-        <v>2.10286134116877</v>
+        <v>2.125596583112644</v>
       </c>
       <c r="K37" t="n">
-        <v>1.546427961172131</v>
+        <v>1.193888888888889</v>
       </c>
       <c r="L37" t="n">
         <v>0.7391666666666666</v>
@@ -6597,25 +6597,25 @@
         <v>0.1741666666666667</v>
       </c>
       <c r="P37" t="n">
-        <v>0.4777024307630068</v>
+        <v>0.4704334830043543</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.4175</v>
+        <v>0.4210062642187153</v>
       </c>
       <c r="R37" t="n">
-        <v>0.2960643265171783</v>
+        <v>0.3910319398804333</v>
       </c>
       <c r="S37" t="n">
-        <v>0.3045136229487804</v>
+        <v>0.2956542235258526</v>
       </c>
       <c r="T37" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.314290737325417</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04410893924894662</v>
+        <v>0.04391042660499511</v>
       </c>
       <c r="V37" t="n">
-        <v>0.0002063764487412818</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -6636,7 +6636,7 @@
         <v>0</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.0002777777777777778</v>
+        <v>0.0003420696522136416</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -6648,7 +6648,7 @@
         <v>0</v>
       </c>
       <c r="AG37" t="n">
-        <v>7.104022510226887e-05</v>
+        <v>4.277540966908979e-05</v>
       </c>
       <c r="AH37" t="n">
         <v>0</v>
@@ -6681,7 +6681,7 @@
         <v>0</v>
       </c>
       <c r="AR37" t="n">
-        <v>0</v>
+        <v>0.0001966680537274088</v>
       </c>
       <c r="AS37" t="n">
         <v>0</v>
@@ -6714,7 +6714,7 @@
         <v>0</v>
       </c>
       <c r="BC37" t="n">
-        <v>392.0621214024434</v>
+        <v>380.9300276659493</v>
       </c>
     </row>
     <row r="38">
@@ -6725,67 +6725,67 @@
         <v>3</v>
       </c>
       <c r="C38" t="n">
-        <v>9416.922499426109</v>
+        <v>5897.133222179106</v>
       </c>
       <c r="D38" t="n">
-        <v>24.63916666666667</v>
+        <v>6.766944444444444</v>
       </c>
       <c r="E38" t="n">
-        <v>373.5308845281228</v>
+        <v>71.44555555555556</v>
       </c>
       <c r="F38" t="n">
-        <v>173.4815692147732</v>
+        <v>66.34036928494439</v>
       </c>
       <c r="G38" t="n">
-        <v>42.8033107803835</v>
+        <v>10.82194444444444</v>
       </c>
       <c r="H38" t="n">
-        <v>10.21010386093741</v>
+        <v>5.561023298844015</v>
       </c>
       <c r="I38" t="n">
-        <v>4.264166666666667</v>
+        <v>3.950552108844652</v>
       </c>
       <c r="J38" t="n">
-        <v>3.286976308406282</v>
+        <v>0.02916666666666667</v>
       </c>
       <c r="K38" t="n">
-        <v>1.486111111111111</v>
+        <v>0.003888888888888889</v>
       </c>
       <c r="L38" t="n">
-        <v>0.9527084295161636</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="M38" t="n">
-        <v>0.4722222222222222</v>
+        <v>0.009722222222222222</v>
       </c>
       <c r="N38" t="n">
-        <v>0.2597222222222222</v>
+        <v>0.03155367675260726</v>
       </c>
       <c r="O38" t="n">
-        <v>0.1527777777777778</v>
+        <v>0.01389413410926833</v>
       </c>
       <c r="P38" t="n">
-        <v>0.1787970540101778</v>
+        <v>0.04662777077297227</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.1019444444444444</v>
+        <v>0.02046667998166533</v>
       </c>
       <c r="R38" t="n">
-        <v>0.06111111111111111</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0.1497696576619271</v>
+        <v>0.006153582078813678</v>
       </c>
       <c r="T38" t="n">
-        <v>0.0671744721225183</v>
+        <v>0.05570852213339611</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>0.0001798679041235974</v>
       </c>
       <c r="W38" t="n">
-        <v>0.0006978148986710931</v>
+        <v>0.00113852758002385</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -6815,7 +6815,7 @@
         <v>0</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.0002777777777777778</v>
+        <v>0</v>
       </c>
       <c r="AH38" t="n">
         <v>0</v>
@@ -6848,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="AR38" t="n">
-        <v>0.001666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AS38" t="n">
         <v>0</v>
@@ -6881,7 +6881,7 @@
         <v>0</v>
       </c>
       <c r="BC38" t="n">
-        <v>636.1011587874996</v>
+        <v>165.1182230095015</v>
       </c>
     </row>
     <row r="39">
@@ -6892,49 +6892,49 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>3844</v>
+        <v>4984.700708911052</v>
       </c>
       <c r="D39" t="n">
-        <v>23.51634049379723</v>
+        <v>12.20916666666667</v>
       </c>
       <c r="E39" t="n">
-        <v>167.1502601893949</v>
+        <v>158.9811111111111</v>
       </c>
       <c r="F39" t="n">
         <v>204.3469444444444</v>
       </c>
       <c r="G39" t="n">
-        <v>109.750091648484</v>
+        <v>111.4459689505702</v>
       </c>
       <c r="H39" t="n">
-        <v>40.13944444444444</v>
+        <v>41.88322054190224</v>
       </c>
       <c r="I39" t="n">
-        <v>25.31337852343414</v>
+        <v>24.65611533715859</v>
       </c>
       <c r="J39" t="n">
-        <v>6.397539966203404</v>
+        <v>6.433512123277826</v>
       </c>
       <c r="K39" t="n">
-        <v>0.7608333333333334</v>
+        <v>0.8837149214817754</v>
       </c>
       <c r="L39" t="n">
         <v>0.2225</v>
       </c>
       <c r="M39" t="n">
-        <v>0.1690838812909431</v>
+        <v>0.2162760043422822</v>
       </c>
       <c r="N39" t="n">
-        <v>0.14</v>
+        <v>0.1577532579033821</v>
       </c>
       <c r="O39" t="n">
-        <v>0.1365091247893737</v>
+        <v>0.09462282271081096</v>
       </c>
       <c r="P39" t="n">
         <v>0.04166666666666666</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.03722222222222222</v>
+        <v>0.1140664049089657</v>
       </c>
       <c r="R39" t="n">
         <v>0.03055555555555555</v>
@@ -6943,19 +6943,19 @@
         <v>0.01666666666666667</v>
       </c>
       <c r="T39" t="n">
-        <v>0.002777777777777778</v>
+        <v>0.05449171438538338</v>
       </c>
       <c r="U39" t="n">
-        <v>0.009168691762957971</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0.0009507224951971836</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0.0003224119296671202</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -6970,7 +6970,7 @@
         <v>0</v>
       </c>
       <c r="AC39" t="n">
-        <v>6.116139147933001e-07</v>
+        <v>0</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="AG39" t="n">
-        <v>0</v>
+        <v>1.227961473517142e-05</v>
       </c>
       <c r="AH39" t="n">
         <v>0</v>
@@ -7015,7 +7015,7 @@
         <v>0</v>
       </c>
       <c r="AR39" t="n">
-        <v>5.815033505461164e-05</v>
+        <v>0.0001682490782991753</v>
       </c>
       <c r="AS39" t="n">
         <v>0</v>
@@ -7048,7 +7048,7 @@
         <v>0</v>
       </c>
       <c r="BC39" t="n">
-        <v>578.1823155266419</v>
+        <v>561.7885337184455</v>
       </c>
     </row>
     <row r="40">
@@ -7059,52 +7059,52 @@
         <v>3</v>
       </c>
       <c r="C40" t="n">
-        <v>3844</v>
+        <v>4353.747292937566</v>
       </c>
       <c r="D40" t="n">
-        <v>14.20027274457347</v>
+        <v>26.49219967936934</v>
       </c>
       <c r="E40" t="n">
-        <v>203.821853933712</v>
+        <v>239.6607689645048</v>
       </c>
       <c r="F40" t="n">
-        <v>204.3469444444444</v>
+        <v>215.0730972436484</v>
       </c>
       <c r="G40" t="n">
-        <v>111.0039992044488</v>
+        <v>122.952473834709</v>
       </c>
       <c r="H40" t="n">
-        <v>43.91354994576173</v>
+        <v>43.26083232494548</v>
       </c>
       <c r="I40" t="n">
-        <v>22.33211452259287</v>
+        <v>20.71166666666667</v>
       </c>
       <c r="J40" t="n">
         <v>5.911666666666667</v>
       </c>
       <c r="K40" t="n">
-        <v>0.9263194446981112</v>
+        <v>0.7608333333333334</v>
       </c>
       <c r="L40" t="n">
-        <v>0.2646854063785413</v>
+        <v>0.2845720175858125</v>
       </c>
       <c r="M40" t="n">
         <v>0.1669444444444445</v>
       </c>
       <c r="N40" t="n">
-        <v>0.1736322476880178</v>
+        <v>0.14</v>
       </c>
       <c r="O40" t="n">
-        <v>0.09222222222222222</v>
+        <v>0.1197237878435352</v>
       </c>
       <c r="P40" t="n">
-        <v>0.04184212629441525</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.04480245618868105</v>
+        <v>0.09881104034621144</v>
       </c>
       <c r="R40" t="n">
-        <v>0.04123329335329318</v>
+        <v>0.03055555555555555</v>
       </c>
       <c r="S40" t="n">
         <v>0.01666666666666667</v>
@@ -7113,16 +7113,16 @@
         <v>0.002777777777777778</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01212385504068779</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0.0006946968549389601</v>
+        <v>0.0004609250204453074</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>0.0001843486353030618</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -7137,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="AC40" t="n">
-        <v>3.755314019377882e-05</v>
+        <v>3.058922230096509e-05</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -7149,7 +7149,7 @@
         <v>0</v>
       </c>
       <c r="AG40" t="n">
-        <v>5.592679937997659e-05</v>
+        <v>3.243099175051251e-05</v>
       </c>
       <c r="AH40" t="n">
         <v>0</v>
@@ -7182,7 +7182,7 @@
         <v>0</v>
       </c>
       <c r="AR40" t="n">
-        <v>4.200685720407528e-05</v>
+        <v>0.0001563716109949755</v>
       </c>
       <c r="AS40" t="n">
         <v>0</v>
@@ -7215,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="BC40" t="n">
-        <v>607.3144815866046</v>
+        <v>675.726121336211</v>
       </c>
     </row>
     <row r="41">
@@ -7226,70 +7226,70 @@
         <v>3</v>
       </c>
       <c r="C41" t="n">
-        <v>7946</v>
+        <v>3844</v>
       </c>
       <c r="D41" t="n">
-        <v>35.41937766412618</v>
+        <v>32.5166699354005</v>
       </c>
       <c r="E41" t="n">
-        <v>395.3339336387469</v>
+        <v>218.4498934185154</v>
       </c>
       <c r="F41" t="n">
-        <v>168.2205555555556</v>
+        <v>205.3738848486699</v>
       </c>
       <c r="G41" t="n">
-        <v>54.08837419044826</v>
+        <v>114.0701080034267</v>
       </c>
       <c r="H41" t="n">
-        <v>9.559583823156483</v>
+        <v>43.83271073136545</v>
       </c>
       <c r="I41" t="n">
-        <v>4.912042403898996</v>
+        <v>21.91462954402794</v>
       </c>
       <c r="J41" t="n">
-        <v>3.462894974286271</v>
+        <v>6.443691277597383</v>
       </c>
       <c r="K41" t="n">
-        <v>1.486111111111111</v>
+        <v>0.8703999141877627</v>
       </c>
       <c r="L41" t="n">
-        <v>0.7463888888888889</v>
+        <v>0.2777496144802107</v>
       </c>
       <c r="M41" t="n">
-        <v>0.5005225509949831</v>
+        <v>0.1687789142107668</v>
       </c>
       <c r="N41" t="n">
-        <v>0.2597222222222222</v>
+        <v>0.14</v>
       </c>
       <c r="O41" t="n">
-        <v>0.1804074700040743</v>
+        <v>0.09222222222222222</v>
       </c>
       <c r="P41" t="n">
-        <v>0.0419280385986496</v>
+        <v>0.08691826212068736</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.1030563128828668</v>
+        <v>0.1196280520689808</v>
       </c>
       <c r="R41" t="n">
-        <v>0.1344588324335471</v>
+        <v>0.03055555555555555</v>
       </c>
       <c r="S41" t="n">
-        <v>0.1163888888888889</v>
+        <v>0.03517641552023999</v>
       </c>
       <c r="T41" t="n">
-        <v>0.01111111111111111</v>
+        <v>0.01032403541154527</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>0.007858678567751182</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>0.0004445860343608159</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>0.0006895566918598193</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -7304,7 +7304,7 @@
         <v>0</v>
       </c>
       <c r="AC41" t="n">
-        <v>6.007679316175943e-07</v>
+        <v>0</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -7316,7 +7316,7 @@
         <v>0</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.0003449901133667444</v>
+        <v>4.358088195562461e-05</v>
       </c>
       <c r="AH41" t="n">
         <v>0</v>
@@ -7349,7 +7349,7 @@
         <v>0</v>
       </c>
       <c r="AR41" t="n">
-        <v>0.001666666666666667</v>
+        <v>6.515536770701933e-05</v>
       </c>
       <c r="AS41" t="n">
         <v>0</v>
@@ -7382,7 +7382,7 @@
         <v>0</v>
       </c>
       <c r="BC41" t="n">
-        <v>674.5788699349029</v>
+        <v>644.4424423023248</v>
       </c>
     </row>
   </sheetData>
